--- a/BBC_reading/exel_files/bbc_scraping.xlsx
+++ b/BBC_reading/exel_files/bbc_scraping.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F303"/>
+  <dimension ref="A1:F332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21375,6 +21375,2151 @@
         </is>
       </c>
     </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>5/04/2020</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Мішель Робертс</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>Втрата нюху та смаку - основні симптоми Covid-19?</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Втрата нюху та смаку можуть бути важливими ознаками коронавірусу, стверджують британські дослідники.
+Команда вчених із Лондонського Королівського коледжу вивчила симптоми Covid-19 за допомогою додатку Covid Symptom Tracker, в якому понад 400 000 людей описували свій стан здоров'я.
+Втрата нюху та смаку є, однак, симптомами й інших респіраторних інфекцій, як-от звичайна застуда.
+Тому насамперед мають насторожити лихоманка і кашель - ці симптоми залишаються найважливішими ознаками Covid-19.
+Якщо у вас або когось із вашої родини спостерігається постійний кашель або висока температура, залишайтеся вдома, щоби зупинити поширення вірусу.
+Все про коронавірус. Стислі факти
+Що виявило дослідження?
+Дослідники Королівського коледжу почали збирати дані про можливі симптоми коронавірусу, щоби допомогти медикам краще зрозуміти хворобу.
+Дані додатку Covid Symptom Tracker показали так частоту симптомів:
+53% опитуваних вказували на втому і слабкість,
+29% - стійкий кашель,
+28% - задишку,
+18% - втрату нюху чи смаку
+10,5% страждали на лихоманку
+Із 400 тис. користувачів додатку 1 702 людини повідомили, що зробили тест на Covid-19. 579 із них отримали позитивний результат, а 1 123 - негативний.
+59% тих, у кого коронавірусна хвороба підтвердилася, повідомили про втрату нюху чи смаку.
+Коронавірус в Україні. Інтерактивна мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Коронавірус: як правильно ізолюватися
+Коронавірус: що він робить з організмом
+Чи треба внести втрату нюху і смаку до основних симптомів?
+На думку експертів, даних для цього поки що не достатньо.
+Організація охорони громадського здоров'я Англії та Всесвітня організація охорони здоров'я не додали ці симптоми до списку.
+Асоціація ЛОР-лікарів Великої Британії пояснила, що зникнення нюху та смаку у деяких пацієнтів є цілком природним і не є специфічною ознакою Covid-19.
+Утім, дослідники Лондонського Королівського коледжу додають, що ці симптоми можуть бути корисною додатковою ознакою, на яку слід звернути увагу поруч із кашлем та лихоманкою.
+Провідний дослідник професор Тім Спектор зазначив: "У поєднанні з іншими симптомами у пацієнтів, які втратили нюх і смак, втричі частіше діагностували Covid-19. Отже, ці симптоми мають стати серйозним приводом для самоізоляції протягом семи днів".
+Хочете отримувати головне в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>5/04/2020</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr"/>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>Хроніки коронавірусу: буде найважчий тиждень і багато смертей, каже Трамп</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Президент США Дональд Трамп порадив американцям готуватися до "найважчого тижня" пандемії коронавірусу, тоді як у суботу в штаті Нью-Йорк зафіксували рекордну кількість смертей за день - 630.
+Тим часом, в Італії й Іспанії кількість смертей і нових заражень почала поступово знижуватись.
+В Україні на ранок неділі зафіксували 1251 випадок коронавірусної хвороби, 32 людини померли.
+Коронавірус в Україні: підтвердили 1251 випадок, 32 людини померли
+Загалом у світі вже померли понад 60 000 людей, понад 1,1 мільйона інфіковані, свідчать дані американського Університету Джона Гопкінса.
+"Будуть смерті"
+Президент США Дональд Трамп порадив американцям готуватися до "найважчого тижня" пандемії, спрогнозувавши зростання смертності.
+"Будуть смерті", - сказав він на своєму щоденному брифінгу, похмуро оцінивши перебіг подій у наступні дні.
+Найбільш постраждалим штатам він пообіцяв виділити більше медичних засобів та допомогу військових.
+"Це, мабуть, буде найважчий тиждень, - між цим тижнем і наступним. На жаль, смерті буде дуже багато, але набагато менше смерті, ніж якби ми цього не зробили (обмежувальні заходи. - Ред.), але буде смерть", - сказав пан Трамп.
+Тим не менше, на Великдень він запропонував послабити рекомендації щодо соціальної дистанції.
+"Ми повинні відкрити нашу країну знову, - сказав він. - Ми не хочемо, аби це тривало місяцями, місяцями та місяцями".
+На вулицю - в масках і не більше двох: що ще забороняє Кабмін
+Коронавірус: як правильно ізолюватися
+Кількість підтверджених випадків інфікування у США перевищила 300 000, що є найвищим показником у світі.
+Станом на суботу в США померли майже 8 500 людей із Covid-19, найбільше - у штаті Нью-Йорк, який є епіцентром спалаху.
+У суботу в цьому штаті зафіксували ще 630 смертей від коронавірусу. Зараз у штаті майже стільки ж випадків коронавірусної хвороби (понад 113 000), як у всій Італії.
+Іспанія, схоже, вже перетнула пік
+Копирайт изображения
+REUTERS
+Прем'єр-міністр Іспанії Педро Санчес заявив, що країна "близька до проходження піку інфекцій", оскільки кількість смертей падає другий день поспіль.
+Пан Санчес також продовжив обмежувальні заходи в країні до 25 квітня, заявивши, що вони рятують життя людей.
+"Це - найскладніші дні нашого життя", - сказав він у зверненні до нації, оголосивши про продовження обмежень на два тижні.
+Напередодні в країні зафіксували 809 смертей - найнижчий денний показник за увесь тиждень.
+Загалом в країні померли 11 744 людей із коронавірусом. Загальна кількість випадків зараження по країні - 124 736, і цей показник зараз вищий, ніж в Італії.
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Королева звернеться до британців
+Копирайт изображения
+PA MEDIA
+Королева Великої Британії Єлизавета ІІ у неділю виступить із телезверненням до британців.
+Вона дуже рідко виступає зі спеціальними зверненнями до нації у часи криз. Це буде лише четвертий такий випадок за її 68-річне правління.
+Королева наголосить на великому значенні самодисципліни та рішучості під час пандемії коронавірусу.
+Вона також визнає горе, біль та фінансові труднощі, з якими стикаються британці.
+"Це часи дестабілізації в житті нашої країни: дестабілізації, яка принесла комусь горе, багатьом - фінансові труднощі і величезні зміни в повсякденному житті всіх нас", - скаже королева.
+Звернення знімав один оператор у захисному вбранні, а решта технічного персоналу перебувала в іншій кімнаті.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>5/04/2020</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr"/>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>Коронавірус в Україні. Інтерактивна мапа</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">В якій області найбільше інфікованих коронавірусом? Скільки одужало? А скільки померло? Все це - на нашій інтерактивній мапі.
+Станом на ранок 5 квітня в Україні лабораторно підтвердили 1251 випадок коронавірусної інфекції, йдеться в повідомленні міністерства охорони здоров'я.
+Найбільше підтверджених випадків захворювання у Києві - 225, далі йдуть Чернівецька (220) та Тернопільська (160) області.
+Загалом за час спалаху 32 людини померли, 25 пацієнтів одужали, додають у відомстві.
+Усі дані про поширення коронавірусу в Україні - з інформаційних повідомлень міністерства охорони здоров'я, за винятком анексованого Росією Криму.
+Клікніть на позначку на області, щоб дізнатися ситуацію з коронавірусом на території регіону.
+Кількість підтверджених випадків зараження коронавірусом в Україні
+Джерело даних: МОЗ. *Дані по анексованому Криму взяті з російських офіційних джерел, перевірити їх у незалежних джерелах поки що неможливо. Підтверджених даних з ОРДЛО немає. Мапа створена за допомогою Carto.
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>5/04/2020</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr"/>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>Коронавірус в Україні: підтвердили 1251 випадок, 32 людини померли</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+UNIAN
+Станом на ранок 5 квітня в Україні лабораторно підтвердили 1251 випадок коронавірусної інфекції, повідомляє Центр громадського здоров'я МОЗ України.
+Загалом протягом 4 квітня у вірусологічній лабораторії дослідили 1367 зразків, додають у центрі.
+Найбільше підтверджених випадків захворювання у Києві - 225, далі йдуть Чернівецька (220) та Тернопільська (160) області.
+Усього у країні зафіксували 32 летальних випадків від COVID-19 - померли 11 чоловіків та 21 жінка.
+Одужали від коронавірусної інфекції в Україні 25 людей.
+Карантин. Список нових обмежень
+Чи можна ходити по вулиці без маски: уряд роз'яснив усі нові заборони
+Коронавірус в Україні. Інтерактивна мапа
+Що таке "громадське місце", де відтепер обов'язкові захисні маски
+У МОЗ кажуть, що 84% померлих мали важкі серцево-судинні захворювання, цукровий діабет, новоутворення, захворювання нирок, легень та ожиріння. Переважна більшість померлих були старше 50 років.
+З 4 квітня в Україні уряд суттєво посилив карантинні заходи.
+Зокрема, заборонено відвідувати парки, сквери та спортивні майданчики, заборонено перебувати без супроводу на вулиці дітям до 14 років.
+Також потрібно мати при собі документи.
+З 6 квітня набуде чинності заборона ходити по вулиці більш як двом особам та відвідувати громадські місця без маски.
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>5/04/2020</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Діана Куришко</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>Собаки, взуття і пальта: що треба дезінфікувати у часи коронавірусу?</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+UNIAN
+Чи потрібно носити рукавички, як правильно одягати маску, чим мити продукти, що робити з собаками і котами в часи коронавірусу?
+На питання читачів BBC News Україна відповідала медична експертка ЮНІСЕФ Катерина Булавінова.
+Народила з коронавірусом? В Україні вперше прийняли пологи з підозрою на COVID-19
+Світло в кінці коронавірусу: п'ять причин не занепасти духом
+Хворіти на Covid-19 доведеться майже місяць. Але карантин вже врятував десятки тисяч
+Чи зависає коронавірус у повітрі?
+Коронавірус може залишатися деякий час у повітрі. Приблизно від 20 хвилин до 2 годин. Але це може статися лише якщо хтось дуже багато пчихав, або проводили якусь медичну процедуру - наприклад, бронхоскопію у відділеннях реанімації.
+Саме тому важливо, щоб лікарі в реанімаціях були дуже добре захищені. Саме тому важливо, щоб люди, які працюють в офісах, гарно їх провітрювали. Провітрювання - це один з найбільш дієвих засобів у профілактиці коронавірусу.
+Чи безпечно виходити на вулицю?
+Гуляти можна і треба, але лише на одинці. Якщо ви будете гуляти самі, лише з дітьми чи рідними, з якими ви живете, це безпечно - якщо ви будете на відстані від інших людей.
+Якщо ви збираєтесь компаніями, то вам важко проконтролювати, у кого з людей є якісь симптоми. Тоді ви можете поставити під удар близьких вам людей, які перебувають у зоні ризику.
+Нещодавно уряд заборонив виходити з дому групою понад дві людини одночасно.
+Копирайт изображения
+UNIAN
+Як гуляти з дітьми?
+Гуляти з дітьми на вулиці можна, але лише там, де у них не буде контакту з іншими дітьми. Наприклад, якщо це ваш особистий ігровий майданчик у вашому дворі. І там більше ніхто не грається крім вас.
+Як правильно носити маску?
+Уряд нещодавно заборонив перебувати у громадських місцях без масок.
+Копирайт изображения
+UNIAN
+Якщо, наприклад, ви йдете кудись, де може бути скупчення людей і ви знаєте, що там можуть не дотримуватись дистанції, то краще надягти маску.
+Маску потрібно міняти часто, і одразу, якщо вона намокла. Хірургічні маски треба міняти приблизно раз на дві години.
+Перед тим, як одягти маску, ви маєте помити руки. Після того, як зняли та викинули її - також помити руки. Або покласти у місце, де вона не буде в контакті з іншими речами.
+Як і коли варто носити рукавички?
+Мені невідомі рекомендації, що рукавички потрібно носити комусь, крім медичних працівників.
+Всі процедури вони мають робити лише в рукавичках, які потім обов'язково мають зняти і викинути. Після будь-яких маніпуляцій з пацієнтом медпрацівники мають зняти і викинути/змінити рукавички.
+Якщо ви носите рукавички, то у вас знижується увага і з'являється ілюзія захищеності. Цими рукавичками ви торкаєтесь всього і таким чином можете розносити інфекцію навколо.
+Копирайт изображения
+UNIAN
+Як часто мити руки?
+Мити руки потрібно дуже часто з водою і милом не менше 20 секунд. Заведіть собі звичку, що як тільки ви заходите з вулиці додому, то відразу мийте руки. Нічого не робіть, не торкаєтесь, а відразу мийте руки.
+Чим обробляти руки?
+Достатньо ретельно мити руки з милом. Але, якщо немає можливості помити руки, то їх потрібно обробляти чимось спиртовмісним, наприклад, спиртовмісними серветками.
+Чи потрібно щось капати в ніс, очі, полоскати горло для профілактики?
+Таке враження, що наші люди весь час хочуть собі щось кудись закапати. У людей формується відчуття, що якщо вони щось кудись закапали, то утворюється якийсь захисний екран і вірус не пройде. Ні.
+Нічого нікуди закапувати не треба. Якщо у вас нежить, то капайте. Ні? Не капайте.
+Пропустити Youtube допис , автор: BBC News Україна
+Увага: інші сайти можуть містити рекламу
+Кінець Youtube допису , автор: BBC News Україна
+Якщо болить горло, то полощіть. Не болить, то в жодному разі в цілях профілактики робити такого не треба. У доказовій медицині немає такої профілактики, що щось потрібно полоскати.
+Від коронавірусу наразі немає вакцини і немає ліків. Від нього вас може захистити миття рук, провітрювання приміщень, миття поверхонь, соціальна дистанція. Також важливі повноцінна їжа і сон, щоб ви не перевтомлювалися і ваш організм міг боротися.
+Жодні препарати, полоскання горла, закапування очей і носа не допомагають. Така профілактика не працює.
+Як доглядати за собакою в умовах коронавірусу?
+Гладити, чухати, любити, обнімати собаку. Коли повертаєтесь з прогулянки, не треба дезінфікувати бідну тварину. Треба обробити їй лапи, як ви завжди це робите - хтось миє, хтось витирає серветками чи рушником.
+Чим і як протирати поверхні?
+Вологе прибирання у приміщеннях потрібно робити часто. Ті поверхні, на які потрапляє слина, наприклад, столи і клавіатура, важливо протирати.
+Дверні ручки, вимикачі ви можете протирати, але важливіше частіше мити руки. Обробляти поверхні треба спиртовмісними рідинами.
+Копирайт изображения
+UNIAN
+Що робити з верхнім одягом і взуттям?
+З пальтами і капелюшками нічого не потрібно робити. Дайте їм спокій. Робіть все, як у звичайному житті.
+Чи може волосся переносити коронавірус ?
+Якщо ви працюєте в аптеці, або в медзакладі, маєте пишне волосся, то можливо є сенс його сховати. В інших випадках нічого робити не потрібно - ні занадто часто мити голову, ні тим більше стригтися.
+Скільки разів протирати мобільні телефони?
+Десь раз на годину, а то і частіше ми протираємо мобільні телефони. Якщо є, то спиртовмісними серветками, або іншими засобами дезінфекції.
+Не давайте свій телефон нікому в руки. Це одна з найбільш брудних поверхонь.
+Як мити овочі і фрукти?
+Не треба нічого дезінфікувати. Все робити як завжди. Мити овочі, фрукти проточною водою.
+Чи варто кварцувати приміщення?
+Не думаю, що це доцільно. Провітрювати більш ефективно.
+Кількість підтверджених випадків зараження коронавірусом в Україні
+Джерело даних: МОЗ. *Дані по анексованому Криму взяті з російських офіційних джерел, перевірити їх у незалежних джерелах поки що неможливо. Підтверджених даних з ОРДЛО немає. Мапа створена за допомогою Carto.
+Як подорожувати під час епідемії
+Як безпечно купувати продукти та замовляти їжу з доставкою
+Карантин: що зі школою і вступом до вишів?
+Чи захищають медичні маски від вірусу?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>4/04/2020</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Браян Луфкін</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>Ризик вигорання під час пандемії вищий. Що робити?</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+UNSPLASH
+Робота з дому, навчання дітей та догляд за ними, а ще й купа домашніх справ - з початком карантину нам довелося поєднати усе це. Як впоратися з новим стресом?
+Вигорання, перевтома на тлі хронічного стресу, добре відома багатьом, насамперед, поколінню міленіалів, які прагнуть встигнути якомога більше.
+З початком пандемії Covid-19 вигорання не зникло - воно набуло іншої форми.
+Вигорання не зникло - воно просто стало іншим
+Якщо ви серед тих щасливчиків, хто роботу не втратив, ви, напевно, працюєте з дому, намагаючись поєднати це з доглядом за дітьми та іншими нагальними потребами сім'ї.
+Повсякденне життя змінилося кардинально, до того ж на нашу голову звалилося безліч питань, з якими раніше ми не стикалися.
+Чи треба дезінфікувати продукти, принесені з магазину? Як підтримувати спортивну форму, сидячи вдома? Чи безпечно торкатися картонного пакування? Чи можна обійняти дітей?
+І ніби цього було замало, соцмережі бомбардують нас закликами провести час із користю та опанувати щось нове: написати сценарій, зробити шафу або вивчити мальтійську.
+Власне, чому б і ні? Ньютон відкрив закон тяжіння, а Шекспір написав "Короля Ліра", сидячи вдома та рятуючись від чуми.
+І отже, на нас звалилося виснаження геть іншого виду. Ось чому так важливо усвідомити, що саме з нами відбувається і як не збожеволіти в умовах нових викликів.
+Рівно опівдні: безлюдні вулиці міст світу
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Жінка працює з дому під час пандемії коронавірусу
+Втома від ухвалення рішень
+Під час пандемії вигорання виникає через інші причини. Фахівці називають це "втомою від ухвалення рішень".
+На нас падає потік інформації: "сумні і тривожні новини з усього світу, новий графік навчання дітей, налаштування віддаленої роботи", - каже психолог із Бостона Жанна Корец, яка працює з топменеджерами.
+Іншими словами, пандемія Covid-19 змушує нас швидко ухвалювати складні рішення в абсолютно новому контексті.
+Головна причина вигорання під час пандемії - "втома від ухвалення рішень"
+Проблеми, які потребують нагального рішення, змінюються щогодини. З одного боку, питання життя і смерті - як вберегти свою родину, з іншого - повсякденні турботи, як-от що приготувати дітям на обід.
+"Ми ще не звикли до цього нового світу", - додає нью-йоркська журналістка і професор біоетики Елізабет Юко.
+Ми намагаємось зрозуміти, як організувати свій день і розставити пріоритети, насамперед, коли наш дім, колись наша фортеця, тепер перетворився на офіс, школу і трохи в'язницю.
+Усе це поєднується з тиском ухвалювати розумні та безпечні рішення для себе, своєї родини та наших громад.
+"Ми вигораємо, нас надовго не вистачить". Лікарі про боротьбу з коронавірусом
+Знизити очікування
+Ситуацію ускладнює й те, що наші звичайні механізми долання стресу - спортзал чи заняття з живопису - тепер не доступні. А спроба відволіктися на щось нове насправді може лише посилити вигорання.
+Заклики реалізувати новий крутий проєкт, що палко лунають із соцмереж, можуть загнати у ще більший стрес.
+Як вивчати нову мову або опановувати суперкорисні навички, коли не встигаєш робити звичні повсякденні речі.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Комусь нове хобі допомагає розвіятися, для інших - це додаткове джерело стресу
+Але кожен має вирішити для себе сам, що йому допомагає, каже Лотта Дірбі, лікарка із клініки Майо, однієї з найбільших медичних науково-дослідних установ у США, яка досліджує вигорання у лікарів.
+Комусь до душі медитація або прогулянки наодинці, іншим - зануритися в Netflix.
+Головне в запобіганні вигоранню - це не виснажувати себе будь-якою діяльністю.
+Не варто вимагати від себе зараз більше, ніж зазвичай
+"Люди тривожаться, що не пишуть наступний роман або не вчаться грі на гітарі чи французькій мові. Вони почуваються невдахами, адже не використовують час, який нарешті отримали", - каже професор Юко.
+Не варто вимагати від себе зараз більше, ніж зазвичай, навіть, якщо у вас і з'явився вільний час.
+Піклуйтеся краще про своє здоров'я, а не про те, як просувається робота над вашим шедевром чи про його відсутність.
+Карантин вб'є бізнес і економіку. Чи справді це так?
+Хворіти на Covid-19 доведеться майже місяць. Але карантин вже врятував десятки тисяч
+Це не назавжди
+Як розповідає психолог Жанна Корец, у людей додалося безліч нових турбот: фінансова нестабільність, страх втратити роботу, тривога про батьків, розчарування щодо скасованих поїздок.
+А вимоги залишилися такими як і були, якщо не більшими, ви повинні добре виконувати свою роботу (якщо вона у вас залишилася) та вирішувати купу нових питань. Усе це сприяє вигоранню.
+Що робити? Подивіться на ситуацію ширше. "Це лише період життя і він мине. Це важкий період, між пунктом А і Б може статися багато тривожних речей, але пункт Б існує. І щодня ми наближаємося до нього", - пояснює професор Юко.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+З початком карантину багатьом батькам доводиться поєднувати роботу з дому та навчання дітей
+Є і хороша новина - можливо, ви опануєте корисні життєві навички за цей час.
+Причиною вигорання зазвичай є нереалістичні очікування роботодавця або нас самих, вважає Корец.
+Але цілком можливо, що ми вийдемо із пандемії більш гнучкими з новими життєвими навичками, навчившись пристосовуватися до обставин.
+"Тож коли ми повернемось до звичного життя, нам буде легше, адже ми навчилися долати труднощі", - впевнена психолог.
+Якщо ви розгублені, робіть прості, звичні речі. Для кожного рішення складіть список усіх "за" і "проти". Продумайте ризики.
+А втім, мабуть, найкраще, що ви можете зробити під час карантину і що є надійним засобом від вигорання - це не робити нічого.
+"Залишаючись вдома, ви вже робите дещо дуже корисне. Тож не роблячи нічого, ви таки щось робите", - підсумовує вона.
+Прочитати оригінал цієї статті англійською мовою ви можете на сайті BBC Capital.
+Хочете поділитися з нами своїми життєвими історіями? Напишіть про себе на адресу questions.ukrainian@bbc.co.uk, і наші журналісти з вами зв'яжуться.
+Хочете отримувати головне в месенджер? Підписуйтеся на наш Telegram або Viber!
+--
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>4/04/2020</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>Чи можна ходити по вулиці без маски: уряд роз'яснив усі нові заборони</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+UNIAN
+Кабінет міністрів на засіданні 2 квітня запровадив нові жорсткі карантинні заходи, а 4 квітня оприлюднив роз'яснення нововведень.
+Згідно з новими правилами, вже з суботи українцям заборонили відвідувати парки і сквери, виходити на вулицю без документів.
+З понеділка не можна буде відвідувати громадські місця без маски та виходити на вулицю більш як двом особам.
+Чи захищають саморобні маски від коронавірусу
+Карантин. Список нових обмежень
+"Ми вигораємо, нас надовго не вистачить". Лікарі про боротьбу з коронавірусом
+Втім, нові правила викликали безліч питань - хто саме контролюватиме дотримання правил, яке покарання за порушення карантину, чи доведеться носити маски на вулицях постійно.
+Тож у суботу уряд оприлюднив роз'яснення нововведень.
+Чи можна ходити по вулиці без маски?
+Права на зображення BBC News Україна
+BBC NEWS УКРАЇНА
+Уряд зазначає, що у масці потрібно бути лише у громадських місцях.
+Вулиці здебільшого до громадських місць не належать, але у Кабміні наголосили, що з цього правила є винятки. У Києві, наприклад, до громадських місць належить 50-метрова зона навколо зупинок транспорту.
+Коронавірус в Україні. Інтерактивна мапа
+"Ми наполегливо рекомендуємо перебувати на вулиці в масці, оскільки у будь-який момент можете опинитись на території, яка підпадає під визначення "громадське місце", - йдеться в повідомленні.
+Що таке громадське місце?
+У Кабміні нагадали, що, за законом, громадське місце - частина будь-якої споруди, яка доступна або відкрита для населення, в тому числі за плату.
+Зокрема, до громадських місць відносяться під'їзди, підземні переходи, стадіони, парки, сквери, дитячі майданчики, зупинки громадського транспорту, ліфти, державні установи, медичні установи тощо.
+Уряд окремо наголосив, що в деяких містах до громадських місць можуть відноситись додаткові зони.
+Зокрема, в Києві до громадських місць належать також:
+зупинки громадського транспорту та 50-метрова зона навколо них
+церкви та 50-метрова зона навколо них
+заклади торгівлі закритого і відкритого типів, зокрема торгові ряди та ринки
+кінотеатри та прилегла до них територія.
+Копирайт изображения
+UNIAN
+Навіщо носити з собою документи, що посвідчують особу?
+В Кабміні пояснюють, що завдяки документам можна перевірити, чи не мусить людина бути на самоізоляції або в обсервації. Також це дасть можливість правоохоронцям застосовувати адміністративну відповідальність щодо порушників правил карантину.
+Яка відповідальність за порушення правил карантину? За що штрафуватимуть?
+В уряді підкреслюють, що за порушення карантину - наприклад за відсутність маски у громадському місці чи похід в парк - українця можуть оштрафувати.
+Штраф складає від 17 тис. грн до 34 тис. грн.
+Якщо поліція чи Нацгвардія вирішить, що ви порушуєте санітарні правила та норми щодо запобігання інфекційним захворюванням, може бути навіть кримінальна відповідальність.
+Чи закривають церкви під час карантину?
+Уряд не закриває церкви, проте масові та релігійні заходи заборонені.
+"Ми закликаємо всіх українців залишатися вдома на період карантину", - йдеться в повідомленні.
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Чи можна ходити по вулиці втрьох?
+Вулицею можна пересуватися лише вдвох. Виняток - супроводження дітей незалежно від їхньої кількості.
+В якому випадку людям старше 60 років можна тепер виходити на вулицю?
+Люди старше 60 років поки що мають сидіти вдома, зазначають в Кабміні.
+Адже вони належать до групи підвищеного ризику, відтак потребують самоізоляції.
+А якщо про людей похилого віку нема кому подбати?
+Люди на самоізоляції, крім тих, у кого вже підтвердили коронавірус, у виняткових випадках можуть відвідувати магазини та інші місця торгівлі.
+Але тільки якщо вони не далі як за два кілометри від місця самоізоляції.
+Крім того, місцева влада має подбати про соціальний супровід людей похилого віку та громадян з інвалідністю, про яких нікому подбати.
+Копирайт изображения
+GETTY IMAGES
+Чи можна буде гуляти навколо будинку?
+В уряді запевняють, що гуляти навколо будинку можна.
+Але все одно не можна збиратись у компанії більше двох людей, заходити в парки і сквери поблизу.
+Чи можна гуляти на вулиці з дітьми?
+Гуляти з дітьми можна, на такі прогулянки не поширюється обмеження - не більше двох людей на вулиці.
+Дітям до 14 років без дорослих перебувати на вулиці не можна.
+Копирайт изображения
+GETTY IMAGES
+Чи можна ходити в парк чи сквер?
+Ні, відтепер - не можна, підкреслюють в уряді.
+Під забороною відвідування парків, скверів, зон відпочинку, лісопаркових та прибережних зон.
+Виняток роблять лише для тих, хто гуляє з собакою по одному або виконує службове завдання.
+Як тепер вигулювати домашніх тварин?
+На вулиці ви можете вигулювати домашніх тварин, проте не більше ніж вдвох. Вигул домашніх тварин в парках та скверах дозволяється лише однією людиною.
+Чи мають магазини, банки та аптеки забезпечувати відвідувачів масками або респіраторами?
+В уряді підкреслюють, що ні магазини, ні інші установи, що продовжують роботу, не повинні видавати відвідувачам маски.
+Вони мають лише контролювати, щоб відвідувачі були у масках та респіраторах.
+А маски громадяни повинні добути самі.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>4/04/2020</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Мішель Робертс</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>Чи захищають саморобні маски від коронавірусу</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+REUTERS
+Маски для обличчя, рукавички та інші захисні засоби можуть допомогти зупинити поширення коронавірусу, але лише за правильних умов. Деякі люди роблять маски в домашніх умовах, але наскільки вони безпечні та ефективні?
+Чому в одних країнах носять маски, а в інших – ні
+Карантин? Який карантин? Шведський підхід до боротьби з коронавірусом
+Чому не всі носять маски?
+Всесвітня організація охорони здоров'я (ВООЗ) стверджує, що лише дві групи людей мають носити захисні маски, а саме:
+хворі та ті, що мають симптоми;
+здорові, якщо вони надають допомогу людині з підозрою на Covid-19.
+Маски не рекомендують носити всім. І ось чому:
+вони можуть забруднитися під час кашлю і чхання інших людей або під час надягання чи знімання
+часте миття рук і соціальне дистанціювання - більш ефективні
+вони можуть створити хибне відчуття безпеки
+Вірус Covid-19 поширюється повітряним шляхом у вигляді крихітних крапель, що виділяє людина при кашлі та чханні. Ці інфіковані краплі можуть потрапити в організм через очі, ніс і рот або після дотику до забрудненого предмета чи поверхні.
+Пропустити Youtube допис , автор: BBC News Україна
+Увага: інші сайти можуть містити рекламу
+Кінець Youtube допису , автор: BBC News Україна
+Однак експерти ВООЗ наразі вивчають ефективність масового використання масок.
+Чи захищають саморобні маски?
+Копирайт изображения
+REUTERS
+Image caption
+Нью-йоркцям радять прикривати обличчя шарфом або банданою, коли вони виходять на вулицю
+Очікують, що незабаром уряд США офіційно рекомендує американцям прикривати обличчя шарфом або банданою, коли вони виходять на вулицю. Це стосується зон високого ризику інфікування.
+Цю пораду вже отримали всі жителі Нью-Йорка, який є епіцентром спалаху коронавірусу в США.
+"Це може бути шарф. Це може бути бандана або саморобна маска", - заявив у четвер мер міста Білл де Блазіо.
+А от Британія проти таких кроків. Міністр охорони здоров'я Метт Генкок каже, що уряд дотримується медичних і наукових рекомендацій з використання масок.
+Заступник головного санітарного лікаря Англії професор Джонатан Ван Там вважає, що носіння масок здоровими людьми не зменшує поширення хвороби у Британії.
+"Наразі більш важливо дотримуватись соціального дистанціювання", - говорить він.
+Копирайт изображения
+REUTERS
+Image caption
+Жінка у саморобній масці, Бельгія
+Від багаторазових тканинних масок також варто відмовитись, кажуть європейські консультанти, адже вони можуть навіть збільшити ймовірність зараження. Є також велика ймовірність того, що вірусні частки можуть проникати крізь тканину, стверджують науковці.
+Однак, попри це, в інтернеті можна знайти безліч порад, як зробити маску для обличчя в домашніх умовах.
+Під час виробництва масок необхідно дотримуватись вимог безпеки. В домашніх умовах, на відміну від офіційних закладів, це важко зробити і проконтролювати.
+Онлайн карта коронавірусу
+Коронавірус: що він робить з організмом
+Чи захищають медичні маски від вірусу?
+Як перевіритися на коронавірус?
+Яка маска краща?
+Різні типи масок пропонують різні ступені захисту.
+Найвищий ступінь захисту мають маски FFP3, N95 або FFP2 з респіратором, що фільтрує повітря.
+Експерти не рекомендують масове використання цих масок. Вони призначені для медичних працівників, що перебувають у тісному контакті з хворими на коронавірус та мають найвищий ризик зараження.
+Згідно з останніми рекомендаціями, медпрацівникам з низьким ризиком інфікування достатньо хірургічної маски.
+Це стосується медичних працівників, що перебувають в межах одного метра від пацієнта з можливим або підтвердженим Covid-19, тобто персоналу лікарень, установ первинної медико-санітарної допомоги, швидкої допомоги, закладів громадського догляду та будинків для людей похилого віку.
+Що ще може захистити від коронавірусу?
+Ось ще кілька рекомендацій від Національної служби охорони здоров'я Великої Британії:
+часто мийте руки з милом і водою - робіть це не менше 20 секунд
+завжди мийте руки, коли повертаєтесь додому або приходите на роботу
+користуйтесь гелем для дезінфекції рук, якщо мило і вода недоступні
+під час кашлю або чхання прикривайте рот і ніс серветкою або рукавом (не руками)
+відразу викидайте використані серветки у відро для сміття, а потім вимийте руки
+не торкайтесь очей, носа або рота. Якщо в цьому є необхідність - переконайтеся, що ваші руки чисті.
+Хочете отримувати найцікавіше в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>4/04/2020</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr"/>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>Лікар носить Prada: як індустрія моди допомагає медикам. Культогляд</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+У свіжому культогляді читайте про таке:
+Як модні бренди допомагають у боротьбі з пандемією
+Що буде цього року замість Євробачення
+Які театральні вистави можна дивитися під час карантину
+Як віртуально потрапити до найкращих музеїв світу
+Мода на допомогу
+У розпал пандемії коронавірусу чимало модних брендів та компаній переорієнтувалися на виробництво масок та костюмів для медичних працівників, пише USA Today.
+Модний дім Dior відкрив свою студію у французькому місті Редон, щоб виготовляти маски для лікарів. А дизайнер Джорджіо Армані оголосив, що всі італійські фабрики компанії тимчасово переходять на виготовлення одноразових костюмів для захисту медиків.
+Пропустити Instagram допис , автор: dior
+Кінець Instagram допису , автор: dior
+Модний дім Prada у березні почав виробництво 80 тисяч медичних комбінезонів та 110 тисяч масок на своїй фабриці в італійській Монтоні на прохання регіону Тоскана.
+Пропустити Instagram допис , автор: giorgioarmani
+Кінець Instagram допису , автор: giorgioarmani
+Британський бренд Burberry перепрофілював свою фабрику з виготовлення тренчів у графстві Йоркшир на виготовлення нехірургічних халатів та масок для пацієнтів. А глобальну мережу постачання компанії використовують для доставки хірургічних масок для Національної служби охорони здоров'я Великої Британії. Компанія також фінансує дослідження з розробки вакцини в Оксфордському університеті.
+Серед тих, хто взявся допомагати медикам, і конгломерат товарів люкс LVMH, якому належать кілька модних домів, зокрема Christian Dior, Fendy, Givenchy, Louis Vuitton та Marc Jacobs. У березні компанія оголосила про плани використовувати свою мережу дистрибуції для постачання масок.
+Чому в одних країнах носять маски, а в інших – ні
+Маски: щоб захистити інших, а не вас - МОЗ
+Про плани виробництва масок оголосила і компанія Kering Group, якій належать модні доми Gucci, Saint Laurent, Bottega Veneta, Balenciaga, Alexander McQueen та Brioni. Також компанія заявила, що придбає та імпортує три мільйони хірургічних масок з Китаю для медиків у Франції.
+Не лишилися осторонь і українські дизайнери. Світлана Бевза запустила виробництво безкоштовних комбінезонів для медиків на потужностях свого бренду Bevza, пише Marie Claire. До її ініціативи долучилися кілька інших дизайнерів.
+Ще один український бренд Wildwood, що виготовляє шкіряний одяг, перепрофілював своє виробництво в Одесі на виготовлення захисних масок, які відправляють безкоштовно тим, хто їх потребує.
+Євробачення: шоу триває
+Копирайт изображения
+GETTY IMAGES
+Пісенний конкурс Євробачення-2020 скасували через пандемію коронавірусу, вперше за всі роки його існування.
+В концертній залі, де мало проходити Євробачення-2020 в Роттердамі, облаштували тимчасову лікарню для пацієнтів з Covid-19, повідомляють голландські ЗМІ.
+Але прихильники Євробачення не залишаться без улюбленого видовища. В день, коли мав відбутися фінал конкурсу, тобто 16 травня, планується спеціальне двогодинне шоу, де вшанують всіх учасників, які мали виступати цього року, повідомляє Metro.
+Євробачення 2020 скасували через коронавірус
+Зокрема, під час шоу всі понад 40 учасників вийдуть в ефір зі своїх домівок у різних куточках Європи і разом виконають один з минулих хітів конкурсу. Також долучаться і відомі колишні конкурсанти, які виконуватимуть пісні минулих років.
+Виконавчий супервайзер конкурсу Юн Ула Санн від імені Європейської мовної спілки (EBU) закликав усі телеканали, які мали показувати Євробачення, показати шоу, щоб підтримати дух єдності.
+"Ми хочемо не лише вшанувати 41 учасника, що мали з'явитися в Роттердамі, але також надихнути всіх, хто сидить вдома, і з'єднати людей у всій Європі та за її межами в ці важкі часи", - заявив виконавчий продюсер цьогорічного конкурсу Сіетсе Баккер. Конкурс також вшанує всіх тих, кого торкнулася коронавірусна криза, і тих, хто бореться із нею.
+Місця в першому ряду
+Копирайт изображения
+UNSPLASH
+Під час карантину з'явилися можливості побачити найкращі нові театральні вистави та світову класику з архівів онлайн, пише Guardian.
+Британський національний театр з 2 квітня транслює онлайн свої кращі хіти. Щочетверга п'єси з'являтимуться на офіційному каналі театру на YouTube о 7 годині вечора за Лондоном (21:00 за київським часом). Першою виклали комедію "Один слуга, два пани", в якій зіграв актор Джеймс Корден.
+Вистави можна видитися з субтитрами англійською та російською мовами. В наступні тижні можна буде подивитися театральні адаптації творів "Джен Ейр", "Острів скарбів" та "Дванадцята ніч".
+Знаменитості, які підхопили коронавірус
+Інтернет завжди був важливим для Білоруського вільного театру, змушеного діяти підпільно після того, як влада заборонила театр з політичних мотивів, зазначає Guardian. Колектив тривалий час проводив репетиції і ставив нові постановки по скайпу. Тепер протягом квітня, травня та червня театр покаже онлайн 24 своїх вистави. Кожна з них буде доступною протягом доби.
+Відкрив свій онлайн-архів і Королівський театр Ковент-Гарден, який зараз зачинений для глядачів. На сторінці театру у Facebook та на YouTube-каналі можна буде переглянути балет "Петрик і вовк" та сюрреалістичну постановку "Метаморфози" за мотивами оповідання Кафки.
+Любителі мюзиклів зможуть подивитися мюзикли видатного композитора Ендрю Ллойд Веббера. 3-го квітня на каналі The Show Must Go On вже з'явився мюзикл "Йосиф і його дивовижний плащ снів", а за тиждень викладуть рок-оперу "Ісус Христос - суперзірка" (2012), в якій зіграла колишня учасниця гурту Spice Girls Мелані Сі. Кожне шоу буде доступне для перегляду онлайн протягом 48 годин.
+Віртуальна подорож
+Копирайт изображения
+UNSPLASH
+Подорожі тимчасово недоступні, але коли набридає Netflix, можна вирушити на віртуальну екскурсію понад 500 найкращими музеями світу, пише South China Morning Post.
+Потяг до прекрасного може задовольнити проєкт Google Arts &amp; Culture.
+За його допомогою можна переглянути фотографії експонатів з колекцій видатних музеїв. Іноді доступні і повні віртуальні екскурсії, які дають відчуття присутності.
+Як подорожувати під час епідемії
+У переліку є такі відомі музеї як Лувр, Версаль та Музей сучасного мистецтва у Нью-Йорку.
+Інтернет дає можливість потрапити і до італійських музеїв, які наразі зачинені для відвідувачів, зокрема таких як історична Амброзіанська бібліотека, міланський замок Сфорца та Музей дель Новеченто. За допомогою функції перегляду вулиць Google Street View можна "погуляти" залами галерей.
+Огляд підготувала Ганна Чорноус, Служба Моніторингу BBC
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>4/04/2020</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr"/>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>Хроніки коронавірусу: Трамп відмовився від маски, в Китаї — жалоба</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Кількість випадків зараження коронавірусом у світі перевищила 1,1 мільйона. З них понад 226 тис. людей одужали, померли майже 59 тис.
+У лідерах за кількістю хворих — США, де зафіксували понад 278 тис. випадків. За ними йдуть Італія та Іспанія, де виявили понад 119 тисяч заражень.
+Коронавірус в Україні: 1096 випадків, 28 людей померли
+На вулицю - в масках і не більше двох: що ще забороняє Кабмін
+Коронавірус: як правильно ізолюватися
+У цих же країнах найбільше летальних випадків. У Італії кількість загиблих наближається до 15 тисяч, у Іспанії перевалила за 11 тисяч., в США — близько 7 тисяч смертей, у Франції - 6,5 тисяч.
+Трамп відмовився від маски
+У США громадянам рекомендували носити маски або закривати обличчя тканиною. Зокрема, цій темі значну увагу присвятив президент США Дональд Трамп під час брифінгу в п'ятницю.
+Втім, сам американський президент заявив, що він маску носити не збирається.
+"Це добровільно. Хтось буде це робити, хтось ні. Я не думаю, що сам буду носити", - сказав президент США.
+Жалоба в Китаї
+Копирайт изображения
+GETTY IMAGES
+У суботу Китай вшанував пам'ять понад 3,3 тис. загиблих від коронавірусу, в тому числі 14 медиків, які загинули, виконуючи свої обов'язки.
+О 10 ранку за місцевим часом по всій країні оголосили три хвилини мовчання.
+Після цього почали сигналити автомобілі, потяги та кораблі, у містах зазвучали сирени повітряної тривоги.
+В Ухані, звідки і розпочалася світова пандемія, о 10 ранку на всіх світлофорах увімкнули червоне світло, весь транспорт зупинився.
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Pink перехворіла на Covid-19
+Американська співачка Pink зізналась в своєму Instagram, що вона та її трирічний син Джеймсон перехворіли на коронавірус.
+За її словами, госпіталізація не знадобилася. Родина була в ізоляції та лікувалася вдома.
+"Лише кілька днів тому ми пройшли повторну перевірку, і тепер, на щастя, тести негативні", - повідомила вона.
+Співачка наголосила, що тестування повинне бути більш доступним для всіх верств населення.
+"Ця хвороба є серйозною та реальною. Люди повинні знати, що хвороба вражає молодих і старих, здорових і нездорових, багатих і бідних", - заявила вона, пообіцявши виділити 500 тис. доларів на допомогу у боротьбі з коронавірусом.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>4/04/2020</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr"/>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>Карантин в Україні: що ще заборонив уряд</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t xml:space="preserve">У п'ятницю, 3 квітня, Кабінет міністрів України опублікував оновлений список обмежень на час карантину.
+Згідно з ним, заборонили виходити в громадські місця без захисної маски чи респіратора, ходити по вулицях більше, ніж вдвох, відвідувати парки, сквери, зони відпочинку, лісопаркові зони та пляжі.
+Виняток - вигул собаки наодинці та "службова необхідність".
+Також заборонили виходити на вулицю без документів, які посвідчують особу, підтверджують громадянство чи її спеціальний статус.
+Пропустити Youtube допис , автор: BBC News Україна
+Увага: інші сайти можуть містити рекламу
+Кінець Youtube допису , автор: BBC News Україна
+Дивіться наш YouTube! Там більше відео, ніж на сайті.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>4/04/2020</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr"/>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>Коронавірус в Україні: 1096 випадків, 28 людей померли</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+UNIAN
+Станом на ранок 4 квітня в Україні лабораторно підтвердили 1096 випадків коронавірусної інфекції.
+За добу додалося 154 нових випадків, йдеться в повідомленні Міністерства охорони здоров'я.
+Загалом за час спалаху 28 людей померли, 23 пацієнти одужали, додають у відомстві.
+Карантин. Список нових обмежень
+Коронавірус в Україні. Інтерактивна мапа
+Що таке "громадське місце", де відтепер обов'язкові захисні маски
+Раніше головний санітарний лікар Віктор Ляшко повідомляв, що рівень летальності від коронавірусу в Україні становить 2,4%.
+Заразом рівень летальності у світі, за його даними, складає 5,2%.
+З 4 квітня в Україні уряд суттєво посилив карантинні заходи.
+Зокрема, заборонено відвідувати парки, сквери та спортивні майданчики, заборонено перебувати без супроводу на вулиці дітям до 14 років.
+Також потрібно мати при собі документи.
+З 6 квітня набуде чинності заборона ходити по вулиці більш як двом особам та відвідувати громадські місця без маски.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>3/04/2020</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Еріка Фірпо</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>Коронавірус в Італії: як італійці перемагають зневіру та тривогу на карантині</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+NICOLÒ CAMPO/GETTY IMAGES
+Італія сильніше за інші країни Європи постраждала від спалаху коронавірусу, але нація не падає духом, і італійська відповідь на коронавірус відповідає найкращим традиціям цієї країни та її оптимістичної культури.
+Вечоріє, і ми з донькою виглядаємо з вікна нашої вітальні. Перед нами - одна з площ в історичному центрі Риму, де ми живемо.
+У звичайні дні вона сповнена людей: тут бродять групи туристів, римляни прогулюють своїх собак, пробігають монахині, сваряться закохані...
+Але сьогодні пьяцца порожня, лише хтось у масці і одноразових рукавичках швидко перетинає її. Ковдра моторошної тиші вкрила наш район. Це - новий Рим, нова Італія.
+Потім я підіймаю очі і бачу кілька розфарбованих від руки прапорів із зображенням веселки, які звисають з балконів і вікон наших сусідів. На них напис: "Andrà tutto bene" ("Все буде добре"). Це необхідне для мене зараз нагадування: ми і через це пройдемо, життя налагодиться.
+Світло в кінці коронавірусу: п'ять причин не занепасти духом
+Битва з "невідомим звіром": як спільна біда змінила італійців
+Кохання не знає меж - і коронавірус не завада
+Ця проста фраза чудово демонструє почуття надії та солідарності, які об'єднують в останні кілька тижнів всю Італію. Я ніколи ще не відчувала таку гордість за те, що я італійка.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Італійські діти пишуть на саморобних прапорах "Все буде добре"
+11 березня уряд Італії фактично закрив країну - не працює нічого, крім супермаркетів і аптек, заборонені будь-які громадські зібрання. Так ми намагаємося стримати коронавірус, який спустошив північний регіон Ломбардію і, як лісова пожежа, поширюється на інші області країни.
+"Всі ми маємо чимось пожертвувати на благо Італії та зробити це прямо зараз, - наголосив прем'єр-міністр Джузеппе Конте, коли запроваджував надзвичайні заходи. - У нас більше немає часу. Наше майбутнє в наших руках".
+І ось ми сидимо вдома, як нам і наказали, і скільки ще це триватиме, ніхто не знає. Нам можна виходити за їжею, в аптеки або на роботу (якщо у нас така робота, без якої країна не обійдеться), але тільки за спеціальними перепустками.
+Раніше ми читали, що в інших країнах такі заходи називали драконівськими. Але тепер багато держав Європи і світу поступово схиляються до того, що без цього не вдасться загальмувати поширення вірусу.
+Копирайт изображения
+ERICA FIRPO
+Image caption
+Тиша вкрила міста Італії
+Я пишаюся тим, як наш уряд відреагував на серйозність проблеми, але ще більше пишаюсь тим, як італійці день за днем живуть в умовах надзвичайної ситуації, пишаюсь їхньою колективною відповіддю.
+Хочу пояснити: недовіра до влади і будь-яких правил, які запроваджують зверху, - в крові у італійців. Що, врешті-решт, цілком зрозуміло: починаючи з 1948 року, у нас змінився 61 уряд.
+Крім того, Італія, як і раніше, багато в чому залишається розрізненою мозаїкою міст-держав, де campanilismo (буквально - прихильність власній дзвіниці, місцевий патріотизм) часто ставлять вище національної єдності.
+І в цьому контексті те, як італійці позитивно сприйняли загальнонаціональний рух #iorestoacasa ("Я залишаюся вдома"), - просто вражає.
+Кінокарантин: що подивитися, щоб покращити собі настрій
+Ба більше, це демонструє всьому світу італійський характер, італійську культуру і творчий підхід нації до будь-якої найважчої ситуації. Це - немов нагадування, чому так багато людей у всьому світі закохані в дух Італії - в її щедрість, щирість та життєлюбство.
+Копирайт изображения
+NURPHOTO/GETTY IMAGES
+Image caption
+В Італії і дорослі, і діти мають здатність перетворити хаос і невизначеність в причину для творчості
+Від майстрів Ренесансу до сучасних кухарів, у нас, італійців, завжди був талант до імпровізації і вміння використовувати будь-які хаос чи невпевненість для створення чогось прекрасного.
+Стародавні римляни говорили: "Dum vita est, spes est" ("Поки я дихаю, я сподіваюся"), і цей вислів дуже доречний в нинішній Італії.
+Кожного дня, коли о 18:00 починає бити годинник на будівлях старого Риму, ми відкриваємо вікна і співаємо разом з сусідами популярні та класичні італійські пісні.
+Вчора це була Tanto pe 'Cantà ("Просто, щоб співати") Ніно Манфреді, сьогодні - Felicità ("Щастя") Аль Бано та Роміни Пауер, а завтра це, можливо, буде Ma il cielo è sempre più blu ("Небо завжди блакитніше") Ріно Гаетано.
+Ми танцюємо біля вікна та махаємо нашим сусідам, які живуть в будинках на іншому боці площі.
+Лише за два тижні ця традиція "18 годин" фундаментально увійшла в наше життя, в нашу щоденну рутину, і зараз таке відбувається по всій Італії. Це новий національний звичай, коли ми посилаємо один одному промені надії.
+Копирайт изображения
+NURPHOTO/GETTY IMAGES
+Image caption
+Нова італійська "карантинна культура" поширюється по всьому світу - від оплесків медикам до хорового співу з відкритих вікон
+У селах і містах по всій країні люди хором співають національний гімн, виглядаючи з вікон, і навіть у записі це виглядає переконливо і зворушливо.
+У Турині оперна діва співала арію зі свого балкона під акомпанемент самотнього скрипаля.
+Тут, у Римі, сусіди спостерігали за літньою парою, яка повільно танцювала у себе в вітальні, в той час як на стіні їхнього будинку з'являлися чорно-білі кадри танцю Фреда Астера і Джинджер Роджерс.
+У Флоренції тенор Мауріціо Маркіні з балкона виконав хвилюючу Nessun Dorma ( "Ніхто не буде спати") Джакомо Пуччіні, здіймаючи руки на фінальних словах "all'alba vincerò" ( "На світанку я переможу").
+У Мілані трубач через фігурну решітку свого вікна грав неофіційний гімн міста Oh mia bella Madunina ( "О моя прекрасна Мадонночка" - йдеться про золоту статую Діви Марії на шпилі Міланського собору, яку можна побачити з різних куточків міста), а перехожі в масках зупинялися, знімаючи його на смартфони, а потім вибухнули оплесками і криками "Forza Milano!" ("Вперед, Мілан!"). Розчулені сусіди на балконах посміхалися і витирали сльози...
+Дедалі частіше італійці перетворюють такі моменти єдності в загальне надбання. Весь світ облетів відеозапис з тосканського середньовічного міста Сієна, в якому мешканці всією вулицею співають народну пісню.
+І ось тепер щовечора о 21:00 будь-хто може взяти участь у вже офіційній міській програмі Siena Canta ("Сієна співає"), під час якої мешканці співають з вікон, збираючи пожертви для працівників рятувальних служб та міської лікарні.
+Копирайт изображения
+ERICA FIRPO
+Image caption
+На крамниці в Римі - оголошення про закриття на час пандемії, що супроводжується відомим італійським виразом "Ми переживемо ніч"
+Зменшене до мінімуму спілкування з друзями і знайомими (та й взагалі з людьми) і суттєве збільшення часу в колі родини теж, як не дивно, допомагають проявити чисто італійські стійкість духу, оптимізм та почуття гумору, і водночас наповнити наш час чимось, що підіймає настрій.
+Наприклад, кожного дня о 12:00 ми вчергове йдемо до вікна або виходимо на балкон, щоб разом поаплодувати нашим медикам, які працюють без вихідних, борючись із заразою. Ця традиція, як і прапори з веселкою, теж поширилася далеко за межі Італії - до Франції, Іспанії та інших країн.
+І хоча ми тепер не виходимо кудись пообідати разом з друзями і колегами або випити пару коктейлів, ми підтримуємо італійську традицію apericena ("щаслива година", коли в ресторані можна замовити аперитив зі знижкою), насолоджуючись коктейлем і подальшим обідом, і бачимо онлайн друзів і родичів, які теж сидять вдома.
+Надзвичайні обставини знову зробили з нас кухарів та кулінарів. Ресторани закриті, і італійці стали витягати з пам'яті старі сімейні рецепти страв, які готувала бабуся, і поширювати їх в соціальних мережах.
+До цього приєдналися і газети, закликаючи надсилати рецепти своїх улюблених регіональних страв, щоб опублікувати їх і віддати належне різноманітності і багатству італійської кухні.
+"Коли ви змушені сидіти вдома, що може бути прекрасніше, ніж зібратися всією родиною за обіднім столом?" - пише La Nazione.
+Копирайт изображения
+NURPHOTO/GETTY IMAGES
+Image caption
+Коли всі ресторани закриті, не залишається нічого іншого, як пригадати старий бабусин рецепт і приготувати щось дуже смачне
+Наша родина щовечора дивиться в Instagram шоу #KitchenQuarantine ("Кухонний карантин") одного з кращих шеф-кухарів у світі Массімо Боттури.
+На своїй кухні в Модені він вчить творчо використовувати в кулінарії все, що можна знайти в холодильнику або льосі, замість того щоб бігати кожного дня в супермаркет.
+"Це не майстерклас, - каже Боттура. - Це кухонний карантин для нашої сім'ї. Ми просто хочемо розважитися і показати світу, що, маючи лише кілька речей - кухонний стіл, трохи інгредієнтів і родину, - ми можемо отримувати задоволення".
+Сім'я означає для італійця багато. Молоді люди росли, слухаючи розповіді батьків про важкий повоєнний час, коли всього не вистачало, але всі підтримували один одного.
+Діти таким чином запозичували той дух безкорисливості та самовідданості, громадянського обов'язку, який був властивий їхнім батькам і прояв якого зараз ми бачимо по всій країні.
+У Римі і Мілані мілленіали контактують з людьми похилого віку через додаток Next Door ( "По сусідству"), приносять їм ліки та їжу.
+У Флоренції члени команди "Біанкі" з кальчо сторіко (флорентійський футбол, давній і досить брутальний вид спорту, суміш футболу та регбі, який народився у Флоренції п'ять століть назад) доставляють продукти та оплачують рахунки тим, хто не в змозі вийти сам.
+"Це дуже по-флорентійськи", - говорить мешканка цього міста Джорджетта Юпе.
+Копирайт изображения
+NURPHOTO/GETTY IMAGES
+Image caption
+Навіть в умовах карантину італійці знаходять можливість допомагати тим, хто найбільш вразливий
+Тим часом в маленьких містечках, таких як Пьєтракупа в регіоні Молізе, де живе лише 150 людей, досить просто подзвонити в магазин.
+"Якщо комусь щось потрібно, але він не може вийти з якоїсь причини, він просто нам дзвонить, і один з нас приносить продукти до його дверей", - розповідала мені нещодавно моя подруга Крістіне Кантера, яка працює в крамниці.
+... Час між тим наближається до 18:00. Черговий день в карантині прожито. Я виглядаю з вікна - площа порожня, все тихо.
+В такому світі дуже важко залишатися позитивною. В Італії зараз померлих від COVID-19 більше, ніж в будь-якій іншій країні. На півночі Італії церкви повні трун з тілами померлих - на кладовищах не вистачає місця. У моргах теж немає місця, військові завантажують тіла в вантажівки.
+Коли смертей поменшає? Коли відкриються школи? Захворіє чи ні наша родина?
+Моя донька питає мене про це кожного дня. Все, що я можу їй відповісти - нам треба терпіти і нести відповідальність за себе і за своїх співгромадян.
+Якщо Італія і навчила чомусь світ за ці останні кілька тижнів, так це тому, що надія завжди перемагає, а культура продовжує жити.
+А потім я нагадую доньці, що пора відкривати вікна і готуватися заспівати всім разом чергову прекрасну італійську пісню. "Andrà tutto bene", - кажу я їй.
+Прочитати оригінал цієї статті англійськоюможна на сайті BBC Travel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>3/04/2020</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr"/>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>Що заборонено під час карантину в Україні - випуск новин 03.04.2020</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t xml:space="preserve">У випуску 3 квітня:
+Нові обмеження в Україні: що заборонено робити під час карантину.
+Рекордне безробіття у США, де найбільше інфікованих коронавірусом у світі - понад 250 тисяч.
+Як Китай прицільно стежить за громадянами, щоби спинити епідемією. І як інші країні намагаються це повторити.
+Шашлики із дотриманням соціальної дистанції - чи це можливо?
+Права на зображення BBC News Україна
+BBC NEWS УКРАЇНА
+Ви також можете подивитись випуск на YouTube.
+Всі випуски новин на YouTube.
+І підписуйтеся на наш Youtube-канал!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>3/04/2020</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr"/>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>Хроніки коронавірусу: Ухань "пробуджується" після ізоляції</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+REUTERS
+Кількість випадків зараження коронавірусом у світі перевищила мільйон. З них понад 223 тис. людей одужали, померли понад 55 тис.
+У лідерах за кількістю хворих - США, де зафіксували понад 257 тис. випадків. За ними йдуть Італія та Іспанія, де виявили понад 115 тисяч заражень.
+Смертність в Європі та США продовжує зростати. Кількість померлих в Америці та одразу в трьох європейських країнах перевищила втрати в Китаї.
+У Італії померли через коронавірус майже 14 тисяч, у Іспанії понад 10 тисяч, а у Франції понад 5 тисяч.
+У США померли майже 6 тисяч людей, зокрема і немовля, якому було лише шість тижнів.
+Не можна буде виходити навіть вдвох: що ще забороняє Кабмін
+Все про коронавірус. Стислі факти
+Коронавірус в Україні. Інтерактивна мапа
+Ухань "пробуджується" після ізоляції
+Китайський Ухань, місто, з якого почалося поширення коронавірусу, починає повертатися до нормального життя після більш як двох місяців ізоляції.
+В місті до роботи повертаються підприємства та громадський транспорт, а частина жителів міста знову поступово виходять на вулиці.
+Деяким із них залишити дім дозволили вперше з 23 січня.
+Очікується, що вже 8 квітня влада дозволить жителям виїжджати з міста.
+За час спалаху коронавірус в Ухані підхопили понад 50 тисяч людей. Щонайменше 3 тисячі з них померли.
+Копирайт изображения
+REUTERS
+Копирайт изображения
+REUTERS
+Борис Джонсон залишається на самоізоляції, в нього температура
+Прем'єр-міністр Великої Британії Борис Джонсон, який вже тиждень провів у самоізоляції через виявлений в нього коронавірус, і надалі залишатиметься вдома - в нього досі зберігаються симптоми Covid-19, зокрема підвищена температура.
+27 березня, коли стало відомо про хворобу прем'єра, повідомлялося, що в нього легкі симптоми хвороби - під час самоізоляції він працював зі своєї резиденції на Даунінг-стріт, 10, а всі наради проводив за допомогою відеозв'язку.
+Копирайт изображения
+REUTERS
+Мільйони втрачають роботу
+Коронавірус шкодить не лише здоров'ю людей, але і їхньому добробуту.
+У США 2 квітня зафіксували 6,6 млн нових безробітних. У Іспанії за час карантину 900 тис. людей втратили робочі місця.
+ООН прогнозує, що через пандемію втратять роботу понад 25 млн людей по всьому світу.
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+У Мілані закрили крематорій
+Через перевантаження в італійському Мілані, одному з епіцентрів поширення коронавірусу, до кінця місяця закрився головний крематорій.
+Заклад не справляється з кількістю померлих, тож весь цей час він не прийматиме нові тіла.
+Втім, робота в крематорії продовжиться, тут будуть кремувати тих, хто помер від Covid-19 раніше.
+Погрози розстрілів на Філіппінах
+На Філіппінах за порушення карантину можна буде поплатитись життям, попередив президент країни Родріго Дутерте.
+Поліція та військові мають повноваження стріляти та навіть застрелити злісних порушників обмежень, якщо вважатимуть, що життя чи здоров'я силовиків в небезпеці, заявив президент.
+Всього на Філіппінах зафіксували понад 2,6 тис. заражень коронавірусом. 107 людей померли.
+Індійська поліція креативно бореться з вірусом
+В Індії - 21-денний карантин, і деякі поліцейські закликають громадян залишатися вдома в отаких тематичних шоломах.
+Копирайт изображения
+AFP
+Image caption
+Коронакопи
+Копирайт изображения
+GETTY IMAGES
+Копирайт изображения
+GETTY IMAGES
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>3/04/2020</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr"/>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>Чисте небо на карантині - радість для фотографів</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+BEN LOCKETT / SWNS
+Коронавірус "зачинив" багатьох людей вдома, тому фотографам доводиться шукати нові мистецькі форми.
+Країни майже повністю закрили повітряний простір, але любителям фото це, навпаки, полегшило життя - їм більше не потрібно витрачати години на видалення слідів від літаків зі світлин нічного неба.
+Британські фотографи зафіксували рух зірок у нічному небі. Вони знімали з вікон домівок або під час щоденних прогулянок.
+Техніка зйомки зоряних слідів передбачає тривалий час витримки. Це дозволяє зафіксувати на знімку рух зірок у нічному небі, який видно завдяки обертанню земної кулі.
+"Я зазвичай витрачаю багато часу на видалення слідів, що залишають після себе літаки, але цього разу у кадр потрапив лише один літак, замість звичайних 20-30", - каже студент Бен Локетт зі Стаффордшира.
+Копирайт изображения
+ANDREW WHYTE / SWNS
+Image caption
+Рух супутників у небі над Гемпширом
+Інший фотограф, Ендрю Вайт, каже: "Вечорами я продовжую спостерігати за "карантинним небом", навіть не виходячи з дому.
+Раніше на вулицях зазвичай було повно людей - хтось повертався додому з паба, гуляли закохані, таксисти підбирали любителів вечірок. А зараз я побачив лише одну людину, а машин не було взагалі.
+Небо також було порожнім від літаків, тому обробити зображення було дуже легко".
+Копирайт изображения
+ANDREW WHYTE / SWNS
+Image caption
+Цей знімок, зроблений до обмеження повітряного руху, показує, як виглядають літаки на світлинах нічного неба
+Фотограф Джон Міллс вважає, що фотографії чудово віддзеркалюють неймовірні часи, які переживає світ.
+"Ми завжди пам'ятаємо про тих, хто зараз на передовій пандемії, але більшість з нас проведуть тижні або навіть місяці у своїх будинках", - каже він.
+Копирайт изображения
+JON MILLS / SWNS
+Image caption
+Три маленькі метеорити у небі над Північним Сомерсетом
+"Надзвичайна ситуація дає нам унікальну можливість насолодитися неймовірною красою, яка оточує нас".
+Копирайт изображения
+BRIAN JOHNS / SWNS
+Image caption
+Це фото зробили поруч з озером Мізерден у графстві Глостершир
+Копирайт изображения
+NICK LUCAS / SWNS
+Image caption
+Зоряні сліди в околицях Гемпширу
+Копирайт изображения
+JAWAD SALEEM / SWNS
+Image caption
+Це фото зробили на північному сході Лондона
+Копирайт изображения
+ANDREW FUSEK PETERS / SWNS
+Image caption
+Фото з вікна будинку у Шропширі
+Копирайт изображения
+NICK JACKSON / SWNS
+Image caption
+Зоряний слід над Шропширом
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+Всі фото є об'єктом авторського права.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>3/04/2020</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr"/>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>Карантин: чи правда, що 60-річним заборонили виходити?</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+УНІАН
+У новій постанові про посилення карантину йдеться про те, що всі люди, які досягли 60-річного віку "потребують самоізоляції".
+Карантин. Список нових обмежень
+Все про коронавірус. Стислі факти
+Таким рішенням всіх літніх людей в Україні фактично прирівняли до інших категорій з обов'язковою самоізоляцією: тих, хто контактував з хворими на COVID-19, тих, у кого є симптоми інфікування, або тих, хто вже захворів, але не потребує госпіталізації.
+Літні люди справді перебувають у групі ризику в умовах пандемії коронавірусу.
+Яких же правил самоізоляції відтепер мають дотримуватися всі, кому за 60?
+Права на зображення BBC News Україна
+BBC NEWS УКРАЇНА
+Чи є кому попіклуватися?
+Перш за все, норма про самоізоляцію не поширюється на 60-річних поліцейських, медиків та представників інших служб, які протидіють пандемії, або ж працівників критично важливої інфраструктури.
+Тим, у кого є підозра на COVID-19, строк самоізоляції визначає їхній лікар, який вносить дані про них у спеціальну систему.
+Чи буде сімейний чи будь-який інший лікар робити це для всіх людей, старших 60 років, у документі не уточнюють.
+Загалом же, до 5 квітня Міністерство цифрової трансформації має розробити мобільний додаток, вноситимуть такі дані про людей на самоізоляції:
+прізвище, ім'я, по батькові;
+дата народження;
+місце самоізоляції;
+номер телефону;
+чи проживає людина сама, чи за нею хтось може попіклуватися на час самоізоляції.
+За згодою також можна внести інформацію про хронічні хвороби і загальний стан здоров'я.
+Ці дані буде можливість внести і самостійно.
+Мобільний додаток використовуватиме Єдиний державний портал електронних послуг, однак більше деталей про нього у постанові немає.
+Чи буде він якимось чином пов'язаний з нещодавно запущеним "порталом державних послуг "Дія", в уряді не уточнили.
+В недавньому інтерв'ю "Економічній правді" міністр цифрової трансформації Михайло Федоров запевнив, що "ніякого стеження за громадянами" не буде.
+"Також через додаток хворі зможуть замовляти продукти і ліки онлайн, повідомляти про стан здоров'я", - додав міністр.
+Магазин за 2 км і вигул собаки двічі на день
+Люди, які перебувають на самоізоляції, зобов'язані постійно перебувати у визначеному ними ж "місці самоізоляції" та уникати контактів з іншими, крім людей, з якими вони разом живуть.
+Водночас тим, у кого немає піклувальників (але хто не хворий на COVID-19), дозволяють виходити у продуктові магазини, аптеки та за гігієнічними засобами.
+Утім такі магазини мають бути не далі, ніж за два кілометри від їхнього дому ("місця самоізоляції").
+Так само вони мають надягати маски чи респіратори. Крім того, людям на самоізоляції без піклувальників дозволили двічі на день вигулювати собак.
+"У невідкладних справах особа, яка перебуває на самоізоляції, звертається за екстреною медичною допомогою", - додають в уряді.
+За дотриманням самоізоляції слідкуватимуть поліцейські, нацгвардійці, представники МОЗ та місцева влада, "у тому числі з використанням згаданого мобільного додатка Єдиного державного веб-порталу електронних послуг".
+У постанові Кабміну також попереджають, що за вказування неправдивих даних про місце самоізоляції, номер телефону чи порушення режиму самоізоляції передбачений штраф.
+А якщо людина знатиме про те, що хвора на COVID-19, і при цьому порушить самоізоляцію та заразить когось, то за це може загрожувати в'язниця.
+Утім, в постанові залишається багато "білих плям" про те, як саме має проходити самоізоляція людей віком від 60 років, хто як і коли її будуть організовувати. Тож вочевидь дані моменти уряд ще має роз'яснити.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>3/04/2020</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr"/>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>"Повернуться, коли будуть найбільш потрібні". Зеленський відправляє українських лікарів до Італії</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+UNIAN
+Володимир Зеленський підписав указ про надання допомоги Італії в боротьбі з пандемією коронавірусу.
+Документ передбачає, зокрема, що до Італії відправлять бригаду українських медиків. За словами президента, це варто зробити, поки в Україні поширення хвороби ще не досягло піку.
+"Українські фахівці отримають неоціненний досвід, допоки в нас немає піку хвороби. І повернуться, коли будуть найбільш потрібні вдома", - заявив Зеленський.
+Карантин. Список нових обмежень
+Що таке "громадське місце", де відтепер обов'язкові захисні маски
+Аваков сказав, коли країна може повернутися до "нормального життя"
+"Цей досвід не можна нічим замінити. За цей час ми просунемося вперед у лікуванні COVID-19 і матимемо фахівців, які вивчать різні випадки лікування в Італії", - пояснив він.
+Оплачувати роботу медиків та їхній захист буде Україна, проживання та харчування - італійська сторона.
+Список лікарів, які поїдуть до Італії незабаром визначать частково Міністерство охорони здоров'я, частково - Міністерство внутрішніх справ.
+Президент запевнив, що українські спеціалісти матимуть найкращий захист та спецзасоби - від захисних костюмів до масок.
+Окрім того, в рамках надання допомоги Італії вже цього тижня з України відправлять партію медичного спирту.
+Італія, своєю чергою, теж надасть допомогу Україні, запевнив Володимир Зеленський: "Ми координуємося щодо цього".
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>3/04/2020</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr"/>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>Чому апарати ШВЛ від Ілона Маска можуть нашкодити? Огляд ЗМІ</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+У п'ятницю, 3 квітня, західна преса пише про таке:
+Чи можуть допомогти апарати для штучної вентиляції легень від Ілона Маска
+Як коронавірус може залишити європейських фермерів без робітників
+Що привезла Росія Італії під виглядом допомоги
+Як ефективно користуватися Zoom
+Чи може допомогти Маск?
+Апарати, які Ілон Маск пропонує для вентиляції легень, можуть більше нашкодити, ніж допомогти, пише The Week.
+Засновник Tesla, який раніше відкидав небезпеку коронавірусу, цього тижня оголосив, що має 1 тисячу апаратів для вентиляції й передав 40 із них лікарням Нью-Йорка.
+"Проблема в тому, що запропоновані ним апарати не є достатньо потужними для використання в реанімації, і посадовці системи охорони здоров'я застерігали проти їхнього використання на пацієнтах з Covid-19, оскільки вони можуть сприяти поширенню вірусу", - зазначає видання.
+Системи штучної вентиляції легень. Що це і чи справді їх бракує
+Все про коронавірус. Стислі факти
+Те, що запропонував Маск, - це не ШВЛ, а так звані апарати БІПАП (BiPAP), що використовуються для неінвазивної вентиляції легень. Такі пристрої зазвичай використовують для лікування апное, додає Financial Times.
+Втім, лікарням зараз вкрай потрібні саме апарати для інвазивної вентиляції, які допомагають доставляти кисень в легені. Саме їх зараз намагаються дістати уряди всіх країн.
+На твіт Маска з пропозицією про безкоштовні апарати для вентиляції легенів відгукнулося посольство України у США. Окремо засновнику Tesla в коментарях написала і колишня міністр охорони здоров'я України Уляна Супрун, зазначивши, що країні вкрай потрібні ці пристрої, пише New York Times. Ані Маск, ані Tesla поки що на це не відповіли.
+Врожаї під загрозою
+Копирайт изображения
+GETTY IMAGES
+Цього року чимало врожаю згниє на полях, пише Economist. Через обмеження на кордонах для стримування спалаху коронавірусу робітники зі східної Європи, зокрема з Болгарії, Румунії, Польщі та України, змушені залишитися вдома.
+У Німеччині вже стикнулися з проблемою нестачі робітників для збору врожаю спаржі. У Франції, де наближається сезон полуниці, в найближчі три місяці потрібно буде 200 тисяч польових робітників, близько двох третин з яких - зазвичай іноземці. Проблеми очікують і на Нідерланди, найбільшого постачальника сільськогосподарської продукції в ЄС, де більшість аграрних робітників - зі Східної Європи.
+Проблема для Польщі - не лише втрата роботи в Німеччині, а й нестача українців, які працюють на польських фермах. Видання наводить приклад Якуба Штандери, який вирощує гриби в місті Седльце. На його теплицях працюють 200 робітників, 90% з яких - з України. Коли Польща закрила кордони 14 березня, українці поспішили додому, і пан Штандера не знає як їх замінити.
+Коронавірусна економіка у 5 графіках
+До закриття кордонів у Польщі працювали близько 1,3 млн українців, пише видання. Голова спілки фермерів країни каже, що без них постачання харчових продуктів опиниться під загрозою.
+Європейські країни намагаються продовжити дозволи на перебування для тих робітників, які вже там знаходяться. Ще один варіант - наймати місцевих. Втім, фермерам не подобається ідея робітників без досвіду.
+"Голландці звикли працювати з понеділка до п'ятниці, з дев'ятої до п'ятої. Але спаржа росте сім днів на тиждень", - каже фермер Едвін Веенхове з Нідерландів, якого цитує Economist.
+Що Росія привезла в Італію?
+Копирайт изображения
+GETTY IMAGES
+Італійська газета La Stampa разом з сайтом Coda Story провели розслідування щодо допомоги та персоналу, які Росія надіслала Італії для боротьби з коронавірусом.
+"Ці війська з Москви справді мають навички знезараження, але в італійців теж є такі можливості, ще й більш сучасні. Це дуже дивно і недоречно - італійці є лідерами в захисті від хімічної та біологічної зброї в НАТО, і їм не потрібні поради з Росії", - цитує видання колишнього командира полку з хімічної, біологічної, радіологічної та ядерної зброї британської армії Геміша де Бреттона-Гордона.
+"Одне з найбільших хвилювань викликає Сергій Кікоть, очільник операції. У нього яскраве, але дивне минуле", - пише видання. Він є заступником начальника військ радіологічної, хімічної та біологічної зброї, яку газета називає "найсекретнішим відділом" в Міністерстві оборони Росії.
+Хроніки коронавірусу: в Мілані закрили переповнений крематорій. Мільйони - без роботи
+Без відспівування і в лікарняній робі. Італія ледь встигає ховати жертв коронавірусу
+Без сумніву, серед російського особового складу, що зараз перебуває в Італії, є офіцери ГРУ, додає газета. "Вони хочуть дізнатися якомога більше про італійські війська та організувати розвідувальні мережі", - каже пан Бреттон-Гордон.
+Видання також розповідає про пресконференцію, яку влаштували росіяни в місті Бергамо: "Вони не хотіли відповідати на питання, і атмосфера була напруженою. Чимало журналістів вийшли звідти незадоволеними або й геть засмученими через те, що брифінг був настільки незрозумілим".
+Zoom без стресу
+Копирайт изображения
+GETTY IMAGES
+У часи віддаленої роботи програми для відеозв'язку, на кшталт Zoom, користуються шаленою популярністю. То як найефективніше ними користуватися? Газета Wall Street Journal радить закривати непотрібні програми і відключати зайве обладнання, адже відеозв'язок може перевантажувати процесор і спричиняти нагрівання комп'ютера.
+Опущене підборіддя - це не дуже красиво, тому щоб краще виглядати, покладіть ноутбук на книжки. Можна скористатися і фільтрами, на кшталт Snap Camera, який може покращити вигляд у будь-яких відеопрограмах, радить видання.
+Віртуальне тло у Zoom допоможе приховати безлад у кімнаті, а функція "Touch Up My Appearance" надасть вашій шкірі шовковистого вигляду за допомогою м'якого фокусування.
+Наскільки безпечний Zoom?
+Із популярністю приходить і небезпека. ФБР нещодавно попередило про хакерів, які можуть втрутитися у розмови в Zoom, поширюючи непристойний контент.
+Щоб цього уникнути, видання радить не використовувати персональний номер для зустрічі (Personal Meeting ID, 10-значний код, за яким будь-хто може приєднатися до розмови) і завжди використовувати пароль для входу. Як варіант, можна увімкнути функцію "Кімната очікування" (Meeting Room), коли хост має схвалити присутність кожного співрозмовника.
+Можна також відключити можливість ділитися зображенням свого екрану для всіх, окрім хоста, а також "замкнути" кімнату після того, як всі учасники приєднаються, аби уникнути небажаного вторгнення.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>3/04/2020</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Віталій Червоненко</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>Громадське місце: куди саме відтепер заборонили виходити без маски</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+УНІАН
+Image caption
+Поліція вважатиме громадським місцем все, де можуть збиратись люди
+Уряд заборонив українцям виходити в громадські місця без захисної маски чи респіратора.
+Таке рішення оголосили сьогодні, а "масочний режим" запрацює вже з 6 квітня.
+До цього носіння масок не було закріплене офіційно. Проте більшість торговельних закладів, поштові відділення та аптеки й раніше вимагали від відвідувачів одягати захисні маски.
+Карантин. Список нових обмежень
+"Ми вигораємо, нас на довго не вистачить". Лікарі про боротьбу з коронавірусом
+Маски у магазинах Австрії - обов'язкові, але безкоштовні
+До прикладу, у Києві без маски вже не пускали в продуктові магазини, у відділення "Нової пошти" чи до аптек.
+Купити захисну маску наразі досить складно - вони практично відсутні у великій частині аптек.
+Проте з 6 квітня перебувати у всіх громадських місцях у масці стане обов'язковим, тому все більше людей цікавляться, які саме це місця.
+Окрім того, у цих самих громадських місцях не можна буде з'являтись дітям до 14 років без супроводу батьків.
+Що каже закон і як розуміє поліція
+Єдине законодавчо закріплене визначення "громадського місця" міститься в законі, яким заборонили вживати тютюнові вироби в цих самих місцях.
+"Громадське місце - частина (частини) будь-якої будівлі, споруди, яка доступна або відкрита для населення вільно, чи за запрошенням, або за плату, постійно, періодично або час від часу, в тому числі під'їзди, а також підземні переходи, стадіони", - йдеться у законі.
+Це визначення досить вузьке й практика покарання за куріння показує, що воно не поширюється на парки чи сквери, або частини вулиці, де люди вільно курять.
+Натомість співрозмовник ВВС News Україна у поліції розповів, як правоохоронці для себе розуміють поняття "громадського місця" у світлі режиму носіння масок.
+"Громадське місце у розумінні поліції - це всі місця у публічному просторі, де можуть збиратись люди. Це не тільки ті місця та приміщення, які визначені для заборони куріння", - пояснює співрозмовник.
+Копирайт изображения
+УНІАН
+Image caption
+Вулиці, по якій їздитимуть велосипедисти - це теж громадське місце
+У поліції кажуть, що громадськими місцями вважатимуть частини парків та скверів, лавочки на вулицях і в парках, просто тротуари та частини вулиці.
+Сюди ж входять всі зупинки громадського транспорту.
+"Умовно кажучи - вийшов з дому іти до магазину - ти вже у громадському місці. Фактично, це всі місця поза приватним житлом", - додав співрозмовник.
+Саме так у поліції планують трактувати поняття "громадські місця", де буде необхідно одягати захисні маски.
+Співрозмовник визнає, що це чітко невизначено у законодавстві, а тому щодо трактування можуть виникати проблеми у спорах поліції з громадянами.
+Юрист та колишній заступник голови ЦВК Андрій Магера прогнозує, що поліція застосовуватиме саме своє трактування.
+"В законі відсутнє загальне визначення громадського місця. Це означає, що поліція його трактуватиме на власний розсуд", - заявив він ВВС News Україна.
+Експерт вважає, що без введення надзвичайного стану обмежувати конституційні права і свободи є нелегітимним.
+Вже згодом влада Києва в окремому документі вказала, що громадські місця - це всі території загального користування: парки, рекреаційні зони, вулиці, площі та навіть велосипедні доріжки. А також прибудинкові території.
+Що ще заборонили
+Тепер українцям заборонили:
+Перебувати у громадських місцях без респіратора чи маски (можна - саморобній). Заборона починає діяти з 6 квітня.
+Ходити по вулицях більше, ніж вдвох. Виняток - супровід дітей до 14 років батьками, опікунами, піклувальниками, прийомними батьками, батьками-вихователями або повнолітніми родичами. Ще виняток - службова необхідність. Починає діяти з 6 квітня.
+Дітям до 14 років - перебувати у громадських місцях без супроводу батьків, опікунів чи дорослих родичів.
+Відвідувати заклади освіти тим, хто навчається.
+Відвідувати парки, сквери, зони відпочинку, лісопаркові зони та пляжі. Виняток - вигул собаки наодинці та "службова необхідність".
+Відвідувати спортивні і дитячі майданчики.
+Виходити на вулицю без документів, які посвідчують особу, підтверджують громадянство чи її спеціальний статус.
+Самовільно залишати місця обсервації (ізоляції).
+Заборонені всі масові заходи: концерти, спортивні фестивалі, рекламні акції, релігійні заходи, соціальні збори і т.д. Дозволені лише заходи, потрібні для роботи органів влади, й лише за умови, що учасники будуть у масках чи респіраторах та дотримуватимуться протиепідемічних заходів.
+Заборонені всі заклади, які передбачають відвідувачів: ресторани, кафе, ТРЦ та інші розважальні об'єкти і заклади культури, фітнес-центри та решта закладів зі сфери торгівлі та побутового обслуговування. Ця заборона не поширюється на: продуктові магазини, автозаправки і магазини автозапчастин, аптеки, магазини з для тварин, сільськогосподарські магазини, магазини мобільного зв'язку і електронної техніки, всі фінансові установи (зокрема банки), заклади громадського харчування, які працюють з доставкою (але кур'єри мають бути у засобах захисту), заклади розміщення, де проживають медики і люди на обсервації. Також продовжать працювати інкасатори, техпідтримка, ремонт електроніки, пошта та ряд інших інфраструктурно важливих об'єктів.
+Заборонені "маршрутки" та автобуси (регулярні і нерегулярні) у містах, а також приміські маршрути, маршрути між містами та областями. При цьому, не заборонено їздити власними легковими авто, також службовими машинами, а також перевозити медиків, працівників продуктових магазинів, правоохоронців і військових тощо. При цьому всі пасажири повинні мати маски чи респіратори, а їхня кількість у транспорті не може бути більшою від кількості місць для сидіння.
+Заборона метро у Києві, Харкові і Дніпрі.
+Заборона всіх пасажирських поїздів: приміських, регіональних і дальніх. Дозволяються лише окремі потяги у спеціальних випадках.
+Заборонено відвідувати заклади паліативної допомоги та соцзахисту, тобто будинки літніх людей та інтернати.
+Заборонено відвідувати пункти, де тримають мігрантів.
+Також уряд ввів низку обмежень на відключення газо- і електропостачання для ключових інфраструктурних об'єктів у сфері теплогенерації та електроенергії.
+Копирайт изображения
+GETTY IMAGES
+Міністерство охорони здоров'я має припинити планову госпіталізацію і планові операції - всі, крім екстрених.
+Всі нові норми (наприклад, про паспорт) почнуть діяти з дня офіційної публікації - в уряді пояснили BBC News Україна, що це має статися завтра.
+Водночас окремі заборони (ходити по вулиці без масок чи більше, ніж удвох) вступлять у силу з 6 квітня.
+Всі заборони, відповідно до документу, діятимуть до 24 квітня.
+Водночас в уряді вже заявляють, що можуть продовжити карантин, якщо цього вимагатиме ситуація з поширенням корнавірусу.
+Проте сам Денис Шмигаль у п'ятницю припустив можливість поступового послаблення карантину, якщо динаміка захворюваності почне знижуватися.
+Наприклад, у кінці квітня можуть частково відновити рух громадського транспорту та дозволити ходити на роботу людям працездатного віку.
+Решту обмежень мають залишити.
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>5/04/2020</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr"/>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Суспільство</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>Пожежа в Чорнобильській зоні та в тунелі на Хрещатику: що і де горить в Україні</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+HTTPS://WWW.DSNS.GOV.UA/
+За останню добу в Україні побільшало повідомлень про пожежі на різних об'єктах. У районі ЧАЕС, де напередодні сталася лісова пожежа, триває тління, на Хрещатику в Києві майже всю ніч гасили пожежу в кабельному тунелі, а кияни скаржаться на різкий запах диму.
+Горить Чорнобильська зона, рятувальники залучили авіацію
+Пожежа у зоні відчуження
+Копирайт изображения
+ДСНС
+У зоні відчуження Чорнобильської атомної електростанції та на території обов'язкового відселення напередодні запалав ліс.
+За даними ДСНС, у неділю там продовжують гасити два осередки загальною площею 25 га.
+Один - між селами Володимирівка та Жовтневе Котовського лісництва на площі близько 20 га.
+Другий - поблизу села Рагівка Котовського лісництва на площі близько 5 га.
+Авіація скидає на охоплені пожежею райони воду, звітують в ДСНС.
+Рятувальники запевняють, що загрози населеним пунктам немає.
+"Чорнобиль забрав у мене ноги, але не зламав мене". Історія паралімпійської чемпіонки
+Після серіалу "Чорнобиль" Зеленський дав "Героя" трьом водолазам
+Пожежа в Києві
+Копирайт изображения
+HTTPS://WWW.DSNS.GOV.UA/
+Image caption
+Через велику напругу електричних кабелів неможливо було одразу почати гасити пожежу
+У Києві майже всю ніч гасили пожежу електричного обладнання в переході на Хрещатику - загорівся кабельний тунель, розповів мер Києва Віталій Кличко.
+Оскільки кабелі були під напругою, це значно ускладнило гасіння.
+Однак зранку в неділю в ДСНС повідомили, що пожежу ліквідували.
+Причини загоряння поки що невідомі.
+Через неї від електропостачання були відімкнені деякі вулиці у центрі Києва.
+"Для ліквідації надзвичайної ситуації було задіяно 10 одиниць пожежної техніки та близько 40 чоловік особового складу підрозділів ГУ ДСНС України у м. Києві", - розповіли в ДСНС.
+Що з повітрям у Києві?
+Копирайт изображения
+HTTPS://WWW.DSNS.GOV.UA/
+Ще з ночі мешканці міста почали жалітися на запах горіння. Хтось почав це пов'язувати із пожежею в ЧАЕС, хтось - згадував про пожежу на Хрещатику.
+У ДСНС повідомили, що повітря в столиці загазоване через відсутність вітру та "підвищену температуру в приземному шарі".
+"Така ситуація перешкоджає перемішуванню атмосферних шарів повітря та спричиняє накопиченню забруднюючих речовин на поверхні землі", - розповіли там.
+Зазвичай у другій половині дня ситуація стабілізується, кажуть там.
+Однак попереджають, що у найближчі кілька днів варто чекати її повторення.
+Чи перевищений радіаційний фон?
+У з в'язку з пожежею в Чорнобильській зоні, Сектор радіаційного контролю Держекоінспекції Столичного округу заміряв радіаційний фон.
+"В епіцентрі пожежі, звісно, перевищення 0,3-2,7 мЗв при нормі 0.1-0.2 мЗв", - повідомив у фейсбуку Сергій Волков, очільник Держекоінспекції Столичного округу.
+А в Києві станом на ранній ранок неділі показники замірів - в нормі, зазначив він.
+Він також додав, що зараз пожежі тривають по всій Київській області, тому якість повітря погіршується.
+Що ще горіло на Київщині?
+Копирайт изображения
+HTTPS://KV.DSNS.GOV.UA/
+За останню добу на Київщині довелося ліквідовувати 129 пожеж, які виникли у лісах та в полях.
+"Найзапеклішу боротьбу з полум'ям вели Білоцерківський, Сквирський, Кагарлицький, Володарський, Тетіївський, Баришівський, Ставищенський райони", - повідомили в ДСНС.
+Пожежі ліквідували в екосистемах на загальній площі у майже 170 гектарів, кажуть там і додають:
+"Статистика пожеж дуже лякає, тому Державна служба України з надзвичайних ситуацій закликає жителів і гостей Київщини суворо дотримуватися правил пожежної безпеки".
+Крім того, в ніч на неділю надійшло повідомлення про пожежу меблевої фабрики в Броварах на Київщині.
+На території меблевої фабрики "Мебліссімо" горіли дерев'яні піддони та три вантажні автомобілі Mercedes, розповіли в ДСНС.
+Вогонь також перекинувся будівлі, розташовані поруч.
+До 7-ї ранку пожежу повністю ліквідували. Про жертви і постраждалих повідомлень немає
+В Умані горів готель
+У Черкаській області в ніч на неділю вигоріла частина готельно-ресторанного комплексу "Хуторок Слобода" в Умані.
+Ліквідувати пожежу вдалося лише через 3 години - майже о 4-й ночі, розповіли в Державній службі з надзвичайних ситуацій.
+Жертв і постраждалих немає.
+Вогонь знищив дерев'яну двоповерхову будівлю кафе, одноповерхову будівлю кухні і вісім дерев'яних альтанок.
+Хочете отримувати найцікавіше в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>05/04/2020</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr"/>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Суспільство</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>Хроніки коронавірусу: буде найважчий тиждень і багато смертей, каже Трамп</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Президент США Дональд Трамп порадив американцям готуватися до "найважчого тижня" пандемії коронавірусу, тоді як у суботу в штаті Нью-Йорк зафіксували рекордну кількість смертей за день - 630.
+Тим часом, в Італії й Іспанії кількість смертей і нових заражень почала поступово знижуватись.
+В Україні на ранок неділі зафіксували 1251 випадок коронавірусної хвороби, 32 людини померли.
+Коронавірус в Україні: підтвердили 1251 випадок, 32 людини померли
+Загалом у світі вже померли понад 60 000 людей, понад 1,1 мільйона інфіковані, свідчать дані американського Університету Джона Гопкінса.
+"Будуть смерті"
+Президент США Дональд Трамп порадив американцям готуватися до "найважчого тижня" пандемії, спрогнозувавши зростання смертності.
+"Будуть смерті", - сказав він на своєму щоденному брифінгу, похмуро оцінивши перебіг подій у наступні дні.
+Найбільш постраждалим штатам він пообіцяв виділити більше медичних засобів та допомогу військових.
+"Це, мабуть, буде найважчий тиждень, - між цим тижнем і наступним. На жаль, смерті буде дуже багато, але набагато менше смерті, ніж якби ми цього не зробили (обмежувальні заходи. - Ред.), але буде смерть", - сказав пан Трамп.
+Тим не менше, на Великдень він запропонував послабити рекомендації щодо соціальної дистанції.
+"Ми повинні відкрити нашу країну знову, - сказав він. - Ми не хочемо, аби це тривало місяцями, місяцями та місяцями".
+На вулицю - в масках і не більше двох: що ще забороняє Кабмін
+Коронавірус: як правильно ізолюватися
+Кількість підтверджених випадків інфікування у США перевищила 300 000, що є найвищим показником у світі.
+Станом на суботу в США померли майже 8 500 людей із Covid-19, найбільше - у штаті Нью-Йорк, який є епіцентром спалаху.
+У суботу в цьому штаті зафіксували ще 630 смертей від коронавірусу. Зараз у штаті майже стільки ж випадків коронавірусної хвороби (понад 113 000), як у всій Італії.
+Іспанія, схоже, вже перетнула пік
+Копирайт изображения
+REUTERS
+Прем'єр-міністр Іспанії Педро Санчес заявив, що країна "близька до проходження піку інфекцій", оскільки кількість смертей падає другий день поспіль.
+Пан Санчес також продовжив обмежувальні заходи в країні до 25 квітня, заявивши, що вони рятують життя людей.
+"Це - найскладніші дні нашого життя", - сказав він у зверненні до нації, оголосивши про продовження обмежень на два тижні.
+Напередодні в країні зафіксували 809 смертей - найнижчий денний показник за увесь тиждень.
+Загалом в країні померли 11 744 людей із коронавірусом. Загальна кількість випадків зараження по країні - 124 736, і цей показник зараз вищий, ніж в Італії.
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Королева звернеться до британців
+Копирайт изображения
+PA MEDIA
+Королева Великої Британії Єлизавета ІІ у неділю виступить із телезверненням до британців.
+Вона дуже рідко виступає зі спеціальними зверненнями до нації у часи криз. Це буде лише четвертий такий випадок за її 68-річне правління.
+Королева наголосить на великому значенні самодисципліни та рішучості під час пандемії коронавірусу.
+Вона також визнає горе, біль та фінансові труднощі, з якими стикаються британці.
+"Це часи дестабілізації в житті нашої країни: дестабілізації, яка принесла комусь горе, багатьом - фінансові труднощі і величезні зміни в повсякденному житті всіх нас", - скаже королева.
+Звернення знімав один оператор у захисному вбранні, а решта технічного персоналу перебувала в іншій кімнаті.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>4/04/2020</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Г'ю Монтгомері, Едді Муллан</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Суспільство</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>Найкращі серіали 2020. Те, що ви могли пропустити</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"Мисливці", "Статеве виховання" або "Краще подзвоніть Солу" - що подивитися під час карантину?
+Мисливці (Hunters)
+Копирайт изображения
+AMAZON PRIME VIDEO
+Комедія "Кролик Джоджо", на нашу думку сильно переоцінена Оскарівським комітетом, вчергове довела, що Голокост - складна тема для екранізації.
+Тим більшої уваги заслуговує новий серіал Amazon, сценаристом і продюсером якого виступили Девід Вейл та маестро горорів Джордан Піл.
+Їм вдалося об'єднати стиль, саспенс і захопливий екшн з тонким вшануванням пам'яті жертв жахливих злочинів проти людства.
+Події розгортаються в Америці 1970-х років. Група єврейських чоловіків на чолі з героєм Аль Пачіно прагнуть покарати високопоставлених нацистських чиновників, яким вдалося втекти до США, уникнувши правосуддя.
+Карантин: що подивитися, щоб покращити настрій
+Серіал між іншим оповідає й про те, що нацизм нікуди не зник, він завжди поруч із нами, навіть у ліберальній західній демократії.
+Подивитися серіал можна на каналі Amazon Prime Video.
+Статеве виховання (Sex Education)
+Копирайт изображения
+NETFLIX
+Серіал, знятий британським Netflix, вдало поєднує жанр підліткової комедії з відвертим і зрілим дослідженням сексу. Серіал порушує багато важливих тем від сексуальної ідентичності до підліткової вагітності.
+В центрі сюжету сором'язливий хлопець Оттіс, який відчайдушно мріє позбутися цноти, але поки що йому це не вдається. Його мати, роль якої виконує харизматична Джилліан Андерсон, - відомий у місті сексолог.
+Дев'ять найкращих серіалів березня
+Але у другому сезоні комедійної драми найбільш помітною є блискуча гра молодих акторів - Емми Маккей, яка виконала роль стриманої і вразливої Мейв, та Шуті Гатви, який зіграв надзвичайно харизматичного Еріка.
+По кайфу (Feel Good)
+Копирайт изображения
+CHANNEL 4/NETFLIX
+Канадська акторка Мей Мартін зіграє практично саму себе у новій комедійній драмі від Netflix.
+Героїню Мей також звати Мей, вона - стендап-комік, мешкає у Лондоні та бореться із наркотичною залежністю.
+В центрі сюжету - романтичні стосунки Мей з подругою Джордж (Шарлотта Річі), яка вперше переживає досвід одностатевого кохання.
+Найкращі серіали 2020 - чого очікувати
+Це добра і щира історія про диваків, які намагаються жити і любити.
+Ця країна (This Country)
+Ще одна життєва історія про безтурботних брата і сестру, які мешкають у містечку Котсвольд на південному заході Англії.
+Серіал, знятий у жанрі мок'юментарі, виходить вже у третьому сезоні.
+Творці ситкому, кузени Чарлі Купер та Дейзі Мей, які також виконали головні ролі, з тонкою іронією і добрим гумором досліджують життя провінційної Англії.
+"Ця країна" є одним із небагатьох сучасних серіалів, присвячених життю сільських мешканців.
+Любов сліпа (Love is Blind)
+Копирайт изображения
+NETFLIX
+Попри те, що доба реаліті-шоу минула, нове дейтинг-шоу від Netflix стало справжньою сенсацією.
+30 привабливих, гетеросексуальних чоловіків і жінок знайомляться наосліп і зможуть побачити одне одного, тільки коли вирішать одружитися. Ідея - абсурдна, але телегенічна.
+Найцікавіша частина програми - момент, коли пари нарешті зустрічаються на мексиканському курорті і починають спілкуватися наживо, намагаючись налагодити стосунки.
+Маленька Америка (Little America)
+Копирайт изображения
+APPLE TV+
+Серіал-антологія, знятий подружжям Кумаїлом Нанджані та Емілі В. Гордон, присвячений життю мігрантів у великому плавильному котлі Сполучених Штатів.
+Кожна серія оповідає історію окремої людини, як-от мексиканського гравця у сквош або сирійця-гея, який шукає притулку.
+На думку оглядачки Variety Кароліни Фрамке, серіал ставить важливе питання про те, "що означає бути американцем і що потрібно, щоби побудувати життя з нуля на новому місці".
+Серіал можна подивитися на Apple TV+.
+Змова проти Америки (The Plot Against America)
+Копирайт изображения
+HBO
+Творець "Прослуховування" ("The Wire") Девід Саймон є безумовно одним із найвидатніших телевізійників Америки, і його останній проєкт лише підтвердив цю репутацію.
+"Змова проти Америки" - це екранізація роману Філіпа Рота 2004 року, знята в жанрі альтернативної історії. Автори серіалу міркують про те, якими були б Сполучені Штати сьогодні, якби 1940 року країну очолив Чарльз Ліндберг, відомий своїми пронацистськими поглядами.
+У центрі сюжету - історія єврейської родини із Нью-Джерсі (Зої Казан, Вайнона Райдер, Морган Спектор), для якої наслідки правління Ліндберга стають непростим випробуванням.
+Даррен Френіч із Entertainment Weekly назвав серіал "одним із напруженіших телевізійних шоу, що оповідає про темний епізод в історії країни". Нові серії щотижня виходять на HBO.
+Чирлідери (Cheer)
+Копирайт изображения
+NETFLIX
+Це - документальний нетфліксівський серіал про команду чирлідерів із техаського містечка Корсикана.
+Для непосвячених чирлідинг виглядає доволі чудернацьким видом спорту, не кажучи вже про небезпечні трюки, які чирлідери мають виконувати.
+Серіал досліджує непрості особисті історії кожного з членів команди, які пояснюють, чому ці молоді люди з таким запалом і відданістю занурюються у підготовку до національних чемпіонатів.
+На думку кінокритиків, "Чирлідери" - це історія про виховування характеру і теплі стосунки з улюбленим тренером, який дозволяє їм стати кращою версією самих себе". Виходить на Netflix.
+Краще подзвоніть Солу (Better Call Saul)
+Копирайт изображения
+AMC / NETFLIX
+Спін-офф славетного серіалу "Пуститися берега" може затьмарити оригінальне шоу, попри те, що прихильники знають, чим він завершиться.
+П'ятий сезон продовжує досліджувати історію чесного юриста Джиммі Макгілла (Боб Оденкірк) та його перевтілення у підступного та аморального адвоката Сола Гудмена.
+Серіал виходить на каналі AMC / Netflix.
+Кінь БоДжек (BoJack Horseman)
+Копирайт изображения
+NETFLIX
+Історія колишньої зірки шоу-бізнесу коня БоДжека, яку вже оголосили найкращим анімаційним серіалом XXI століття, досліджує "дорослі" проблеми, від сексуальних домагань і депресії до зловживання наркотиками. Однак робить це зі здоровою часткою гумору та самоіронії.
+У завершальному шостому сезоні принцеса Керолін намагається знайти баланс між кар'єрою і материнством, а сам БоДжек потрапляє до реабілітаційної клініки для зірок із залежністю від знеболювальних.
+Найкращі ідеї серіалу є водночас й щирими, і цинічними, що, вочевидь, і робить шоу таким привабливим. Серіал доступний на Netflix.
+Прочитати оригінал цієї статті англійською мовою ви можете на сайті BBC Culture.
+Хочете поділитися з нами своїми життєвими історіями? Напишіть про себе на адресу questions.ukrainian@bbc.co.uk, і наші журналісти з вами зв'яжуться.
+Хочете отримувати головні статті в месенджер? Підписуйтесь на наш Telegram.
+--
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>4/04/2020</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Вільям Парк</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Суспільство</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>Чому романтичні стосунки втрьох - цілком природні</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Хоча сучасне суспільство вважає моногамію нормою, цей тип стосунків з історичної перспективи є доволі новим. Дедалі більше пар сьогодні обирають інші форми кохання, наприклад, узгоджену немоногамію. Що це таке?
+"Що для тебе означає вірність?" - запитує Емі Харт, учасниця британського реаліті-шоу "Острів кохання" у програмі 2019 року. Її партнер Кертіс Притчард загнаний у кут, і Емі це знає.
+Він цілував інших дівчат за її спиною. Притчард ніяково совається у кріслі, коли Харт холодно і жорстко вимовляє свою обвинувальну промову. Як він міг закохатися одразу в двох жінок, як він міг скривдити її, коли вона йому так довіряла.
+Харт впевнена, що у романтичних стосунках може бути лише дві людини і тому Притчард - порушник.
+П'ять несподіваних фактів про кохання і стосунки
+Правда і міфи про подружню зраду
+Кохання з першого погляду: що з нами відбувається насправді
+Утім, історія свідчить про те, що сексуальні стосунки між людьми завжди були набагато складнішими за моногамію, яка стала нормою для багатьох суспільств лише нещодавно.
+Чи повернемось ми до наших немоногамних коренів?
+Моногамія стала нормою для багатьох суспільств лише нещодавно.
+Узгоджена немоногамія (consensual non-monogamy) дозволяє обом партнерам вільно досліджувати стосунки з іншими людьми.
+Йдеться про будь-що від поліаморії і свінгу до "відкритого" шлюбу.
+Головною рисою таких стосунків є те, що партнери обговорюють і узгоджують допустимі для обох межі. Це визначення пояснює, чому Емі Харт була так обурена поведінкою свого коханого, адже вона не давала на неї згоди.
+Але той факт, що немоногамна поведінка притаманна великій частині населення, також пояснює, чому Притчард діяв саме так.
+Попри те, що суспільство вважає моногамію нормою, багато хто одержимий думкою про секс з кимось іншим, крім свого офіційного партнера.
+Як з'ясував психолог Джастін Лейміллер, автор книжки "Скажи мені, чого ти хочеш", найпоширенішою сексуальною фантазією у 4 тис. опитаних ним американців був секс утрьох.
+А чим іще є секс утрьох, як не узгодженою немоногамією?
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Cекс утрьох є найпоширенішою сексуальною фантазією
+"Близько 5% людей, які перебувають у стосунках, визначають своє партнерство, як узгоджену немоногамію", - зазначає Емі Муїз, психолог з Йоркського університету в Торонто.
+Але якщо врахувати всіх, хто в певний момент життя не дотримувався моногамії, відсоток помітно зросте.
+"Приблизно кожна п'ята людина колись у своєму житті мала більше за одного партнера", - додає Муїз.
+Інші дослідники вважають, що ця цифра може бути значно більшою, адже люди зазвичай відповідають на такі питання більш стримано.
+Люди схильні переоцінювати, скільки фруктів і овочів вони з'їдають на день, та недооцінювати, скільки вони вживають алкоголю, Емі Мурс, психолог з Університету Чепмена у Каліфорнії.
+Як зміниться секс у майбутньому
+Поліаморія - кохання майбутнього?
+Чому один партнер на все життя - це не так природно?
+Коли саме у людей почали виникати моногамні стосунки, питання спірне. Деякі антропологи пов'язують полігамність наших предків зі статевим диморфізмом, тобто значною різницею у розмірах тіла між самцями і самицями.
+Це свідчить про високий ступінь сексуального відбору. У горил, наприклад, більші за розміром самці мають кращі шанси на успіх у сексуальному плані, адже вони здатні побороти та відлякати конкурентів.
+Домінантний самець горили монополізує 70% усіх сексуальних актів, створюючи таким чином полігінічне суспільство (тобто таке, в якому багато самиць спарюються з одним самцем).
+Відносна схожість чоловічих генетичних даних говорить про те, що в нашому еволюційному минулому спарювалася лише відносно невелика кількість чоловіків.
+У більш нещодавні часи розмаїття чоловічих генів збільшилося. Це означає, що перехід до моногамії дав можливість для сексуальних стосунків більшій кількості чоловіків.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Інститут шлюбу виник із появою власності на землю, коли постало питання про спадщину
+Як свідчать археологічні дані, суспільствам мисливців-збирачів була притаманна серійна моногамність. Тобто пара залишалась разом лише під час вигодування малюка, а потім шукала нових партнерів.
+З точки зору кількості потомства серійна моногамія є більш вигідною для чоловіків, що може пояснювати, чому чоловіки, як правило, більш зацікавлені у відкритих стосунках.
+В опитуванні Лейміллера про сексуальні фантазії інтерес до групового сексу висловили близько 26% чоловіків і лише 8% жінок.
+Така ж тенденція спостерігається й для інших видів "соціального сексу", як-от відвідування секс-вечірок або свінгерських клубів.
+Проте жінки, які фантазували про секс з іншими партнерами, на відміну від чоловіків втілювали свої фантазії частіше.
+Справжній досвід групового сексу мали менше половини чоловіків, які про нього фантазували, але 3 із 4 жінок
+Як показало те саме опитування, справжній досвід групового сексу мали 12% чоловіків (тобто менше половини тих, хто фантазував про нього), але 3 із 4 жінок.
+Схоже, жінкам необхідна можливість підвертається частіше.
+Утім, відомо, що у 85% сучасних людських суспільств різні форми немоногамних стосунків є цілком прийнятними.
+Навіть Старий Заповіт сповнений натяками на багатоженство. Однак, попри те, що більшу частину історії людство не було моногамним, вірність одному партнеру протягом всього життя або принаймні тривалого часу є основою сучасного суспільства.
+Чому так?
+"Значну роль у цьому відіграє мистецтво і культура", - пояснює Мурс.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+В узгодженій немоногамії партнери можуть відігравати різні ролі, хтось дає турботу, інші задовольняють еротичні потреби
+"Зростаючи, діти бачать, що їхні батьки мають тривалі стосунки з одним партнером і намагаються бути моногамними. Інститут шлюбу існує в усьому світі", - додає дослідниця.
+"З моменту, коли люди почали обробляти землю, коли виникла власність на землю, шлюб став необхідністю, оскільки це був єдиний спосіб зберегти контроль над вашим майном і передати його нащадкам", - каже Мурс.
+"Саме з цих часів моногамність і гетеросексуальність стали у суспільстві пріоритетом".
+Зобов'язань менше, а секс краще
+Дослідження узгодженої немоногамії неодноразово показували, що пари з різними сексуальними інтересами отримують більше задоволення від стосунків, коли мають декількох сексуальних партнерів.
+"У відносинах часто виникають розбіжності між потребами обох партнерів", - каже Муїз.
+"Однак люди з кількома партнерами в цілому почуваються щасливішими. Якщо ви зацікавлені у сексуальних стосунках з іншими, цілком природно дослідити цю можливість".
+Люди з кількома партнерами в цілому почуваються щасливішими
+Дослідниця Саманта Джоел так пояснює покращення стосунків пари, яка перейшла до узгодженої немоногамії.
+Коли підвищується якість сексуального життя з іншими партнерами, збільшується й відчуття задоволення у стосунках з основним партнером.
+"Це факт, що коли люди радіють своєму сексуальному життю, вони спілкуються краще", - зазначає Джоел.
+"З іншого боку, люди у відкритих стосунках зобов'язані більше спілкуватися, відкритий шлюб неможливий без обговорення кордонів. Тоді як моногамні пари рідко обговорюють це", - додає соціальний психолог.
+Копирайт изображения
+UNSPLASH
+Image caption
+Більшість пар, які перейшли до відкритих стосунків, повідомляють про кращу якість подружнього життя
+Емоційне задоволення, почуття безпеки, турбота і відчуття близькості у здорових моногамних стосунках згодом зростають. А от спонтанність і захоплення, які пряма пов'язані з еротизмом, знижуються.
+"Відчуття новизни поступово зникає, пристрасть і потяг, які були на початку стосунків, підтримувати стає дедалі складніше", - пояснює психолог із Йоркського університету Ронда Бальзаріні.
+У тривалих стосунках партнери, як правило, одружені, мають дітей і купу обов'язків, пов'язаних із моногамним життям. З огляду на важкість і обсяг роботи, яку вони мають виконувати щодня, їм потрібна передбачуваність, а це суперечить еротизму.
+Новий партнер не повинен ділити з вами ці обов'язки, а тому вони не зменшують сексуальний потяг. Тобто зобов'язань менше, а секс кращий.
+"Звичайно, це не єдиний спосіб поєднати новизну та безпеку у тривалих стосунках, - зазначає Джоел. - Але для деяких людей він дієвий".
+Як бути з ревнощами?
+Переваги узгодженої немоногамії мають насамперед ті партнери, які щиро прагнуть щастя для своєї другої половини, вважає професор Муїс.
+"Так відбувається, коли людина хоче бачити свого партнера сексуально задоволеним, але не має потреби самій виконувати цю роль", - додає Муїс.
+Психологи називають це відчуття "радість причетності" - це здатність відчувати насолоду від того, що близька вам людина щаслива.
+Можливо, вам знайоме це відчуття за межами романтичних стосунків. Пригадайте, наприклад, як важлива для вас людина відкриває подарунок, який робить її щасливою.
+Так само може бути й з сексуальною задоволеністю вашого партнера.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Жінки схильні більше перейматися через емоційну зраду партнера
+Але як бути, якщо партнер ревнує?
+Як показують дослідження, чоловікам важче примиритися з сексуальною невірністю партнерки, ніж емоційною.
+З точки зору еволюції це можна пояснити тим, що чоловіку потрібна впевненість у тому, що він є батьком дитини. Тоді як жінкам докази їхнього материнства не потрібні.
+Проте жінки схильні більше перейматися через емоційну зраду партнера. Це також пояснюється еволюційно. Поки жінка виховує дитину, їй потрібно утримати поруч свого партнера, який міг би захистити її та малюка і забезпечити їх їжею.
+Якщо чоловік емоційно прив'язаний до іншої жінки, мати може не отримати від нього найкращої турботи та захисту.
+Кому підходять немоногамні стосунки?
+Як свідчать дослідження, стосунки з кількома партнерами одночасно деяким людям підходять більше, ніж іншим.
+Теорія прив'язаності, яка пояснює, як почуття безпеки або невпевненості формують наші стосунки, свідчить про те, що деякі люди менш готові ділитися своїм партнером, ніж інші.
+Дані опитування майже 200 тис. людей показали, що ті, хто наважився до відкритих стосунків, як правило, має нижчий рівень тривожної та уникаючої прив'язаності.
+Люди, які перебувають у поліаморних стосунках, зазвичай мають вищі емоційні потреби
+Однак, на думку вчених, тут може бути зворотна кореляція. Тобто такий спосіб життя так само приваблює і впевнених у собі людей, не схильних до тривожності.
+"Люди, які перебувають у поліаморних стосунках, зазвичай мають вищі емоційні потреби, які не може задовольнити одна людина", - зазначає Ронда Бальзаріні.
+"Ми помітили, що моногамні люди мають стабільний рівень потреб у турботі та сексуальному потягу. Тоді як у поліаморів ці потреби мають різкі коливання", - пояснює дослідниця.
+"Їм можуть бути потрібні всі ці речі водночас, а це складно реалізувати з одним партнером. Постійний партнер, який задовольняє потребу в турботі і безпеці, не може водночас збуджувати сексуально".
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Вміння спілкуватися є важливим для відкритих стосунків, але моногамним парам це вдається не завжди
+Утім, в усіх інших речах схильні до немоногамних стосунків люди можуть помітно відрізнятися. Вік, дохід, освіта, етнічна приналежність, релігія та політичні погляди не відіграють жодної ролі у цьому питанні.
+За винятком тих, хто ідентифікує себе як лесбійки, геї чи бісексуали, які зазвичай схильніші до немоногамних стосунків.
+Попри те, що немоногамні стосунки - явище не обмежене географічними та соціальними кордонами, у суспільстві воно й досі оточене стигмою.
+Стереотип, що платонічна чи родинна любов може бути безкінечною, а романтичне кохання не вічне, є дуже стійким.
+"Але ми вже знаємо, що близькі романтичні стосунки з кількома людьми цілком можливі", - каже професор Мурс.
+"Проте ми змушені вірити, що романтичне кохання обмежене. Ви закохані більш, ніж в одну людину? Це огидно, цього не може бути", - додає вона. Але ж це абсурд.
+Ми вимагаємо від наших партнерів чимало. Ми очікуємо, що вони стануть нам найкращим другом і порадником, людиною, якій можна довірити найпотаємніші секрети.
+"Але, насправді, всі ці речі не зобов'язана здійснювати одна людина", - каже Мурс. Можливо, ми стали б щасливішими, якби поділили свої потреби між кількома людьми.
+Прочитати оригінал цієї статті англійською мовою ви можете на сайті BBC Future.
+Хочете поділитися з нами своїми життєвими історіями? Напишіть про себе на адресу questions.ukrainian@bbc.co.uk, і наші журналісти з вами зв'яжуться.
+Хочете отримувати головне в месенджер? Підписуйтеся на наш Telegram або Viber!
+--
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>4/04/2020</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Олександр Пономарів</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Суспільство</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>Блог Пономарева: як українською "несолоно хлебавши"</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+RYAN FRANCO / UNSPLASH
+Доктор філологічних наук Олександр Пономарів відповідає на запитання читачів.
+Кирила Крутогорова цікавить, як можна українською мовою відтворити російський фразеологізм несолоно хлебавши. Несолоно сьорбавши - адекватна заміна чи є щось краще?
+Олександр Пономарів
+Доктор філологічних наук, академік АН Вищої школи України.
+Професор Київського національного університету імені Тараса Шевченка.
+Член Національної комісії України з питань правопису.
+Веде мовний блог на BBC Україна з 2009 року.
+Є. Спіймавши облизня або облизавши макогона.
+Макс Черняєв пише: Запитання виходить із багатолітніх суперечок росіян і українців про українську мову. Росіяни вважають, що української мови не існує. Українці - що росіяни не розуміють української, а білорус і українець розуміють один одного прекрасно. Чому російська мова стоїть так далеко від мов инших народів?
+Те, що росіяни (в більшості своїй) не визнають української мови, - це їхня біда, наслідок кількасотлітнього шовіністичного виховання. Якщо це не окрема мова, чому ж тоді вони її не розуміють? Українська й білоруська нації почали формуватися після розпаду праслов'янської єдности, а росіяни (русские), як свідчить російський історик Василь Ключевський (1841—1911) з'явилися на історичному кону не раніше ХІ століття. Їхня мова ввібрала в себе багато лексичних, синтаксичних, морфологічних конструкцій з мов підкорених Московщиною фіно-угорських та инших народів. Крім того, зазнала великого впливу старослов'янської мови. Через те вона так віддалена від решти слов'янських мов.
+Тетяна Рожанчук цікавиться, як утворювати фемінітиви від складних назв професій, таких як: хімік-технолог, лицювальник-плиточник, лікар-педіятр, технік-будівельник тощо. Чи форму фемінітива мають обидві частини, чи тільки останнє слово?
+Форму фемінітива (якщо вона є) мають обидва складники назви: лікарка-педіятриня, лицювальниця-плиточниця й под.
+Харків'янин Олександр Вершигора пише: "Розкажіть, будь ласка, чи є допустимим у слові заявник наголос на останньому складі. Я завжди вживав це слово саме з таким наголосом, але нещодавно побачив, що словники вказують наголос на другому складі, і лише словник Караванського подає два варіянти".
+У всіх словниках, крім словника Святослава Караванського, наголос на другому складі - заЯвник.
+Василь Полинчук запитує, як казати буду йти чи піду.
+Обидва варіянти правильні, але буду йти, ітиму - це недоконаний вид, відповідає на запитання, що робитиму, а піду - доконаний вид, відповідає на запитання що зроблю.
+----
+Будь ласка, зверніть увагу, що професор Пономарів користується Проєктом українського правопису 1999 року, тож слова на кшталт инший чи варіянт - це не помилки.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>4/04/2020</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Святослав Хоменко</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Суспільство</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>Мотря зі "Спіймати Кайдаша": "Прочитала сценарій і подумала: ну і стерво"</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+АНТОНІНА ХИЖНЯК
+"Кролям дала, свиням дала, тільки сину вашому не дала!" - серіал "Спіймати Кайдаша" став справжнім відкриттям українського карантину.
+Це - рімейк класичної повісті "Кайдашева сім'я", який жорстко й чесно зобразив сучасне українське село.
+BBC News Україна у форматі Фейсбук-лайву поговорила з Антоніною Хижняк, яка зіграла колоритну Мотрю.
+Чи виставляє серіал село в непривабливому світлі? Чи буде другий сезон? І головна інтрига: від кого ж Таньчина Анжеліна? Читайте в текстовій версії розмови.
+Права на зображення BBC News Україна
+BBC NEWS УКРАЇНА
+Обережно - можливі спойлери! 12-серійну стрічку, зняту каналом СТБ, можна подивитися тут.
+Українські фільми 2020: що дивитися?
+Винник і спецназ: шість фактів про комедію "Скажене весілля"
+ВВС: Якби вашу героїню, Мотрю, закрити на карантин з Марусею Кайдашихою, як думаєте - як би це виглядало і чим могло б закінчитися?
+А.Х.: (сміється) Думаю, кунсткамера би просто відпочивала, і хтозна, чи звідти б хтось вийшов живим.
+Із цього можна було б зробити спін-офф на злобу дня - "Кайдаші на карантині".
+До речі, сьогодні - 1 квітня, і за серіалом саме в цей день у Марусі Кайдашихи був день народження. Це якраз восьма серія, вона дзвонить брату Омелька і каже: "Шо, який карантін? Та ніяких вірусів ми не боїмося".
+Зараз люди просто угорають з цього моменту. Сценарій був написаний роки два-три тому, хто міг тоді передбачити, що зараз ми будемо дивитися цей серіал, зачинені вдома? Таке навмисно не придумаєш.
+ВВС: Багато глядачів вашого серіалу відзначають особливу хімію в трикутнику Мотря-Карпо-Кайдашиха. З одного боку - говорять про особливі стосунки між Мотрею і Карпом, але з іншого - лайки вашої героїні з її свекрухою, Кайдашихою, були надзвичайно органічними, щирими і невимушеними. В чому секрет такої хімії?
+Копирайт изображения
+СТБ
+Image caption
+Головні герої серіалу
+А.Х.: Із Тарасом (Цимбалюком - виконавцем ролі Карпа Кайдаша. - Ред.) ми знайомі давно, мені з ним було легше працювати.
+З Ірою (Іриною Мак, виконавицею ролі Марусі Кайдаш. - Ред.) і зі всіма акторами ми познайомилися вже на майданчику, в кадрі. І я, скажу чесно, навіть боялася заходити у вагончики, в яких актори відпочивали чи чекали на свою сцену. Пам'ятаю, думала: "Боже-Боже, такі великі артісти, всі відомі, а я тут прийшла оце, якесь мале непонятне".
+Але потім вона мені стала, наче рідна. Можливо, тому, що вона з Вінниччини і бабуся моя теж, - і я від неї чула дуже багато знайомих мені змалечку слів, виразів, інтонацій. Може, це спрацювало. Тим паче, ми любили на зйомках бєса погнати, анекдоти порозповідати чи з життя якихось історій, і так ми зблизилися. Правда, за три місяці зйомок ми дуже-дуже зріднилися. Може, воно й на добре було, бо в кадрі ми виглядали, наче справжня сім'я.
+ВВС: А важко було з людиною, з якою ви зріднилися, грати настільки сильний антагонізм, таку ядерну війну, яка у Мотрі з Кайдашихою?
+А.Х.: Це чисто технічна штука в акторів - коли ти щось мочиш не від себе, а від свого героя.
+Але, звісно, були такі сцени, - наприклад, коли Кайдашиха нас проклинає, чи я їй прямо в обличчя заряджаю якоюсь лайкою, - після яких ми просто підходили одна до одної, і я Іру обнімала, бо ми обидві розуміли, що так жить насправді - хай Бог помилує.
+ВВС: Запитання від нашого читача Богдана Хмаровського: чи не тяжко вам було грати таке стерво?
+А.Х.: Скажу чесно, я коли вперше прочитала сценарій, так і подумала: ффух, ну і стерво, реально.
+Я в житті не з таких людей, чесно. Але мені було цікаво зіграти не себе. Я спостерігала людей, для яких такі сварки є звичним способом життя, які не знають інших способів комунікації, які прямо на старті кричать одне на одного, навіть якщо нічого не сталося, бо одне одного не чують. І я це все підглядала, вкладала в свій акторський багажничок, і на цьому проєкті це все реалізувалося.
+Звісно, в мене теж є свої внутрішні демони. Це вибір кожного: яку свою сторону показувати, а яку ні. Мотрі я віддала всі свої темні сторони. Проєкт закінчився - все, всі назад.
+Тобто я чітко розуміла, де проходить грань між нею і мною, але в цьому є якийсь феномен, коли тобі іншу людину грати легше, ніж себе. Хоча й мого особистого в ній дуже багато.
+Мені було дуже цікаво зіграти роль, яка б зовсім відрізнялася від тих, які мені пропонували раніше - просто красивої дєвочки, яка десь поплаче, або чиєїсь подружки… Для мене це був акторський виклик.
+Копирайт изображения
+СТБ
+ВВС: А Мотря Кайдаш чогось навчила Антоніну Хижняк? Ви після цього серіалу якось змінилися?
+А.Х.: Я в неї настільки влізла, що зараз інколи включаю Мотрю і в реальному житті - такого командира, який любить, щоби все було по її.
+І, звісно, мене дуже окрилюють відгуки людей. Ми насправді не очікували такого резонансу, скажу чесно. Я не очікувала такої підтримки - радше хейту. Ви ж розумієте, антагоністів не дуже люблять.
+Але тут люди мені такі теплі слова пишуть, що я думаю: "Боже, як вони мене не зненавиділи після тих собак".
+Хоча є й такі, що реально вірять, що я така. Часом думаю: "Боже-Боже, вони ж мене вислідять і хату спалять".
+ВВС: Давайте вирішимо це питання остаточно. Собаки не постраждали?
+А.Х.: Ні, ви що? Ні-ні-ні. Це ж кіно, воно створює ілюзію, в яку люди вірять. Звичайно, жодна тварина на зйомках не постраждала.
+ВВС: Одне з найпопулярніших запитань, які ставлять після перегляду "Спіймати Кайдаша", - про другий сезон серіалу. Наприклад, наш читач Анатолій Байдаченко пише: "Дуже хочеться дочекатися Лавріна з війни і побачити, якою мамою стане Мотря". Отож, відкрийте таємницю, чи буде другий сезон?
+А.Х.: Я би хотіла всім дати надію, але скажу чесно: сценаристка Наталка Ворожбит не планувала другий сезон. Вона чесно сказала, що не вірить, що Кайдаші зможуть помиритися.
+Тобто всі хотіли би побачити під грушею якийсь спільний обід і хепі-енд. Але відкритий фінал — це такий драматургічний прийом. Кожен сам собі може придумати кінцівку серіалу. Я дуже розумію людей, які хочуть продовження, бо їхній гештальт має закритися, вони хочуть хепі-енду. Я й сама люблю, щоб історія була логічно доведена до кінця.
+Але якщо подивитися на речі реально, то Наталці, щоб написати щось схоже і не занизити планку, висмоктуючи з пальця якісь події, потрібно плюс-мінус стільки ж часу, скільки вона писала цей матеріал, тобто десь із півтора роки. Плюс зйомка, монтаж, все інше. Ці строки, на жаль, неприйнятні для телебачення. Всі хочуть щось швиденько зробити, але Наташа так не працює, вона не хоче писати абищо.
+Тим паче, що в Нечуя-Левицького історія ж на цьому закінчується. А в реальному житті Україну після закінчення подій у серіалі чекають трагічні події - війна, дуже багато горя.
+Тому я все ж за те, щоб ця історія закінчилася там, де закінчилася. А глядач хай краще залишається трохи голодним, ніж перегодованим.
+"Наші котики". Сміятися з війни без пафосу
+ВВС: А все ж, як думаєте, якою мамою була б Мотря? Так само сварилася б зі своєю дитиною, як і з усім навколишнім світом?
+А.Х.: Я, якщо чесно, про це й не думала. Але моїй дитині майже три, і, може, що б я зараз не сказала, це буде моя особиста проєкція.
+Мені здається, вона б не слухала нічиїх порад, бо краще знає, як краще для її дитини. Але мені самій це цікаво.
+Копирайт изображения
+СТБ
+Image caption
+Другий сезон поки не планується
+ВВС: Ви почуваєтеся зіркою? Вас почали впізнавати на вулиці, просити автографи?
+А.Х.: Я б не сказала, що прямо зіркою в класичному розумінні. Звичайно, багато людей пишуть у соцмережах, часом просять якесь відеопривітання записати, сестрі, мамі чи ще кому. Якщо в мене є час, я стараюся відповісти, зробити приємне людям. Класно, що є таке живе спілкування, бо дуже багато людей пишуть надзвичайно приємні речі. Реально, люди, я вас усіх обожнюю.
+Але живу я в маленькому містечку Українка. І, якщо чесно, мене влаштовує, що тут мене ніхто особливо не впізнає. Містечко маленьке, і коли всі на тебе дивляться, що ти там у носі десь поколупався, то нащо воно треба?
+До того ж, я дуже світлочутлива, тому завжди, взимку, влітку, за кермом, часом навіть у магазин заходжу - в сонцезахисних окулярах.
+ВВС: Ви не боїтеся, що, зігравши настільки яскравий образ, станете акторкою однієї ролі і так і залишитеся Мотрею?
+А.Х.: Якщо чесно, ні. Зараз я знімаюся в іншому серіалі, де граю експертку з балістики - дуже розумну дівчину, яка вміє користуватися зброєю, розбирається у всіляких наукових і цифрових новинках. Тому сподіваюся, що після нього глядачі трішки змінять свою точку зору на мене.
+Звичайно, у яскравих ролей завжди є ризик, що ти закріпишся в одному амплуа, і все. Але я до цього десять років знімалася в малесеньких епізодах, в настільки інших ролях, ніж Мотря, що я вдячна їй за те, що саме через цей матеріал я розкрилася повністю, в усіх акторських аспектах.
+Копирайт изображения
+АНТОНІНА ХИЖНЯК
+ВВС: Дуже багато говорять про мову, якою ваша героїня користується в серіалі. Читачі запитують, якою мовою ви розмовляєте в реальному житті, і чи знали до серіалу - яке воно, село XXI століття?
+А.Х.: Я все життя провела на Київщині, тому для мене суржик не був чимось таким, чого треба було вчитися. Я до 17 років виключно на суржику спілкувалася. Я вчилася у Василькові, в Калинівці, я народилася в Українці, де зараз живу. Тут усі люди так спілкуються - особливо васильковський суржик нашумєвший, це канєшно отдєльна тєма, але там усі так балакають, вся моя сім'я так розмовляє.
+І з приводу того, де я бачила село: мій тато - з Донеччини, там пів села Хижняків, моїх родичів (Новоукраїнка - привіт всім!). Щороку літні канікули я проводила у бабусі з дідусем, і ми бачили, як люди живуть, чим живуть, як розважаються. Тому мені не потрібно було з кимось консультуватися - я з цими людьми виросла. Ми з братом брали участь у копаннях картоплі, підбиранні цибулі, не знаю, там курочок покормить, свинку почухать… Я серед цього всього виросла. Ці всі драки, слова - я це чула з самого дитинства, тож мені було досить легко працювати.
+ВВС: Читачі питають і про те, чи "Спіймати Кайдаша" підходить для дітей. І, до речі, у зв'язку з цим варто згадати, що ваш серіал не тільки хвалять, а й критикують за те, що там багато бухають, лаються, показують ранні вагітності, відсутність перспектив на селі, суцільний треш. Закидають виставлення українського села у непривабливому світлі, скажімо так. У вас немає такого відчуття?
+А.Х.: Щодо питання про дітей - то там є віковий ценз, 16+. Хоч формально це серіал, для мене це кіно, 12-серійний фільм, і цей фільм не призначений для сімейного перегляду, дітям і людям із вразливою психікою краще його не дивитися. Він призначений для глядачів, які вміють аналізувати і відсікати для себе: де ми бачимо правду, а де йде прийом "від зворотнього", тобто: люди, дивіться, це просто жахливо, так, як ви бачите на екрані, робити не можна!
+А щодо трешу, що всі бухають і немає перспектив… Розумієте, це дзеркало нашого життя. Я, коли приїжджала до дідуся на Донеччину, то, звичайно, була дуже рада бачити всіх родичів. Але після трьох місяців канікул розуміла, що в моєму селі реально немає жодних веселощів, окрім того, щоб увечері піти на магазин купити пива.
+Вдавати, що цього немає, що села прямо процвітають? Розумієте, серіал показує дуже болісну картину життя, але він є закликом щось змінювати. Це не те, що "от ми тут бухаєм, ідіть і ви бухайте". Це інше: люди, дивіться, як ми погано живемо в серіалі, хоча б ви так не живіть, змініть хоч щось!
+Людям тяжко дивитися серіал? Я згодна, тяжко. З боку на себе дивитися тяжко, бо в нас, українців, є багато недоліків - і цей наш інфантилізм, і хитрожопість, і все інше… Але разом із тим, є й багато достоїнств. Ми щедрі, ми добрі... Мені здається, в цьому й секрет серіалу, саме це людей і зачепило: що ми там не показані якимись правильними чи неправильними, ми всі живі люди, зі своїми недоліками і достоїнствами, як у житті.
+Ми показуємо, як є насправді. А що молодь спивається в селі, бо немає нормальної роботи і перспективи - ну, вибачайте, давайте з тим щось робити. А закривати очі, ховатися, як страуси, і чекати, що всі вийдуть у вишиванках, шароварах і брилях, як маленькі хлопчики з букварика, - оце і є шароварщина.
+Копирайт изображения
+СТБ
+ВВС: Ви зараз говорите, прямо як політик.
+А.Х.: Хай Бог милує!
+ВВС: Про це першим написав, мабуть, письменник Андрій Бондар, але багато хто в Facebook підхопив тезу, що Мотря могла б стати чудовим президентом України. Як ви ставитеся до таких ініціатив?
+А.Х.: Не знаю, мені смішно чогось. З одного боку мені, звісно, лестить, такий широкий резонанс, і що коли говорять "Мотря", всі розуміють, про кого йдеться. А з іншого боку - люди, Боже, вам одних граблів не вистачило, то ви інших хочете? Як каже моя бабуся, ну нахіба воно тобі нада?
+Тому, з одного боку, мені з цього смішно, бо люди жартують, фантазують, якісь мемчики клепають, а я людина з гумором, люблю пошуткувати, поіронізувати над собою. А з іншого - мені приємно. Не про багатьох так кажуть.
+ВВС: І останнє питання, яке, можливо, буде спойлером! Ви говорили, що багато відзнятого матеріалу не потрапило до фінальної версії серіалу, і, можливо, йдеться саме про це. Отож, найсокровенніше питання, яке турбує сотні, тисячі глядачів: чия Таньчина Анджеліна?
+А.Х.: Я зараз розкрию великий секрет: цього не знає ніхто. На майданчику всі в Наташі (сценаристки Наталі Ворожбит. - Ред.) запитували: "Наташ, чуєш, так а чия це дитина виходить?". А вона казала: "А яка різниця? Хіба це має значення?". Тобто я вам клянуся - ми не знаємо!
+Звичайно, шкода, що багато відзнятого не увійшло до телеверсії, але навіть у самому сценарії є дуже багато зачіпок, які незрозуміло, до чого там і куди ведуть.
+Одна з них, до речі, - момент, коли Мотря, поки всі на виборах, біжить дивитися на новий будинок Таньки, а після цього баба Параска знаходить під килимком біля дверей зв'язане волосся - типу зурочили.
+Я запитувала: "Наташ, а це я насправді зробила чи ні?" А вона: "Цього не має бути зрозуміло". І тому той, хто симпатизує Мотрі, скаже: "Та нє, ти шо? Коли б вона встигла?". А той, хто її хейтить, зразу такий: "Ага! От курвисько! Пішла і вроки якісь наробила!"
+У сценарії дуже багато таких моментів. І саме ці маленькі родзиночки, мабуть, і додають до серіалу інтриги.
+Тому я правда не знаю, чия вона донька. Я вам клянуся, не знаю. Ніхто не знає.
+Кінокарантин: що подивитися, щоб покращити собі настрій
+Копирайт изображения
+АНТОНІНА ХИЖНЯК
+Хочете отримувати найцікавіше в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>3/04/2020</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr"/>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Суспільство</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>Карантин. Список нових обмежень</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+УНІАН
+У п'ятницю Кабінет міністрів України опублікував оновлений список обмежень на час карантину.
+Що таке "громадське місце", де відтепер обов'язкові захисні маски
+"Ми вигораємо, нас надовго не вистачить". Лікарі про боротьбу з коронавірусом
+Маски у магазинах Австрії - обов'язкові, але безкоштовні
+Тепер українцям заборонили:
+Перебувати у громадських місцях без респіратора чи маски (можна - саморобній). Заборона починає діяти з 6 квітня.
+Ходити по вулицях більше, ніж вдвох. Виняток - супровід дітей до 14 років батьками, опікунами, піклувальниками, прийомними батьками, батьками-вихователями або повнолітніми родичами. Ще виняток - службова необхідність. Починає діяти з 6 квітня.
+Дітям до 14 років - перебувати у громадських місцях без супроводу батьків, опікунів чи дорослих родичів.
+Відвідувати заклади освіти тим, хто навчається.
+Відвідувати парки, сквери, зони відпочинку, лісопаркові зони та пляжі. Виняток - вигул собаки наодинці та "службова необхідність".
+Відвідувати спортивні і дитячі майданчики.
+Виходити на вулицю без документів, які посвідчують особу, підтверджують громадянство чи її спеціальний статус.
+Самовільно залишати місця обсервації (ізоляції).
+Заборонені всі масові заходи: концерти, спортивні фестивалі, рекламні акції, релігійні заходи, соціальні збори і т.д. Дозволені лише заходи, потрібні для роботи органів влади, й лише за умови, що учасники будуть у масках чи респіраторах та дотримуватимуться протиепідемічних заходів.
+Заборонені всі заклади, які передбачають відвідувачів: ресторани, кафе, ТРЦ та інші розважальні об'єкти і заклади культури, фітнес-центри та решта закладів зі сфери торгівлі та побутового обслуговування. Ця заборона не поширюється на: продуктові магазини, автозаправки і магазини автозапчастин, аптеки, магазини з для тварин, сільськогосподарські магазини, магазини мобільного зв'язку і електронної техніки, всі фінансові установи (зокрема банки), заклади громадського харчування, які працюють з доставкою (але кур'єри мають бути у засобах захисту), заклади розміщення, де проживають медики і люди на обсервації. Також продовжать працювати інкасатори, техпідтримка, ремонт електроніки, пошта та ряд інших інфраструктурно важливих об'єктів.
+Заборонені "маршрутки" та автобуси (регулярні і нерегулярні) у містах, а також приміські маршрути, маршрути між містами та областями. При цьому, не заборонено їздити власними легковими авто, також службовими машинами, а також перевозити медиків, працівників продуктових магазинів, правоохоронців і військових тощо. При цьому всі пасажири повинні мати маски чи респіратори, а їхня кількість у транспорті не може бути більшою від кількості місць для сидіння.
+Заборона метро у Києві, Харкові і Дніпрі.
+Заборона всіх пасажирських поїздів: приміських, регіональних і дальніх. Дозволяються лише окремі потяги у спеціальних випадках.
+Заборонено відвідувати заклади паліативної допомоги та соцзахисту, тобто будинки літніх людей та інтернати.
+Заборонено відвідувати пункти, де тримають мігрантів.
+Також уряд ввів низку обмежень на відключення газо- і електропостачання для ключових інфраструктурних об'єктів у сфері теплогенерації та електроенергії.
+Права на зображення BBC News Україна
+BBC NEWS УКРАЇНА
+Міністерство охорони здоров'я має припинити планову госпіталізацію і планові операції - всі, крім екстрених.
+Всі нові норми (наприклад, про паспорт) почнуть діяти з дня офіційної публікації - в уряді пояснили BBC News Україна, що це має статися завтра.
+Водночас окремі заборони (ходити по вулиці без масок чи більше, ніж удвох) вступлять у силу з 6 квітня.
+Всі заборни, відповідно до документу, діятимуть до 24 квітня.
+Водночас в уряді вже заявляють, що можуть продовжити карантин, якщо цього вимагатиме ситуація з поширенням корнавірусу.
+Проте сам Денис Шмигаль у п'ятницю припустив можливість поступового послаблення карантину, якщо динаміка захворюваності почне знижуватися.
+Наприклад, у кінці квітня можуть частково відновити рух громадського транспорту та дозволити ходити на роботу людям працездатного віку.
+Решту обмежень мають залишити.
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>3/04/2020</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Ліля Хомишин</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Суспільство</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>"Ми вигораємо, нас надовго не вистачить". Лікарі з Франківська про боротьбу з коронавірусом</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+ФОТО ІВАНО-ФРАНКІВСЬКОЇ ОДА
+"Ми просто вигораємо. Нас так надовго не стане. Лікарі працюють у дві зміни. Ми маємо по два-три захисні костюми, але я не можу сказати, наскільки їх вистачить. Якби не благодійники, ми б взагалі нічого не мали. Невідомо, скільки ми так протягнемо".
+Лікарка Любов Андрусишин стоїть біля пацієнта і довго говорити телефоном не може. Але по голосу чути, що жінка на межі.
+Вона працює в обласній клінічній інфекційній лікарні заступником головного лікаря. Ця лікарня приймає хворих на коронавірус.
+Івано-Франківська область одна з лідерів в Україні за кількістю хворих на COVІD-19 в Україні. Станом на ранок 3 квітня в області зафіксували 81 випадок.
+Нещодавно у пологовому будинку в місті померла вагітна жінка, у неї підозрюють коронавірус.
+В обласній держадміністрації заспокоюють: все під контролем, лікарі мають захист. Принаймні, його має вистачити на два тижні.
+Чи є у лікарів захист, наскільки його вистачить, у якому стані лікарні і самі лікарі — ВВС News Україна поговорила з лікарями, які перебувають на передовій боротьби з коронавірусом.
+Народила з коронавірусом? В Україні вперше прийняли пологи з підозрою на COVID-19
+"Усі думали, що жінка хворіє на грип": чому на Тернопільщині десятки лікарів з коронавірусом?
+"Якби не волонтери…"
+"Засоби захисту є, але вони мають здатність закінчуватися. Сьогодні нам прийшло 400 костюмів індивідуального захисту, вчора також 400. Але сьогодні ми можемо витратити більше, завтра ще більше. Ніхто не знає, як буде розвиватися коронавірус. Зараз у нас один підтверджений випадок коронавірусу, 31 з підозрою. При найгіршій ситуації одночасно наша лікарня може розгорнути 2250 ліжок. Волонтери допомагають.
+Якби не волонтери, то ми б цього всього не мали. Міська влада також дає багато засобів захисту. Поки що в нас ситуація стабільна. Але ми знаємо, що по всій країні нема засобів захисту. Тому і нас може спіткати така доля", - розповідає Тарас Василик, директор Івано-Франківської міської клінічної лікарні №1.
+Копирайт изображения
+UNIAN
+"Половина — хворих, а половина - панікерів"
+"Костюм мені дали. Маску паршивеньку дали. Респіратор є. З'явились у нас нарешті дезінфектори. Дійсно багато лікарів звільнилися, та я люблю свою роботу, тому й працюю. Ми тримаємося і я вірю, що все буде добре. Серед моїх пацієнтів ситуація така: половина дійсно хворих, а половина - панікерів. Вони дивляться телевізор, сидять в телефонах і самі себе накручують. А через паніку знижується імунітет", - говорить Галина Винничук, сімейний лікар з Івано-Франківська. Лікарка приймає хворих на гострі респіраторні інфекції та грип.
+"Страшно, наш відділ захворів"
+"Нам дуже складно, багато хворих, наш інфекційний відділ забитий повністю. Зараз кладуть хворих з вірусними інфекціями і в терапію, і в неврологію, і, навіть, в кардіологію. Адже просто не вистачає на всіх місць. Випадки коронавірусу підтверджують цілими сім'ями. Маски, рукавички, шапочки у нас є. Старша медсестра поступово їх видає. Так, їх вистачає, щоб змінювати кілька разів на день.
+Але ці одноразові засоби нікудишні. Нам потрібні багаторазові костюми захисту. І нормальні респіратори. А їх у нас немає взагалі, бо дали лише на швидку. В нас є лише одноразові халати. В однієї лікарки підтвердили COVID-19.
+Страшно, адже зараз майже весь наш відділ захворів. Я сама хвора. Минулого тижня ще працювала, але цього тижня пішла на лікарняний. Я ще виношую дитину, тому дуже боюся. Усі ми здали ПЛР-тести. Але результатів поки що немає. Через велику завантаженість київської лабораторії, на результат доводиться довго чекати. Дві медсестри звільнилися, дві санітарки звільнилися. Нам не вистачає персоналу. Є інтерни, студенти - але їхньої кваліфікації замало, це ж треба вміти вколоти у вену", - говорить Христина Мицкан, медсестра інфекційного відділення Надвірнянської ЦРЛ.
+Копирайт изображения
+UNIAN
+Купила собі респіратори
+"Поки що ситуація нормальна. Маски нам дають. Але, якщо змінювати їх кожні дві години, — то, звісно, на два тижні їх аж ніяк не стане. Я сама купила собі респіратори, тому ношу свій, його вистачає на два дні. У дві зміни лікарі не працюють, хворих лікарів, слава Богу, немає, звільнень також. Поки що ще тримаємося", - розповідає Алла Луговацька, лікар Тисменицької ЦРЛ.
+"Як буде далі - не знаємо"
+"Масок та костюмів нам поки що вистачає. Але це тільки тому, що у нас не зафіксовано хворих. Є лише з підозрою. У нас є апарат ШВЛ, ми обладнали реанімаційну палату. Як буде далі - не знаємо",- каже Андрій Іванович,лікар-інфекціоніст Городенківської ЦРЛ.
+"Люди звільняються і йдуть у відпустки"
+"В нас зараз проводиться активна закупівля засобів індивідуального захисту. Коштами і обладнанням допомагають волонтери. Місцева влада також допомагає. Потрібні одноразові костюми біозахисту, маски, рукавички, шапочки, бахіли, щитки, окулярі. Волонтери оперативно нашили масок. Але треба ще. Сказати категорично, що в нас нічого немає, неправильно.
+Заповнена лише половина боксів з хворими. Але ніхто не знає, як буде завтра. Поки що у нас не максимальне завантаження медиків, тому ми справляємось. Однак, якщо доведеться підключати додаткові бригади з інших відділень, то й засобів індивідуального захисту треба набагато більше.
+Є проблема звільнень. Медики намагаються самоізолюватися від вірусу - оформлюють заяви на відпустки, беруть відгули за сімейними обставинами, просто звільняються. Тішить, що поки що ці випадки не масові. Але при пікових навантаженнях нам цього персоналу буде дуже не вистачати", - розповіла Наталія Височанська, заступник головного лікаря Долинської центральної міської клінічної лікарні.
+Копирайт изображения
+UNIAN
+"Пацієнти мають купувати ліки"
+"Для тих пацієнтів, які одержали позитивний тест на коронавірус, ми зробили окремі відділення та місця: це перша і друга терапії, окремі місця в реанімації.
+На сьогодні, слава Богу, в реанімації було п'ятеро пацієнтів із респіраторними захворюваннями: 2 ми уже перевели в інше відділення.
+Минулого тижня закупили антибіотиків загальної дії, антисептиків, засобів індивідуального захисту.
+Частину необхідного ми забезпечуємо з міського бюджету, але частину пацієнти повинні закупляти... На жаль, але так воно є. Бо тих коштів, які виділяє влада — їх є замало для лікувань тих пацієнтів. Медики працюють на межі", - говорить Тарас Масляк, головний лікар Івано-Франківської центральної міської клінічної лікарні.
+"Все під контролем"
+Обласна державна адміністрація заспокоює: все під контролем. Засоби індивідуального захисту є. За нормальних умов їх мало б вистачити на два тижні.
+"Те, що вийшло з держрезерву ми пропорційно поділили між обласними закладами. Ми з резерву виділили достатню кількість масок. Приблизно двотижневий запас однозначно там має бути", - розповів нещодавно на брифінгу голова Івано-Франківської ОДА Володимир Федорів.
+Кількість підтверджених випадків зараження коронавірусом в Україні
+Джерело даних: МОЗ. *Дані по анексованому Криму взяті з російських офіційних джерел, перевірити їх у незалежних джерелах поки що неможливо. Підтверджених даних з ОРДЛО немає. Мапа створена за допомогою Carto.
+Як подорожувати під час епідемії
+Як безпечно купувати продукти та замовляти їжу з доставкою
+Карантин: що зі школою і вступом до вишів?
+Чи захищають медичні маски від вірусу?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>05/04/2020</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Мішель Робертс</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Здоров'я</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>Втрата нюху та смаку - основні симптоми Covid-19?</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Втрата нюху та смаку можуть бути важливими ознаками коронавірусу, стверджують британські дослідники.
+Команда вчених із Лондонського Королівського коледжу вивчила симптоми Covid-19 за допомогою додатку Covid Symptom Tracker, в якому понад 400 000 людей описували свій стан здоров'я.
+Втрата нюху та смаку є, однак, симптомами й інших респіраторних інфекцій, як-от звичайна застуда.
+Тому насамперед мають насторожити лихоманка і кашель - ці симптоми залишаються найважливішими ознаками Covid-19.
+Якщо у вас або когось із вашої родини спостерігається постійний кашель або висока температура, залишайтеся вдома, щоби зупинити поширення вірусу.
+Все про коронавірус. Стислі факти
+Що виявило дослідження?
+Дослідники Королівського коледжу почали збирати дані про можливі симптоми коронавірусу, щоби допомогти медикам краще зрозуміти хворобу.
+Дані додатку Covid Symptom Tracker показали так частоту симптомів:
+53% опитуваних вказували на втому і слабкість,
+29% - стійкий кашель,
+28% - задишку,
+18% - втрату нюху чи смаку
+10,5% страждали на лихоманку
+Із 400 тис. користувачів додатку 1 702 людини повідомили, що зробили тест на Covid-19. 579 із них отримали позитивний результат, а 1 123 - негативний.
+59% тих, у кого коронавірусна хвороба підтвердилася, повідомили про втрату нюху чи смаку.
+Коронавірус в Україні. Інтерактивна мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Коронавірус: як правильно ізолюватися
+Коронавірус: що він робить з організмом
+Чи треба внести втрату нюху і смаку до основних симптомів?
+На думку експертів, даних для цього поки що не достатньо.
+Організація охорони громадського здоров'я Англії та Всесвітня організація охорони здоров'я не додали ці симптоми до списку.
+Асоціація ЛОР-лікарів Великої Британії пояснила, що зникнення нюху та смаку у деяких пацієнтів є цілком природним і не є специфічною ознакою Covid-19.
+Утім, дослідники Лондонського Королівського коледжу додають, що ці симптоми можуть бути корисною додатковою ознакою, на яку слід звернути увагу поруч із кашлем та лихоманкою.
+Провідний дослідник професор Тім Спектор зазначив: "У поєднанні з іншими симптомами у пацієнтів, які втратили нюх і смак, втричі частіше діагностували Covid-19. Отже, ці симптоми мають стати серйозним приводом для самоізоляції протягом семи днів".
+Хочете отримувати головне в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BBC_reading/exel_files/bbc_scraping.xlsx
+++ b/BBC_reading/exel_files/bbc_scraping.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F332"/>
+  <dimension ref="A1:F368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23520,6 +23520,2499 @@
         </is>
       </c>
     </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>7/04/2020</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr"/>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>Хроніки коронавірусу. З Уханя можна виїхати вперше за два місяці</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Станом на вечір 7 квітня у світі виявили понад 1,3 мільйона підтверджених випадків коронавірусу.
+Серед них 79 тисяч людей померли, понад 295 тисяч - одужали.
+Лідери за кількістю хворих - США (378 тисяч), Іспанія (140 тисяч), Італія (132 тисячі) та Німеччина (105 тисяч).
+Водночас в Україні станом на ранок 7 квітня виявили 1462 підтверджених випадки коронавірусу, 143 - за останню добу. Померли 45 людей.
+Коронавірус: коли закінчиться епідемія
+Коронавірус: поради тим, хто має хронічні захворювання
+Коронавірус і секс: що ви хотіли, але соромились запитати
+З Уханя можна виїхати вперше за два місяці
+Жителі китайського Уханя, звідки почався спалах коронавірусу, можуть виїхати з міста вперше за понад два місяці - обмеження на виїзд влада запровадила ще 23 січня.
+Населення Уханя - понад 11 мільйонів людей.
+Тепер в місті повністю відновлюють автомобільне, залізничне пасажирське сполучення.
+Раніше стало відомо, що в Китаї вперше за час спалаху не зафіксували жодної смерті від коронавірусу упродовж доби.
+10 тисяч смертей у Франції
+Копирайт изображения
+GETTY IMAGES
+Кількість смертей через коронавірус у Франції сягнула 10 тисяч.
+Наразі це четвертий показник у світі - більше тільки в Італії (17 тисяч), Іспанії (13 тисяч) та США.
+Загалом у Франції виявили понад 98 тисяч випадків коронавірусу. 30 тисяч із них наразі госпіталізовано, понад 7 тисяч перебувають у відділеннях інтенсивної терапії.
+Вихід на вулицю без маски загрожує в'язницею
+Копирайт изображения
+GETTY IMAGES
+Таке правило сьогодні набуло чинності у Марокко, де станом на 7 квітня понад 1100 випадків коронавірусу, 83 з них - летальні.
+Відтепер жителям, які виходитимуть на вулицю без маски, загрожуватиме до трьох місяців в'язниці та штраф у розмірі 126 доларів.
+Карантинні обмеження діють в країні вже близько трьох тижнів: люди можуть залишати свої домівки, щоб купити продукти чи ліки. На роботу мають право ходити лише ті, хто має спеціальний дозвіл.
+Рекордна смертність у штаті Нью-Йорк
+Штат Нью-Йорк залишається епіцентром поширення коронавірусу в США, де загалом виявили вже понад 378 тисяч хворих.
+У штаті напередодні зафіксували рекордну кількість смертей за добу - через ускладнення, пов'язані з коронавірусом померла 731 людина, розповів губернатор Ендрю Куомо.
+За його словами, у штаті виявили вже майже 39 тисяч випадків захворювання, понад 5 400 людей померли.
+Жорсткі обмеження через вірус запроваджені у багатьох країнах світу - заборонені відвідини громадських місць, закриті школи і кордони.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Міністра охорони здоров'я Нової Зеландії Девіда Кларка понизили в ранзі після поїздки на пляж
+І багато де це порушують. Наприклад, у Новій Зеландії карантин порушив міністр охорони здоров'я Девід Кларк. Він вивіз свою родину на пляж. Щоправда, після цього розкаявся, назвав себе "ідіотом" і запропонував прем'єру заяву про відставку.
+На роботі його залишили через кризовий момент для країни, але понизили у ранзі.
+Копирайт изображения
+REUTERS
+Іспанія минула пік
+Загальна кількість смертей від Covid-19 в Іспанії - 13 тисяч людей, а загальна кількість підтверджених випадків зараження - 136 тисяч.
+Прем'єр-міністр Педро Санчес напередодні заявив, що країна "близька до проходження піку захворюваності" коронавірусом.
+Санчес оголосив про продовження карантину до 25 квітня, заявивши, що ці заходи рятують життя, і додаткові два тижні карантину полегшать роботу медиків.
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>7/04/2020</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr"/>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>Вихід на вулицю без маски загрожує в’язницею. Нові правила в Марокко</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Жителям Марокко, які виходитимуть на вулицю без маски, загрожуватиме до трьох місяців в'язниці та штраф у розмірі 126 доларів.
+Нові правила набули чинності у вівторок, карантин у країні триває вже близько трьох тижнів.
+Жителі можуть залишати свої домівки, щоб купити продукти чи ліки. На роботу мають право ходити лише ті, хто має спеціальний дозвіл.
+З 19 березня, коли були запроваджені ці норми, поліція Марокко встигла затримати понад 8 600 людей, які порушували правила карантину.
+Коронавірус: що він робить з організмом
+"Не перетворюймось на дітей, яким заборонили морозиво". Зеленський про карантин
+Маски для обличчя продаватимуться у Марокко по 8 центів - ціни на них субсидуватиме уряд.
+З наступного тижня влада також планує самостійно виробляти майже 6 мільйонів масок на день - порівняно з 3,3 мільйона, які виробляються зараз.
+Станом на 7 квітня в країні зафіксували понад 1100 випадків коронавірусу. 83 людини померли.
+Загалом у світі наразі виявили понад 1,3 мільйона підтверджених випадків коронавірусу.
+Найбільше хворих - у США (378 тисяч), Іспанії (140 тисяч), Італії (132 тисячі) та Німеччині (105 тисяч).
+Як подорожувати під час епідемії
+Як безпечно купувати продукти та замовляти їжу з доставкою
+Карантин: що зі школою і вступом до вишів?
+Чи захищають медичні маски від вірусу?
+"Ховати знайомих гірше". Як живе Європа на карантині
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="inlineStr"/>
+      <c r="C335" t="inlineStr"/>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>Forbes: найбагатші люди світу втрачають статки, в Україні - шестеро мільярдерів</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+За підрахунками видання Forbes, у світі станом на березень 2020 року є 2 095 мільярдерів. Минулого року їх було на 58 більше.
+Загальні статки усіх мільярдерів, кажуть у виданні, складають 8 трильйонів доларів - це на 700 мільярдів менше, ніж торік.
+Окрім того, понад тисячу мільярдерів втратили частину своїх статків, а 267 взагалі вибули з рейтингу. Експерти пов'язують таку тенденцію, зокрема, й із економічними наслідками пандемії коронавірусу.
+"Найбагатші люди світу не мають імунітету проти руйнівного ефекту коронавірусу, - каже представник Forbes Керрі Долан. - Цьогорічне падіння кількості мільярдерів відображає економічні наслідки пандемії, з якими ми маємо справу вже зараз".
+Forbes: Світоліна - в десятці найоплачуваніших спортсменок світу
+Найбагатші музиканти десятиліття. Список Forbes
+Найбагатші люди світу - хто вони?
+Свіжий рейтинг Forbes очолює засновник Amazon Джеф Безос, статки якого оцінюють у 113 мільярдів доларів.
+Також у трійці найбагатших людей планети - засновник Microsoft Білл Гейтс, якому приписують активи у 98 мільярдів доларів і власник компанії Louis Vuitton Moët Hennessy Бернар Арно. Його статки Forbes оцінив у 76 мільярдів.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Найбагатша людина світу - засновник Amazon Джеф Безос. Його статки Forbes оцінює у 113 мільярдів доларів
+Натомість інвестор Воррен Баффет, який торік посідав третю сходинку, цьогоріч опустився на четверте місце - за підрахунками видання, з минулого року він втратив 15 мільярдів доларів. Наразі його активи оцінюють у 67,5 мільярдів.
+П'яте місце в рейтингу Forbes посідає Ларрі Елісон - засновник компанії Oracle Corporation, яка займається розробкою програмного забезпечення.
+Що в Україні?
+В Україні, за підрахунками видання, - шість доларових мільярдерів.
+Найбагатшим українцем лишається Рінат Ахметов зі статками у $2,4 млрд. В загальному рейтингу в нього 845 місце.
+Далі в списку українських мільярдерів слідують Віктор Пінчук ($1,3 млрд), Геннадій Боголюбов ($1,2 млрд), Юрій Косюк ($1,1 млрд), Ігор Коломойський ($1 млрд) та Костянтин Жеваго ($1 млрд).
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>7/04/2020</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr"/>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>Зеленський про карантин: "Не перетворюймось на дітей, яким заборонили морозиво"</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Володимир Зеленський виступив зі зверненням, в якому вкотре закликав українців дотримуватися карантину.
+Він нагадав, що обмеження є тимчасовими, а критиків карантину порівняв з "ображеними дітьми".
+"Давайте не перетворюватись на ображених дітей, яким під час застуди батьки заборонили їсти морозиво. Всі обмеження є лише тимчасовими незручностями, вони - важливі і потрібні для вашої ж безпеки", - сказав президент.
+Коронавірус: що він робить з організмом
+Коронавірус в Україні. Інтерактивна мапа
+За його словами, він розуміє невдоволення частини суспільства, але ситуація, що склалася, потребує відповідальності громадян.
+"Іноді хочеться втекти, вийти на вулицю. Особливо, коли така гарна погода. Але подумайте про те, що на вулиці ви можете підхопити вірус і принести його додому, до своєї сім'ї", - застеріг Зеленський.
+Пропустити Youtube допис , автор: BBC News Україна
+Увага: інші сайти можуть містити рекламу
+Кінець Youtube допису , автор: BBC News Україна
+"Наша мета - 50 мільйонів масок"
+Також президент розповів, що упродовж цього тижня в Україну прибуде щонайменше 7 літаків із Китаю та Південної Кореї.
+Ними доставлять тест-системи ПЛР, експрестести, захисні костюми, апарати штучної вентиляції, маски та респіратори.
+Окрім того, найближчими днями має запрацювати власне українське виробництво ПЛР-систем.
+Вже сьогодні, за словами президента, Україна щодня виготовляє близько 900 тисяч масок.
+"Наша мета - найближчим часом доставити в Україну 50 мільйонів масок", - сказав Зеленеський.
+Пасха вдома?
+Висловився президент і про цьогорічне святкування Пасхи. За його словами, "держава зробить усе, щоб у кожного була можливість відзначити Пасху вдома".
+"Ми знаходимось у постійному діалозі з головами усіх церков. Ми опинились у ситуації, коли мусимо змінювати свої традиції заради здоров'я та життя. Зі свого боку - ми зробимо все, аби забезпечити трансляцію богослужінь на телевізійних каналах".
+"А вас - я прошу згадати божу заповідь про любов до ближнього. У часи короновірусу найкращий прояв такої любові - це не створювати ближньому небезпеку для здоров'я і життя", - сказав Зеленський.
+Деталі про те, як відбуватиметься святкування Великодня в Україні, президент пообіцяв розповісти трохи згодом.
+Як подорожувати під час епідемії
+Як безпечно купувати продукти та замовляти їжу з доставкою
+Карантин: що зі школою і вступом до вишів?
+Чи захищають медичні маски від вірусу?
+"Ховати знайомих гірше". Як живе Європа на карантині
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="inlineStr"/>
+      <c r="C337" t="inlineStr"/>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>Коронавірус і секс: відповідаємо на найпопулярніші питання</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>7/04/2020</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr"/>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>"Просто легенький грип": цитати світових лідерів про коронавірус</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Image caption
+Американський та бразильський президенти робили дивні заяви щодо коронавірусу
+Пандемія коронавірусу змусила лідерів усього світу боротися із поширення захворювання, яке вже заразило понад 1,2 млн людей та вбило 69 тисяч.
+Але деякі можновладці збурили громадськість своїми заявами, які применшують масштаб кризи, містять оманливу інформацію про Covid-19 або пропонують цілковито неприйнятні дії.
+Відповіді на головні питання про коронавірус
+Як безпечно купувати продукти та замовляти їжу з доставкою
+В той час як деякі лідери змінили свої висловлювання щодо пандемії протягом останніх тижнів (наприклад, президент США Дональд Трамп), інші продовжують наполягати на своїх зухвалих - а подекуди і небезпечних - поглядах.
+Права на зображення BBC News Україна
+BBC NEWS УКРАЇНА
+Ми зібрали кілька найбільш суперечливих тверджень.
+"Ми повністю його контролюємо"
+Getty
+Ми повністю його [коронавірус] контролюємо.
+Дональд Трамп
+Президент США
+22 січня, через два дні після повідомлення про перший випадок коронавірусу в США, президент Дональд Трамп дав інтерв'ю CNBC, у якому применшив значення появи Covid-19 у країні.
+Через два місяці в Америці зафіксували найбільшу кількість підтверджених випадків у світі - 330 тис. станом на 5 квітня, повідомляє Університет Джона Гопкінса.
+Хоча кількість загиблих поки що (9 633) залишається нижчою, ніж у Італії чи Іспанії, пан Трамп заявив, що кількість смертей в Америці може сягнути 250 тис.
+"Це як легенький грип"
+Getty Images
+Це просто як легенький грип.
+Жаїр Болсонару
+Президент Бразилії
+Довгий перелік суперечливих заяв не завадив Жаїру Болсонару стати президентом найбільшої країни Латинської Америки у 2018 році.
+Однак після поширення коронавірусу в країні Болсонару почав стрімко втрачати популярність. Його останнє телевізійне звернення багато бразильців, які сидять вдома на карантині, зустріли протестом - почали якомога гучніше гупати в каструлі.
+Так вони відреагували на суперечливу політику президента у боротьбі з пандемією.
+Болсонару не лише применшував ризики коронавірусу в своїх промовах, але й неодноразово порушував рекомендації щодо соціальної дистанції, активно спілкуючись із симпатиками. Він також виступає проти карантину, який запроваджують губернатори штатів.
+Станом на 5 квітня у Бразилії зареєстрували понад 11 000 випадків Covid-19 та відзначають стрімке поширення інфекції: кількість випадків у країні збільшилася вдвічі лише за чотири дні, згідно з даними міністерства охорони здоров'я.
+"Замість того, щоб створювати проблеми, я вас поховаю"
+Getty Images
+Зрозуміло? Вбивайте. Замість того, щоб створювати проблеми, я вас поховаю.
+Родріго Дутерте
+Президент Філіппін
+Президент Філіппін Родріго Дутерте аж ніяк не применшив загрозу коронавірусу для країни.
+Там запровадили суворий карантин та комендантську годину. Однак люди вийшли на вуличний протест через брак їжі.
+Як відповів Дутерте? Дозволив поліції стріляти у протестувальників.
+"Не залякуйте уряд. Не кидайте уряду виклик. Ви програєте", - сказав він на 2 квітня.
+Станом на 5 квітня у Філіппінах підтвердили понад 3 200 випадків коронавірусу та 150 смертей.
+"Тут немає ніяких вірусів. Чи ви бачите, як вони тут літають?"
+Getty Images
+Тут немає ніяких вірусів. Чи ви бачите, як вони тут літають?
+Олександр Лукашенко
+Президент Білорусі
+Президент Білорусі Олександр Лукашенко багатьох здивував своїм ставленням до спалаху коронавірусу.
+Він відмахнувся від пропозиції, що країна має спробувати зупинити поширення коронавірусу, заявивши, що він не бачить, щоб "вірус літав довкола".
+У розмові з телерепортером під час хокейного матчу він також заявив, що натовпу на матчі нічого не загрожує, бо холод на стадіоні перешкоджає поширенню вірусу.
+Він також називав побоювання вірусу психозом.
+Пан Лукашенко також радив боротися з коронавірусом за допомогою сауни та горілки, але пізніше сказав, що це був жарт.
+Наразі у 10-мільйонній Білорусі, яку називали "останньою диктатурою в Європі", підтвердили 440 випадків коронавірусу і п'ять смертей.
+"Якщо маєте можливість, продовжуйте ходити з сім'єю до ресторанів"
+Getty Images
+Якщо маєте можливість, продовжуйте ходити з сім'єю до ресторанів... бо це зміцнює економіку.
+Андрес Мануель Лопес Обрадор
+Президент Мексики
+Президент Мексики Андрес Мануель Лопес Обрадор постійно суперечив офіційним порадам медиків щодо поширення Covid-19.
+Він применшував небезпеку вірусу, їздив країною та відвідував громадські зібрання, де цілував немовлят та близько спілкувався з прихильниками.
+Наразі у Мексиці ще немає такого спалаху, як у сусідніх США - близько 2 143 випадків та 94 смерті - але експерти з Панамериканської організації охорони здоров'я (Paho) побоюються, що кількість серйозних випадків у країні може сягнути 700 тис.
+30 березня Мексика оголосила надзвичайну ситуацію, але жорсткого карантину там немає - наприклад, досі дозволені зібрання до 50 осіб.
+"Коронавірус - це Божа кара для країн, які ввели проти нас санкції"
+Zimbabwe Government Portal
+Коронавірус - це Божа кара для країн, які ввели проти нас санкції.
+Оппа Мучингурі
+Міністерка оборони Зімбабве
+Президент Зімбабве Еммерсон Мнангагва не робив суперечливих заяв щодо коронавірусу, але був змушений коментувати заяви міністерки оборони Оппи Мучингурі. Вона заявила, що пандемія - це Божа кара західним країнам, які запровадили санкції проти африканської нації.
+"Пандемії такого роду мають наукове пояснення і не знають меж, як і у випадку будь-якого іншого природного явища, у них нікого не можна звинувачувати", - заявив пан Мнангагва 18 березня.
+Станом на 3 квітня у Зімбабве було лише дев'ять підтверджених випадків, але є побоювання, що їхнє зростання призведе до катастрофи у країні, що потерпає від бідності та має погано обладнані лікарні.
+"Трамп винен у поширенні хвороби, бо більшість тих, хто від неї потерпає, проти Америки"
+Getty Images
+Трамп... ти і такі, як ти, винні у поширенні хвороби, бо більшість тих, хто від неї потерпає, проти Америки.
+Муктада аль-Садр
+Лідер шиїтів Іраку
+Впливовий іракський шиїтський священник Муктада аль-Садр не лише звинуватив президента США Дональда Трампа у поширенні коронавірусу серед противників Америки.
+Останніми тижнями аль-Садр нехтував заходам, які іракська влада вживає для стримування вірусу, і продовжував проводити масові молитви.
+Він також звинуватив у поширенні Covid-19 легалізацію одностатевих шлюбів у всьому світі, попри те, що Китай та Італія, які найбільше постраждали від пандемії, їх досі не узаконили.
+"Одна з найбільш фатальних речей, яка спричинила поширення цієї пандемії, - це легалізація одностатевих шлюбів. Я закликаю усі уряди негайно і без зволікань скасувати цей закон", - написав він у Twitter.
+Станом на 2 квітня міністерство охорони здоров'я Іраку підтвердило 772 випадки та 54 смерті від коронавірусу, але Всесвітня організація охорони здоров'я передбачає, що ці цифри зростуть, коли у країні почнуть тестувати більше людей.
+"Ми не оприлюднюємо певну інформацію, бо не хочемо поширювати паніку"
+Getty Images
+Ми не оприлюднюємо певну інформацію, бо не хочемо поширювати паніку.
+Джоко Відодо
+Президент Індонезії
+Президент Індонезії Джоко Відодо визнав, що навмисно приховував інформацію про випадки захворювання на Covid-19 у країні, щоб люди не починали у паніці скуповувати товари.
+У цій азійській державі не зафіксували жодного випадку коронавірусу до 2 березня, але їх кількість зараз перевищила 2 200, а загинуло понад 190 людей. 31 березня Відодо оголосив національну надзвичайну ситуацію.
+За оцінками вчених із Лондонської школи гігієни, реальна кількість випадків може перевищувати 34 тис.
+На початку цього місяця голова національного управління з ліквідації наслідків катастроф Доні Моргадо на семінарі заявив, що трав'яні напої виробляють у індонезійців імунітет проти Covid-19.
+"Я був у лікарні, де, думаю, були хворі на коронавірус, і тиснув усім руки"
+Getty Images
+Я був у лікарні, де, думаю, були хворі на коронавірус, і тиснув усім руки.
+Борис Джонсон
+Прем'єр-міністр Британії
+Британський прем'єр-міністр Борис Джонсон заявив журналістам на пресконференції 3 березня, що він не боїться тиснути людям руку під час епідемії коронавірусу у Британії. Він аргументував це тим, що головне - мити руки.
+Пізніше з'ясувалося, що пан Джонсон тиснув руку лише медичному персоналу, а не пацієнтам, але його коментарі все ж викликали багато критики.
+У прем'єр-міністра підтвердили коронавірус 27 березня.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>7/04/2020</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Діана Куришко</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>Як перевіритися на коронавірус</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Image caption
+До хворих з підозрою на COVID-19 мають виїжджати спеціально обладнані швидкі
+Кого тестують, а кого - ні? Скількох людей вже протестували? Куди скаржитись, якщо вам відмовили у тестах? Розповідає ВВС News Україна.
+З поширенням коронавірусу в Україні змінюються і правила, як людей перевіряють на цю хворобу.
+Карантин в Україні: чи суперечать нові заборони Конституції
+Як коронавірус шириться планетою. Мапа
+Якщо раніше тестували лише осіб з симптомами, які повернулись нещодавно з-за кордону або мали контакт з такими людьми, то зараз тестують ширше коло.
+Дзвонити лікарю
+У МОЗ закликають при появі симптомів респіраторних захворювань, які схожі на коронавірус, телефонувати своєму сімейному лікарю. При цьому треба залишатися вдома.
+Найбільш поширеними симптомами COVID-19 є підвищена температура, сухий кашель, біль у м'язах.
+Сімейний лікар має провести консультацію і вирішити, що робити далі. Він може сам виїхати до хворого або направити до пацієнта мобільну бригаду екстреної медичної допомоги.
+Ця бригада має взяти у пацієнта зразки на аналіз.
+Таких бригад в Україні - понад 500, виїжджають вони лише на виклик сімейного лікаря, розповів Віктор Ляшко, заступник міністра охорони здоров'я.
+Якщо сімейного лікаря у вас немає, треба телефонувати 103. Там вас мають проконсультувати.
+Але екстрена допомога не виїжджатиме на кожен випадок, якщо "немає критеріїв" для госпіталізації, заявив пан Ляшко.
+Критерії
+Також тестувати мають усіх контактних осіб.
+У МОЗ опублікували критерії, за якими людина може вважатися контактною і має пройти тест на коронавірус:
+людина проживає в одному домі з хворим на COVID-19
+людина мала прямий фізичний контакт з хворим на COVID-19 (наприклад, через рукостискання)
+людина мала контакт зі слизовими виділеннями з дихальних шляхів хворого на COVID-19 (наприклад, перебувала в зоні пацієнта під час кашлю чи доторкнулась руками до використаних серветок)
+людина контактувала із хворим на COVID-19 на відстані до одного метру протягом 15 хвилин і більше
+людина перебувала у закритому приміщені із хворим на COVID-19 протягом 15 хвилин і більше на відстані менше одного метру
+медпрацівник або інша особа, яка надає медичну допомогу або проводить догляд за хворим на COVID-19
+працівники лабораторій, які обробляють зразки з дихальних шляхів від хворих на COVID-19
+контакт в літаку з хворим на COVID-19
+члени екіпажу, які проводили обслуговування в салоні літака, де був хворий
+Якщо відмовляють у тестах?
+Користувачі соцмереж часто скаржаться, що лікарі відмовляють у тестах на коронавірус, або що результатів треба чекати кілька днів.
+Відомо, що експрестест робиться 10-15 хвилин, але він не є точним.
+Точними вважаються тести методом ПЛР. Їх роблять 5-7 годин.
+У МОЗ кажуть, що у випадку, якщо у вас є симптоми і вам відмовили проводити тест на коронавірус, потрібно звертатися на гарячу лінію області та на лінію МОЗ 0 800 505 201. Проте у відомстві закликають не зловживати цим.
+"Сьогодні ми можемо тестувати усі випадки з підозрами, а також маємо тестувати усі пневмонії, які є у наших стаціонарах. Брати на аналізи мають зразки всіх померлих з пневмонією", - зазначив пан Ляшко.
+Image caption
+Телефони гарячої лінії областей
+У МОЗ кажуть, що важливо попередити дві найбільші критичні ситуації з коронавірусом: не займатися самолікуванням, коли до лікаря звертаються вже запізно; і попередити надмірну госпіталізацію хворих, бо тоді не витримає система.
+"Наше з вами завдання - не допустити паралічу системи охорони здоров'я. Дотримуйтесь вимог карантинних заходів", - заявив заступник міністра охорони здоров'я.
+Скількох перевірили?
+Станом на 7 квітня в Україні протестували методом ПЛР понад 15 000 людей. Про це BBC News Україна розповіли у Центрі громадського здоров'я.
+Проте у МОЗ зазначають, що лабораторії здатні проводити набагато більше тестів - до 30 тисяч методом ПЛР на тиждень, заявив пан Ляшко. Але чомусь проводять значно менше - до 1 500 зразків на день.
+"Вірусологічні лабораторії сьогодні не завантажені на 100%. Ми переглядаємо алгоритми доставки зразків. Передивляємось, де може бути збій", - говорить пан Ляшко про причини малої кількості тестів.
+Image caption
+Кілька партій тестів до України доставили з Китаю
+Нещодавно до України з Китаю привезли кілька партій експрестестів і тестів методом ПЛР. В Офісі президента раніше говорили про сотні тисяч тестів.
+Де роблять тести?
+Експрестест роблять 10-15 хвилин. Для цього беруть мазок з носа або кров. Цей тест може зробити будь-який лікар у будь-яких умовах, навіть вдома.
+Лабораторна перевірка - це коли тести роблять лише у вірусологічних лабораторіях зі спеціальним обладнанням методом ПЛР (полімеразна ланцюгова реакція). Такі лабораторії є лише у спеціально обладнаних лікарнях в обласних центрах України.
+Приватні лабораторії та клініки, які мають відповідну ліцензію та потужності, можуть проводити ПЛР-тестування на COVID-19, розповіли у МОЗ.
+Вони мають звітувати про кожен випадок коронавірусної хвороби й інформувати про це регіональні заклади громадського здоров'я.
+Вакцини не існує
+Вакцину від коронавірусу ще не винайшли, як і спеціального противірусного лікування, вчені над цим лише працюють.
+Але більшість пацієнтів одужують у лікарнях. Інфікованих людей лікують, полегшуючи їхні симптоми.
+ВООЗ оприлюднила рекомендації, як зменшити ризик інфікування: регулярно і ретельно мити руки, не торкатися обличчя, не вживати в їжу погано оброблене м'ясо, молоко і яйця. Також утримуватися від поїздок у регіони, де є спалах вірусу, уникати контактів з хворими людьми, триматися на відстані понад метр з будь-якою людиною, яка чхає чи кашляє".
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>7/04/2020</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr"/>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>Чому білоруси пишуть про себе некрологи в стилі Лукашенка?</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+EPA
+Білоруси масово пишуть некрологи про себе від імені президента в соцмережах. Що відбувається?
+Усе почалося після того, як президент Білорусі Олександр Лукашенко прокоментував перші смерті людей у країні від коронавірусу.
+Білоруси почали уявляти, що сказав би про них президент, якби й вони самі стали жертвою хвороби.
+"Від психозу будуть інші хвороби". Як Лукашенко підкорив коронавірус в Білорусі
+Коронавірус допоміг: як Білорусь стала найфутбольнішою країною Європи
+Станом на 6 квітня у Білорусі зареєстровано 700 підтверджених випадків Covid-19, 13 людей померли.
+Що сказав Лукашенко?
+У суботу, 4 квітня, Лукашенко розповів про те, як обговорював смерть одного пацієнта з коронавірусом з головою Вітебського обласного виконкому Миколою Шерстньовим.
+"Я питаю: чому той помер? Він каже: "Олександре Григоровичу, а як можна жити? 135 кілограмів ваги!" Серце майже не працює, це болить, те болить, цілий букет хвороб. Вірус атакує слабких, які не мають імунітету", - сказав президент журналістам.
+Раніше президент прокоментував смерть 75-річного актора з Вітебська Віктора Дашкевича, який, за офіційними даними, першим помер у Білорусі від коронавірусу.
+"Бідолаха, не витримав, - висловився Лукашенко. - Але ми ж просили… Ну йому завтра 80 років буде! Чого ж ти ходиш по цій вулиці, а тим паче працюєш?"
+Як відреагували білоруси?
+Користувачі соцмереж розкритикували президента за те, що він звинувачує людей у тому, що вони померли від коронавірусу, який поширився у всьому світі.
+Багато з них почали постити некрологи про самих себе, написаних нібито від імені Лукашенка, у характерній для нього манері, під хештегом #прашчальнаесловапрэзидзента (прощальні слова президента).
+Відповіді на головні питання про коронавірус
+Як безпечно купувати продукти та замовляти їжу з доставкою
+Коронавірус: що він робить з організмом
+Чи захищають медичні маски від вірусу?
+Користувачка Вікторія Онохова-Журавльова, яка почала флешмоб, пояснила в коментарях, що "дуже незадоволена цинічною позицією керівника держави".
+"Моє громадянське право - висловити обурення, щоб президент не забував, що все ж таки він представляє інтереси громадян і повинен ставитися до них з повагою. Особливо до померлих", - написала вона на своїй сторінці у Facebook.
+"Це реакція на те, з яким шеймінгом померлих (старість, вага і т.д.) вже встиг висловитися керівник країни", - пояснив поет Олесь Плотка.
+На його думку, якби він помер, Лукашенко сказав би: "Його батьки намагалися до землі привчити, але він же все по сходках цих, по семінарах американських. Ну і ось. Не вберегли".
+Пропустити Facebook допис , автор: Ales
+По хэштегу #прашчальнаесловапрэзидзента беларусы пишут себе некрологи. Это реакция на то, с каким шеймингом умерших...
+Posted by Ales Plotka on Saturday, 4 April 2020
+Кінець Facebook допису , автор: Ales
+"Ні, ну а що вона хотіла! Жила невідомо де, невідомо з ким, швендялася весь час десь, пила ці, які їх… антидепресанти. Психічно ненормальна була, бідолаха. І взагалі, феміністка була, чоловіків ненавиділа. Ні, щоб кізочок завести і радіти! Ні, вона все котів якихось до себе брала, - уявила собі промову президента про своє життя користувачка Наста Захаревич. - А інсулін який у неї був! Куди з таким жити? Відмучилася, неборака".
+Пропустити Facebook допис , автор: Nasta
+Не, ну а што ана хацела! Жыла ніпанятна дзе ніпанятна з кем, швэндалася ўсё недзе, піла эці, як іх... антыдэпрэсанты....
+Posted by Nasta Zakharevich on Saturday, 4 April 2020
+Кінець Facebook допису , автор: Nasta
+"Жертва західної пропаганди"
+До флешмобу долучилося чимало білорусів.
+"Мені все це, що він писав, не дуже подобалося. Якось уривчасто, - уявив слова Лукашенка письменник Андрій Горват. - Але я ж не забороняв. Я його ще на початку березня попередив: "Ну не сиди ти вдома! Що ти сидиш один бозна де! Ти ж там виснажився. А в тебе виразковий рубець, він може відкритися будь-якої хвилини. Вірус все це відчуває".
+Пропустити Facebook допис , автор: Андрэй
+"Мне эта ўсё, што ён пісаў, не очэнь нравілась. Как-та абрывачна. Сначала я слядзіў, патом запутаўся, што к чэму. Но я ж...
+Posted by Андрэй Горват on Saturday, 4 April 2020
+Кінець Facebook допису , автор: Андрэй
+"Перекладачка. Молода. Але надто активною була. Всі сили пускала, як кажуть, на "боротьбу з режимом". Ну ти зрозумій, що якщо весь час "боротися", то сил в організму ні на що інше потім не залишиться. Тут будь-яка медицина буде безсилою", - написала про себе Кристіна Шиєнок.
+Пропустити Facebook допис , автор: Kryścina
+#прашчальнаесловапрэзидзента Перэводчыца. Маладая. Но слішкам акціўная была. Все сілы пускала, как гаварыцца, на...
+Posted by Kryścina Šyjanok on Saturday, 4 April 2020
+Кінець Facebook допису , автор: Kryścina
+"Це був зрадник, який продався за плитку швейцарського шоколаду. Ще там привіти від чистих альпійських корів передавав. Ну дурник справжній, жертва західної пропаганди! - зазначив про себе Олесь Вашкевич з Білоруської спілки у Швейцарії. - Він демонстративно не любив хокей і дивився цей нещасний футбол. Добре б наш, вітчизняний, а то йому лише англійців подавай!"
+Пропустити Facebook допис , автор: Aleś
+#прашчальнаесловапрэзидзента Гавару вам прама: я яго лічна не знаў, но мне ўсё далажылі. Гэта быў прэдацель, каторы...
+Posted by Aleś Vashkevich on Saturday, 4 April 2020
+Кінець Facebook допису , автор: Aleś
+"Так а що вона хотіла? Сиділа в цьому затхлому селі, 25 соток, ані трактора нормального, ані в перерахунку на чистий спирт, знову ж таки, не вживала. Дітей у неї скільки? Двоє! А треба було трьох. Це все від нудьги, нудьга виснажує. Де сили в організму з цією пневмонією боротися?" - написала про себе, уявляючи слова Лукашенка, користувачка Анна Шамко.
+Права на зображення Anna
+ANNA
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>7/04/2020</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr"/>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>Борис Джонсон у реанімації з коронавірусом: 7 квітня стан стабільний</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+REUTERS
+Прем'єр-міністр Великої Британії Борис Джонсон після госпіталізації з коронавірусом опинився у реанімації.
+Це сталось 6 квітня після того, як симптоми хвороби погіршились, повідомили на Даунінг-стріт.
+Після проведеної ночі у реанімації стан Джонсона стабільний й він перебуває у доброму настрої.
+Йому надають стандартну "кисневу" допомогу й він дихає без зовнішньої допомоги.
+Необхідності механічної вентиляції легенів або неінвазивної респіраторної підтримки немає.
+Карантин в Україні: чи суперечать нові заборони Конституції
+У Британії підпалюють вежі мобільного зв’язку. До чого тут коронавірус
+Яка країна "захворіє" на коронавірус останньою?
+Раніше повідомляли, що 55-літнього Бориса Джонсона госпіталізували 5 квітня для "планового тестування" на коронавірус.
+Попри те, що коронавірус у Джонсона виявили понад тиждень тому, у нього зберігались "стійкі симптоми" хвороби, зокрема, підвищена температура та кашель.
+Пропустити Youtube допис , автор: BBC News Україна
+Увага: інші сайти можуть містити рекламу
+Кінець Youtube допису , автор: BBC News Україна
+У Британії загальна кількість смертей від коронавірусу досягла 5373 - збільшилась до 439 за одну добу.
+У заяві Даунінг-стріт 6 квітня йшлось про те, що Борис Джонсон вдячний лікарям за їхню "неймовірно важку працю" і закликає громадян дотримуватися порад уряду й залишатися вдома.
+Джонсона поклали в лікарню Святого Томаса, розташовану всього за кілька хвилин пішки від резиденції прем'єра на Даунінг-стріт, 10.
+У заяві пресслужби уряду йдеться, що у другій половині дня стан Джонсона погіршився, й за порадою лікарів його перемістили до відділення інтенсивної терапії.
+Борис Джонсон попросив керівника МЗС Домініка Рааба підмінити його, "де буде потрібно".
+Копирайт изображения
+REUTERS
+Image caption
+На початку березня стало відомо, що Джонсон матиме вже п'яту дитину
+Борис Джонсон став прем'єр-міністром Британії у липні 2019 року.
+Він замінив на посаді очільника уряду Терезу Мей.
+Нащадок королів та друг України. Хто він, новий прем'єр Британії?
+У Бориса Джонсона народиться п'ята дитина
+Як брекзит роз'єднав родину Джонсонів
+Джонсон є випускником Оксфордського університету.
+В останнє десятиліття Борис Джонсон був одним з провідних політиків Консервативної партії. З 2008 по 2016 роки він був мером Лондона, а у 2016-2018 роках займав посаду міністра закордонних справ Британії в уряді Терези Мей.
+Під час референдуму за "брекзит" у 2016 році він був "обличчям" кампанії за вихід Британії з ЄС.
+На посаді Британії йому вдалось досягти угоди про вихід з ЄС.
+В ніч на 1 лютого 2020 року Велика Британія залишила Європейський Союз.
+Наразі Британія вийшла з ЄС формально. Згідно з умовами брекзиту, до кінця 2020 року у відносинах Лондона та Брюсселя триватиме перехідний період, упродовж якого сторони переважно збережуть нинішні правила співпраці й намагатимуться випрацювати нові.
+Довгий шлях до посади
+Борис Джонсон - випускник Ітона, найвідомішої і престижної школи, напевно, не тільки в Британії, але й у всьому світі. У цій школі для хлопчиків навчалися 19 з 54 прем'єр-міністрів в британській історії, зокрема прем'єр Британії у 2010-2016 роках Девід Кемерон. Джонсон стане "ювілейним", двадцятим випускником Ітона на чолі уряду Британії.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+У 2008 році 53% лондонців обрали Джонсона мером британської столиці
+Він став відомий у всьому світі ще 11 років тому, коли виграв вибори мера Лондона.
+До того пан Джонсон багато років був журналістом Daily Telegraph, зокрема кореспондентом видання у Брюсселі, був також редактором The Spectator.
+У віці 36 років у 2001 році Борис Джонсон розпочав політичну кар'єру і був обраний депутатом Палати громад від консерваторів.
+У 2008 році понад 53% лондонців обрали Джонсона мером міста. На цій посаді одним з головних його завдань стало проведення у британській столиці Олімпійських ігор і він впорався з ним успішно.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Борис Джонсон і тодішній прем'єр Британії Девід Кемерон (другий зліва) вітають британських олімпійців та паралімпійців у Лондоні у вересні 2012 року
+У 2016 році Джонсон був одним з палких прихильників виходу Британії з ЄС. На референдумі у червні 2016 році прихильники "брекзит" перемогли, а премєр Девід Кемерон, що підтримував позицію залишитися в ЄС, пішов у відставку.
+Втім, після цього Борис Джонсон не став виставляти свою кандидатуру на посаду очільника уряду і став очільником МЗС в уряді Терези Мей.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Борис Джонсон полюбляє їздити на велосипеді, а під час перебування на посаді мера Лондона займався облаштуванням велодоріг у місті
+Через розбіжності з прем'єркою щодо "брекзиту" він пішов у відставку у липні 2018 року і неодноразово критикував пані Мей.
+Королівське походження
+Як повідомляє кореспондент ВВС Юрі Вендік, після перемоги Джонсона на виборах мера Лондона у 2008 році журналісти з'ясували, що прабабуся Бориса Джонсона по батьківській лінії, фрейліна Марі-Луїза де Пфеффель була правнучкою короля Вюртемберга Фрідріха I. А той був нащадком в третьому поколінні короля Великої Британії Георга II, який правив у XVIII-му столітті і був другим королем у правлячій донині династії.
+Це, до речі, означає, що Джонсон - родич відразу декількох європейських монарших династій, зокрема Романових.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Одним з пращурів Бориса Джонсона є Георг II, король Британії у 1727-1760 роках
+Але хизуватися шляхетним походженням в британській політиці зараз не модно.
+"Я от вважав себе нащадком недавніх переселенців до Британії, тому це дуже дивне, сюрреалістичне почуття, коли тобі кажуть, що твій пращур в десятому коліні - Георг II, - сказав тоді, у 2008 році, Борис Джонсон, який є ще й правнуком видатного діяча Османської імперії Алі Кемаля. - Але не треба забувати, що таких же як я зараз, напевно, кілька тисяч людей".
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>7/04/2020</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr"/>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>Світ на порозі "нестерпних" економічних наслідків. Огляд ЗМІ</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+У вівторок, 7 квітня, іноземна преса пише про таке:
+Якими можуть бути економічні наслідки пандемії
+Що з Борисом Джонсоном
+Чи корисний фітнес під час карантину
+Нова благодійна ініціатива Гаррі та Меган
+Світ на порозі "нестерпних" економічних наслідків
+У влади країн не так багато часу, щоб вжити всіх можливих заходів для стримання зростання кількості інфікованих коронавірусом, перш ніж економічні наслідки пандемії та соціальна напруга стануть нестерпними, пише Financial Times у своїй редакційній статті.
+"Що більш щедрою та ефективною буде запропонована ними підтримка, тим більше часу вони матимуть", - пише видання і закликає уряди країн використати цей час "мудро та ефективно".
+"Карантин - необхідний захід, але він має бути тимчасовим", - пише Financial Times.
+Згідно з даними Організації економічного співробітництва та розвитку, кожний додатковий місяць соціальної ізоляції знизить зростання економіки на два відсоткових пункти цього року.
+"Це стане найбільшим скороченням в історії, хіба що призупинення (економічної - Ред.) активності буде нетривалим", - йдеться у статті.
+Коронавірус і ВВП: хто кого?
+Коронавірусна економіка у 5 графіках
+Та ідея полягає не в тому, щоб відмовитися від обмежувальних заходів, а щоб вони були максимально ефективними у короткий проміжок часу.
+"Жорсткі обмеження не можуть тривати довго без вкрай серйозної шкоди. Тягар цієї шкоди потрібно полегшити, де це можливо зробити, переконавшись в тому, що у всіх є належний рівень доходу і життєздатний бізнес може вижити", - підсумовує Financial Times.
+Глобальна рецесія, яку переживає світова економіка через пандемію, за своїми масштабами може позмагатися з Великою депресією 1930-х років у США, пише старший економічний радник інвестиційного банку HSBC Стівен Кінг у статті The Evening Standard.
+Понад 9 мільйонів американців втратили роботу протягом останніх двох тижнів, економічна активність у Європі впала до найнижчого рівня, Сінгапурські авіалінії скорочують свою діяльність на 96%, а бізнеси у всьому світі намагаються вижити.
+Попри те, що Китай показує перші промені надії на подолання вірусу, нам ще належить дізнатися яка глибина цієї кризи і як ми можемо з неї вийти, пише він.
+Що з Борисом Джонсоном
+Копирайт изображения
+GETTY IMAGES
+Направлення прем'єр-міністра Великої Британії Бориса Джонсона до реанімації свідчить про те, що у нього може бути важка форма Covid-19, пише Guardian.
+"Постачання кисню через маску було у доступі і в палаті, до якої він потрапив в неділю, але направлення до реанімації в понеділок свідчить про те, що цього виявилось замало, щоб допомогти йому з проблемами дихання, що були спричинені пневмонією", - пише видання.
+Згідно з даними ВООЗ, більшість пацієнтів реанімаційних відділень потребують штучної вентиляції легень. Біля 15% з них перебувають у важкому стані, йдеться у статті.
+Борис Джонсон опинився у реанімації з коронавірусом
+Джонсон потрапив до реанімації за 10 днів після того, як у нього виявили коронавірус. Тепер існує реальна загроза, пише видання, бо імунній системі більшості хворих вдається подолати вірус протягом першого тижня хвороби.
+Guardian цитує професора Університетського коледжу Лондона Дерека Гілла, який каже, що схоже, що британський прем'єр під'єднаний до апарату вентиляції легень, що не потребує інвазивного втручання, як у випадку з апаратами ШВЛ, які розповсюджені у лікування важких хворих на Covid-19.
+Фітнес під час карантину
+Копирайт изображения
+UNSPLASH
+Фізичні навантаження під час карантину допомагають зміцнити імунітет і, як наслідок, підвищують шанси подолати коронавірус, але і в них потрібно знати міру, пише The Sun.
+"Регулярні помірні фізичні навантаження можуть мати позитивний ефект, знижуючи чутливість організму до інфекції. Але з іншого боку, забагато вправ можуть дати протилежний ефект і зробити нас більш уразливими", - пише видання.
+Результати дослідження, що було опубліковане у Британському журналі спортивної медицини, показали, що люди, які займаються спортом п'ять чи більше разів на тиждень, проводять на лікарняному через респіраторні захворювання на 46% днів менше ніж ті, хто тренується тільки раз на тиждень або жодного разу.
+"Я стала одержимою". Коли спорт стає залежністю
+Новини, серіали, спорт чи секс: чим займаються українці на карантині
+Та попри це експерти кажуть, що у певний момент "здоровий" рівень фізичної активності переходить у фазу "забагато" і може нашкодити здоров'ю.
+Річ у тім, що надмірні фізичні навантаження, так само як і тренування за поганого самопочуття, провокують викид у кров гормону кортизолу, який послаблює імунітет, як і будь-який стрес, пише The Sun.
+Тож, для підтримки імунітету, у вправах радять дотримуватися балансу.
+Нова благодійна ініціатива Гаррі та Меган
+Копирайт изображения
+GETTY IMAGES
+Меган та Гаррі оголосили про створення нової благодійної ініціативи, що має наслідувати ту, якою подружжя займалося під брендом Сассекс Роял, повідомляє Guardian.
+Фонд назвуть "Арчвелл" - на честь свого сина Арчі.
+"Арчвелл" - назва, що поєднує давнє слово грецького походження, яке символізує силу та дію, цитує видання подружжя.
+Гаррі та Меган у Лондоні: останні заходи перед припиненням обов'язків
+За словами пари, у планах запуск сайту, на якому можна буде знайти освітні та навчальні матеріали у вигляді фільмів, подкастів та книжок.
+Через пандемію коронавірусу запуск фонду довелося відкласти. Інші деталі пара не розголошувала.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="inlineStr"/>
+      <c r="C343" t="inlineStr"/>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>Нові міфи про коронавірус: лимони, комарі та донори крові</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Якщо ви хочете зробити безкоштовний тест на Covid-19 і готові заради цього стати донором крові, то це погана ідея. Хоча б тому, що в банках крові донорів не перевіряють на коронавірус.
+Комарі можуть переносити страшні хвороби, але доказів їхньої причетності до пандемії Covid-19 немає.
+Лимони багаті на вітамін С. Але він не захистить вас від зараження.
+Права на зображення BBC News Україна
+BBC NEWS УКРАЇНА
+Сам собі перукар. Як чоловіки стрижуться на карантині
+Карантин в Україні: що ще заборонив уряд
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>7/04/2020</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr"/>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>Скільки Україна заплатить за пандемію коронавірусу</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+За останні тижні урядовці вже кілька разів оновлювали прогноз щодо того, як скоротиться економіка.
+Спочатку в міністерстві економіки говорили про падіння ВВП на 3,9%. Проте в останньому прогнозі уряд збільшив цей показник до 4,8%.
+Незалежні експерти та інвестори дають більш песимістичні оцінки. Наприклад, Інститут економічних досліджень і політичних консультацій підрахував, що цього року українська економіка може скоротитися на 5,9%.
+Карантин вб'є бізнес і економіку. Чи справді це так?
+Коронавірусна економіка у 5 графіках
+Чи обвалить коронавірус світову економіку й погіршить життя українців?
+З іншого боку, наразі оцінки збитків від поширення коронавірусу є меншими, ніж втрати української економіки від попередніх криз.
+Наприклад, світова фінансова криза 2008 року "коштувала" Україні 15% падіння ВВП у 2009 році.
+Анексія Криму і початок конфлікту на Донбасі дали падіння ВВП на 6,8% в 2014 році. А у 2015 українська економіка скоротилася ще на 9,8%.
+Переведемо відсотки у гривні
+За останніми прогнозами уряду, у 2020 році номінальний ВВП (всі товари і послуги, вироблені в державі, у поточних цінах) буде приблизно дорівнювати торішньому- трохи менше 4 трлн грн. Але курс гривні та рівень інфляції будуть, безперечно, зовсім іншими.
+Бюджет 2020: п'ять цифр, які вас здивують
+Навіть за урядовим прогнозом інфляція знову стане двозначною, і перевищить 11%. А курс може не залишитися в рамках прописаного в бюджеті рівня у 27 грн за долар. І вже навряд буде на рівні 24 грн за долар, як у 2019.
+Проте коли восени минулого року уряд та парламент працювали над бюджетом на 2020 рік, офіційні прогнози номінального ВВП перевищували 4,5 трлн грн.
+Саме така цифра фігурувала у документах, поданих разом із проєктом бюджету. Якщо це порівняти із нинішніми прогнозами, виходить, що український ВВП буде на майже 600 млрд грн менше, ніж очікували при ухваленні бюджету на поточний рік.
+UNIAN
+Як коронавірус вплине на економіку
+У 2020 ВВП України мав зрости на+3,7%
+За новим прогнозом ВВП впаде на-4,8%
+Source: Кабінет міністрів України
+Що це означає у порівнянні із конкретними видатками?
+Наприклад, додаткові пенсійні виплати, які ще минулого місяця анонсував президент Зеленський, обійдуться бюджету у понад 10 млрд грн.
+Економіка України падає. Наскільки в цьому винен коронавірус?
+Карантин в Україні: що буде з соцвиплатами і пенсіями
+Мораторій на перевірки та відстрочка РРО. Які зміни для бізнесу під час коронавірусу
+Крім того, за змінами до бюджету, що їх пропонує уряд, фінансування Пенсійного фонду має зрости на 19 млрд грн. Загалом бюджет Пенсійного фонду має становити 192 млрд грн.
+Ще майже 100 млрд грн уряд хоче виділити у стабілізаційний фонд чи фонд боротьби з коронавірусом.
+Виходить, що лише виплати пенсіонерам - вже заплановані і нові, та витрати на боротьбу з коронавірусом "потягнуть" на половину від тих втрат, що їх зазнає українська економіка від поширення коронавірусу та карантину.
+Переведемо долари у відсотки
+Наприкінці березня президент Зеленський заявив, що Київ сподівається розширити співпрацю з МВФ і отримати до 8 млрд доларів (замість 5,5 млрд доларів, про які домовлявся ще уряд Гончарука).
+Разом із кредитами від Світового банку та ЄС, які будуть розблоковані у разі домовленості з МВФ, доступна для України сума може скласти до 10 млрд доларів.
+Водночас, як повідомив прем'єр-міністр Денис Шмигаль, цього року Україні треба повернути 3,5 млрд доларів зовнішніх боргів і 5,5 млрд внутрішніх. Так що максимальна сума можливої допомоги покриває до 90% обов'язкових виплат. Інакше за борги доведеться розплачуватися із валютних резервів, які нині становлять близько 25 млрд доларів.
+Копирайт изображения
+UNIAN
+Чи справді "соросята ухандохали економіку"
+"Обличчям по землі": 5 цитат Зеленського про економіку
+Додатково, щоб покрити дефіцит бюджету, Київ сподівається отримати від МВФ до 5 млрд доларів з коштів, призначених на боротьбу з пандемією коронавірусу. Про це заявив міністр фінансів Сергій Марченко.
+Це близько 3% від ВВП країни у минулому році, - тобто, приблизно на рівні, який витрачають на підтримку економіки у боротьбі з коронавірусом розвинені економіки.
+Загалом на подолання наслідків поширення коронавірусу МВФ разом зі Світовим банком готові надати світовій економіці до 1 трлн доларів. Голова фонду Крісталіна Георгієва назвала нинішню економічну кризу, пов'язану з поширенням COVID-19, "ні на що не схожою" і такою, що може стати найгіршою в історії людства.
+Проте, щоб Україна могла отримати свою частку з цих грошей, Верховна Рада має ухвалити підготовлені урядом зміни до бюджету, а також розглянути в другому читанні "антиколомойський" банківський законопроєкт, який унеможливлює повернення націоналізованих банків колишнім власникам.
+Після першого читання до цього проєкту надійшло понад 13 тисяч поправок. Це більше, ніж утричі перевищує кількість правок до законопроєкту про ринок землі, розгляд якого у другому читанні тривав від 6 лютого до 31 березня.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>7/04/2020</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr"/>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>Коронавірус: перша смерть у ЗСУ</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+КОМАНДУВАННЯ МЕДИЧНИХ СИЛ ЗСУ
+Командування медичних сил ЗСУ у вівторок повідомило про першу смерть від коронавірусу в армії - померла жінка, яка була працівницею Збройних сил (цивільна) військової частини на Івано-Франківщині.
+А у штабі Операції об'єднаних сил на Донбасі повідомляють, що хворих на COVID-19 на передовій немає.
+Чи суперечать нові заборони Конституції
+Коронавірус в Україні: майже 1,5 тис. хворих і 45 смертей
+"Радіоактивна пожежа" у Чорнобильській зоні: наскільки це небезпечно
+Смерть жінки
+"На 07.00 7 квітня в Збройних Силах України зареєстровано 4 випадки захворювання на гостру респіраторну хворобу COVID-19, спричинену коронавірусом SARS-CoV-2, з них 1 летальний", - йдеться у повідомленні Командування медичних сил ЗСУ.
+У коментарі BBC News Україна там пояснили, що жінка не була військовослужбовцем, а мала статус "працівниця ЗСУ" в одній з військових частин Івано-Франківської області.
+"З 20 березня перебувала на амбулаторному лікуванні з діагнозом "гостре респіраторне захворювання". 27 березня стан погіршився, була госпіталізована до лікарні міста Надвірна, 30 березня переведена до реанімаційного відділення, 06 квітня о 6:00 померла. Діагноз COVID-19 підтверджено ввечері 06 квітня", - повідомили військові медики.
+Пропустити Facebook допис , автор: Командування Медичних сил Збройних Сил України
+Епідеміологічна обстановка в Збройних Силах України На 07.00 7 квітня в Збройних Силах України зареєстровано 4 випадки...
+Posted by Командування Медичних сил Збройних Сил України on Tuesday, 7 April 2020
+Кінець Facebook допису , автор: Командування Медичних сил Збройних Сил України
+Загалом же в ЗСУ зараз через підозри щодо коронавірусу в режимі ізоляції (в тому числі самоізоляція) перебуває 87 людей.
+"Аналіз захворювань серед військових та цивільного населення свідчить про те, що найчастіше інфекція поширюється під час епізодичних зустрічей з найближчими людьми (друзями та рідними), що не входять до кола осіб, з якими ви спілкуєтеся щодня або мешкаєте разом. Не наражайте себе та свою родину на небезпеку зайвими контактами", - радять у Командуванні медичних сил.
+Водночас у штабі Операції Об'єднаних сил кажуть, що серед військових на Донбасі випадків захворювання на COVID-19 не зафіксовано.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>7/04/2020</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Діана Куришко</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>Всеукраїнська школа онлайн: як це відбувається</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Катя уважно дивилась урок математики по телевізору разом з котом Айфоном. Нікіта слухав біологію разом з собакою Ідою.
+6 квітня стартувала всеукраїнська школа онлайн - дистанційне навчання для дітей, які вже майже місяць не ходять до школи.
+У перший день уроки, які транслюють по українському телебаченню та у Youtube Міносвіти, зібрали понад мільйон переглядів, кажуть організатори.
+Як вивчати складні речення на прикладах пісень Біллі Айліш, як дізнатися про драматичне життя Івана Мазепи, ніби ти там був і сам все бачив, — редакція ВВС News Україна подивилась телеуроки і запитала про враження вчителів, школярів та їхніх батьків.
+Школа без оцінок: ефективно чи ні?
+Карантин в Україні: сервіси, які можуть стати вам у пригоді
+"Цікаво і доступно"
+"Пішли на вулицю" - говорити не правильно, бо це дійсний спосіб дієслова, а треба - наказовий. "Ходімо на вулицю" - ось правильна форма.
+На уроці української мови для 10-класу вчителька Юлія Набок-Бабенко пояснювала найбільш поширені морфологічні помилки. Використовувала при цьому приклади про "тривалий карантин" і "густий шампунь", а ще дала незвичне домашнє завдання - послухати улюблені пісні і виписати звідти іменники, визначивши у кожному рід, число та відмінок.
+Копирайт изображения
+OSVITORIA/МАКСИМ ЛЮКОВ
+Українська мова - один з 11 предметів, які викладатимуть онлайн і транслюватимуть по ТБ для учнів 5-11 класів в рамках всеукраїнської школи онлайн. Юлія Набок-Бабенко - одна з 40 викладачів, які зголосилися попрацювати безкоштовно, щоб записати відеоуроки для школярів на час карантину.
+"Дуже доступно і цікаво. Якби мені треба було проводити урок, я пояснювала б так само на дотичних до життя прикладах і конструкціях", - ділиться враженнями від уроку Набок-Бабенко інша вчителька української мови - Ірина Зозюк.
+Пані Зозюк викладає українську мову у 10-му класі Сарненської гімназії, що на Рівненщині. Вона дев'ять років працює екзаменатором Львівського центру ЗНО.
+"Матеріалу дали багато, але вчителька говорила не швидко. Я так готую дітей для ЗНО. Розмусолювати там немає коли. Старшокласники мають вміти контролювати свій клас, вчитися концентруватися. Має бути темп", - зазначає Ірина Зозюк.
+Як за час такої великої перерви у навчання не втратити темп і мотивацію та як підготуватися до ЗНО - це ті проблеми, які турбують багатьох батьків і випускників.
+Копирайт изображения
+OSVITORIA/МАКСИМ ЛЮКОВ
+"Враження — дуже хороше. Сучасний рівень викладання, молодий цікавий вчитель. Такі уроки — знахідка, для більшості батьків, чиї школи самі не налаштували дистанційне навчання", - також хвалить уроки української мови Вікторія, мама 11-класника Гліба з Києва, який зараз посилено готується до ЗНО.
+У деяких українських школах дистанційне навчання організували на платформах Zoom і GoogleClassroom. Вчителі проводять уроки, спілкуються з дітьми, пояснюють матеріал. Але для багатьох дітей навчання було лише списком завдань через Viber, а за вчителів працювали батьки.
+Олена Зеленська в кадрі
+Теле і онлайн уроки тривають від 20 до 30 хвилин з 5-ти хвилинними перервами-руханками.
+Зніматимуть і показуватимуть їх доти, доки триватиме карантин.
+У школі велика частина уроку присвячена взаємодії вчителя з дітьми, а оскільки тут такої взаємодії немає, то й уроки менші, говорить Аліса Ляліна, очільниця напряму освіти і науки в Офісі президента.
+Копирайт изображения
+PRESIDENT.GOV.UA
+"Всеукраїнська школа онлайн" - це спільний проєкт Офісу президента, Міністерства освіти та громадської спілки "Освіторія", яка організовувала зйомки. Проєкт анонсував у своїх зверненнях президент Володимир Зеленський, а перша леді Олена Зеленська взяла участь у записі уроку української мови для 5-го класу.
+Зняли вже понад 140 уроків і цей процес триває далі. Правда, в Офісі президента не кажуть, хто фінансує цей проєкт. "Ми домовлялися з небайдужими донорськими організаціями, їхній список розголошувати не можна. Вчителі працюють безкоштовно", - каже Аліса Ляліна.
+"Вчителі - телезірки"
+Вчителів для "Всеукраїнської школи онлайн" обирало Міносвіти спільно з "Освіторією". Вони проходили кастинг і для багатьох з них це перший досвід зйомок.
+"Це був виклик, бо треба працювати перед камерою. Було незвично працювати з зірками. На одному з моїх уроків були актори серіалу "Школа", - розповідає Анна Кошель, вчителька англійської мови з Новопечерської школи. В рамках проєкту вона записала вже шість онлайнуроків для 9 класу.
+Копирайт изображения
+ОСВІТОРІЯ
+Image caption
+Анна Кошель викладає англійську
+Теми уроків затверджували у Міносвіти, але вчителі були вільні у тому, як подавати матеріал. Анна Кошель пояснювала тему "personalities adjectives" за допомогою картинок з котиками, а ще використовувала завдання з антонімами. Діти відгадували протилежні за значенням слова, наприклад, cheerful - sad (веселий - сумний), hardworking - lazy (працьовитий - лінивий).
+А вчитель української мови і кандидат філологічних наук Ігор Хворостяний вирішив зацікавити 9-класників правилами на прикладі пісень Біллі Айліш.
+Копирайт изображения
+FACEBOOK.COM/OLENA.PAVLOVA
+Image caption
+Ігор Хворостяний цитує на уроках Біллі Айліш
+Розбір складнопідрядних речень під час уроку пан Хворостяний зробив з текстів співачки, а проілюстрував презентацію її смішними фото. Його урок української у Yotube Міносвіти набрав понад 50 тисяч переглядів.
+Співачки Аліна Паш і Джері Хейл, спортсмени Олександр Усик і Анна Різатдінова, балерина Катерина Кухар - в онлайнуроках взяли участь багато українських зірок, які зіграли роль "телеучнів".
+"Я ставив питання, уточнював, намагався пригадати щось зі школи. Було цікаво. Інколи вчитель говорив речі, які насправді дивували, наприклад про те, що людина - це, окрім біоструктур, суцільний набір рефлексів", - поділився з ВВС News Україна своїми враженнями Тарас Тополя, лідер гурту "Антитіла". Він відвідав урок біології, де прослухав тему про мозок і рефлекси.
+Копирайт изображения
+ФОТО ПРЕССЛУЖБИ ГУРТУ "АНТИТІЛА"
+Image caption
+Тарас Тополя, лідер гурту "Антитіла", побував на уроці біології
+Замість уроку - новини
+Дітям цікавіше дивитися уроки, коли в кадрі є зірки, правда, іноді це може заважати, вважає Оксана, мама 6-класниці Каті .
+"Під час уроків було кілька моментів, пов'язаних з учнями в класі. Часом вчитель ставить запитання, а учень, який в телевізорі біля вчителя, швидко на нього відповідає чи викрикує. При цьому дитина, яка дивиться урок, не встигає подумати і розв'язати це завдання сама", - говорить вона.
+В цілому уроки їй сподобалися — вчителі цікаво доносять інформацію, дають завдання в ігровій формі. Її донька Катерина дивилася уроки для 6-го класу, не відволікаючись навіть на кота, який всіляко намагався привернути до себе увагу. "Потім кіт заспокоївся і теж дивився. Справді цікаво".
+Image caption
+Діти скаржаться, що деякі телеканали під час уроків показують новини. Наприклад, News One 6 квітня замість руханки увімкнув теленовини. Наступного дня руханку дітям все ж показали, на ній був Олександр Усик.
+Катя теж каже, що уроки їй сподобалися, правда, іноді було погано видно, що вчитель пише на дошці. А ще замість уроку фізкультури - руханки, на яку чекала дівчинка, на каналі News One чомусь показали новини.
+Скандал через канали
+Телеканали, де транслюють шкільні уроки, викликали певну критику. Так у соцмережах користувачі обурювалися, що на каналі ZIK учням довелося дивитися уроки разом з новинами у стрічці, а ще на екрані постійно була інформація про жертв коронавірусу.
+Копирайт изображения
+ZIK
+Image caption
+Так виглядав урок на телеканалі ZIK
+Директор однієї з львівських шкіл закликав дітей і вчителів взагалі не дивитися уроки на телеканалах ZIK, NewsOne та "112 Україна", назвавши їх "антиукраїнськими". Ці канали належать бізнес-партнеру Віктора Медведчука нардепу від ОПЗЖ Тарасу Козаку.
+"Вибір каналів був такий через технічні можливості. Ці канали погодилися транслювати уроки за розкладом Міносвіти. Головна мета - надати дітям можливість вчитися", - говорить Аліса Ляліна з ОП.
+В Офісі президента кажуть, що наразі тривають переговори з регіональними каналами, які також можуть долучитися до цієї ініціативи. Крім того шкільні уроки будуть доступні весь час на Youtube каналі Міносвіти.
+Станом на 6 квітня, розклад уроків на телеканалах виглядав так:
+5 клас - Плюс-Плюс та 112 Україна
+6 клас - ZOOM та News One
+7 клас - 5 канал та ZIK
+8 клас - Індиго та УНІАН
+9 клас - Рада та UA:Культура
+10 клас - UA:Перший
+11 клас - М1
+Показуватимуть уроки щодня, починаючи о 10:00, з понеділка до п'ятниці, доки триватиме карантин.
+Після першого дня Всеукраїнської школи онлайн у Міносвіти говорять про успіх проєкту. За день кількість підписників у Youtube МОН збільшилась на 70 тисяч людей. Уроки збирають від 30 до 60 тисяч переглядів, а найбільш популярними є руханки - заняття з фізкультури, у яких беруть участь зірки. Там по 100 тисяч переглядів і більше.
+"1 000 000 переглядів онлайн і ще кілька мільйонів по TV в перший день Всеукраїнської школи онлайн. Два тижні від ідеї до виходу в ефіри", - радіє успіхам проєкту Анна Сидорук, операційна директорка організації "Освіторії", одного з організаторів навчання.
+Дистанційне заняття чи додатковий контент
+У соцмережах уроки і хвалять, і критикують. Комусь заскладна англійська, а комусь навпаки - залегка. Хтось нарікає на русизми, чи що було погано видно написи на дошці, а хтось дякує за інтерактивність. Одні уроки подобаються більше, інші - менше. Все, як в школі.
+"Про гетьманщину за часів Івана Мазепи вчителька розповідала так, ніби сама була свідком тих подій. Доньці було дуже цікаво", - розповідає про урок історії для 8-го класу і враження доньки Ірина Зозюк.
+Цей урок історії, присвячений драматичним подіям довкола Івана Мазепи, також подивилися в редакції ВВС News Україна. 20-ти хвилинна розповідь вчителя справді іноді нагадувала театральну виставу, яку можна дивитися, затамувавши подих.
+"Сучасні дані, сучасні приклади - хороший урок. Але можливо, можна було б і цікавіше подати матеріал, не так лекційно, щоб більше зацікавити дітей. Дати їм більше завдань для роздумів, час на самостійний пошук відповідей", - говорить про урок географії для 9-го класу, на якому розглядали тему "Харчова промисловість в Україні", викладачка Сарненської гімназії Світлана Тітечко, заслужений вчитель України.
+Вона зазначає, що тему онлайнурок з георграфії для 8-го класу її учні пройшли ще 10 уроків тому. Вчителька закликає випускати онлайн уроки більше до календарного плану.
+Онлайнурок географії для 9-го класу справді був більше схожий на лекцію з картами на екрані, які часом було важко роздивитися.
+Добре, що такі уроки є, але їх аж ніяк не можна назвати дистанційним навчанням, це такий додатковий контент, вважає мама шестикласника і вчителька за фахом Ірина Подуховська-Романенко з Києва. Разом з сином Нікітою вона подивилася три уроки.
+"Організація уроків - цікава. Гарна, динамічна картинка, але ці теми з біології, математики, англійської ми вже давно пройшли. От подивились ще раз".
+Прив'язуватися день в день до розкладу, може, і не варто, говорить пані Подуховська-Романенко і пропонує зробити цей контент просто доступним для всіх, щоб діти могли подивитися саме той урок, який їм потрібен.
+"У нас на державному рівні немає якісного онлайн контенту для шкільної програми. Доводиться все збирати, шукати по крихтах. Добре було б, щоб зняли такий матеріал для всіх уроків. Це був би додатковий інструмент для вчителів і дітей. Біологія, хімія, математика та інші точні науки не міняються і цей контент завжди буде цінним та актуальним. А от історію, літературу можна оновлювати. Також є побажання організувати уроки з іноземною мовою на різних рівнях. Можна додати уроки з граматики - це завжди актуально".
+Кількість підтверджених випадків зараження коронавірусом в Україні
+Джерело даних: МОЗ. *Дані по анексованому Криму взяті з російських офіційних джерел, перевірити їх у незалежних джерелах поки що неможливо. Підтверджених даних з ОРДЛО немає. Мапа створена за допомогою Carto.
+Як подорожувати під час епідемії
+Як безпечно купувати продукти та замовляти їжу з доставкою
+Карантин: що зі школою і вступом до вишів?
+Чи захищають медичні маски від вірусу?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>7/04/2020</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr"/>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>Аварія автобуса з евакуйованими українцями: 2 людей у важкому стані</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+ANADOLU AGENCY
+В Угорщині сталася аварія з автобусом, у якому перевозили евакуйованих українців.
+Про це повідомив у Facebook заступник голови Закарпатської ОДА Ігор Шинкарюк.
+У масках - скрізь на вулиці, на в'їзді мірятимуть температуру. Нові обмеження в Києві
+Собаки, взуття і пальта: що треба дезінфікувати у часи коронавірусу?
+За його словами, ДТП трапилася на 75-му кілометрі автомагістралі М3 біля столиці Угорщини міста Будапешт.
+Йдеться про автобус, який перевозив українців до місця евакуації в пункт пропуску "Тиса".
+Інші деталі аварії не повідомляють.
+В авто було 8 людей. Двоє перебувають у важкому стані, шестеро - у задовільному. Всі люди зараз у лікарні.
+У МЗС розповідали, що станом на 3 квітня, майже 9 тисяч українців потребували евакуації. Але їх евакуація залежить від місць обсервації. Всі українці, які повертаються додому, мають перебувати на самоізоляції.
+З 17 березня Україна закрила більшість пунктів пропуску через державний кордон для авіаційного, залізничного та автобусного сполучення, а з 28 березня повністю закрила державний кордон на в'їзд і виїзд для будь-яких пасажирських перевезень.
+Перетнути кордон можна на автомобілі або пішки.
+Додому на Паску. Як українців пускатимуть через кордон на свята
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>7/04/2020</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr"/>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>Коронавірус в Україні: майже 1,5 тис. хворих і 45 смертей</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+За останню добу кількість нових випадків коронавірусної хвороби в Україні збільшилась на 143 і досягла 1462 випадків COVID-19.
+Напередодні зранку влада повідомляла про 1319 хворих.
+Серед 143 нових хворих 32 - це медики. Сім людей з цих 143-х перебувають у критичному стані.
+Всього в українських лікарнях перебувають майже 700 людей з коронавірусом.
+Коронавірус: у Києво-Печерській лаврі четверо хворих
+"Проти росіян на Донузлаві легше було": життя заблокованого міста на карантині
+Коронавірус в Україні. Інтерактивна мапа
+Кількість померлих від COVID-19 зросла з 38 станом на ранок 6 квітня до 45-ти людей.
+Водночас вже 28 хворих одужали. У 521 людини в Україні зараз підозрюють коронавірус.
+Жодного випадку не зареєстрували у Миколаївській області. Цей "феномен" будуть розслідувати, чи це справді так, розповів Віктор Ляшко, заступник міністра охорони здоров'я.
+Найбільше нових випадків хвороби зафіксували в Івано-Франківській області - 44. Найбільше хворих зараз у Києві - 253.
+Загалом ситуація по Україні виглядає так:
+Вінницька область — 77 випадків;
+Волинська область — 34 випадки;
+Дніпропетровська область — 15 випадків;
+Донецька область — 10 випадків;
+Житомирська область — 11 випадків;
+Закарпатська область — 38 випадків;
+Запорізька область — 41 випадок;
+Івано-Франківська область — 160 випадків;
+Кіровоградська область — 53 випадки;
+м. Київ — 253 випадки;
+Київська область — 97 випадків;
+Львівська область — 29 випадків;
+Луганська область — 3 випадки;
+Одеська область — 30 випадків;
+Полтавська область — 12 випадків;
+Рівненська область — 40 випадків;
+Сумська область — 51 випадок;
+Тернопільська область — 168 випадків;
+Харківська область — 1 випадок;
+Херсонська область — 13 випадків;
+Хмельницька область — 10 випадків;
+Чернівецька область — 247 випадків;
+Черкаська область — 62 випадки;
+Чернігівська область — 7 випадків.
+З усіх хворих 54% - це жінки.
+Україна готова проводити до 30 тисяч тестувань на тиждень, запевнив пан Ляшко. Але поки тестують до 1500 зразків в день, зазначив чиновник.
+Пропустити Youtube допис , автор: BBC News Україна
+Увага: інші сайти можуть містити рекламу
+Кінець Youtube допису , автор: BBC News Україна
+6 квітня зарнку стало відомо про смерть священника із Заліщиків, в якого першого на Тернопільщині підтвердився діагноз COVID-19. Чоловік перебував у госпіталі, але в останні дні його стан погіршився.
+Вважається, що він був першим хворим в області.
+Пропустити Youtube допис 2, автор: BBC News Україна
+Увага: інші сайти можуть містити рекламу
+Кінець Youtube допису 2, автор: BBC News Україна
+Також 6 квітня офіційно підтвердили чотирьох хворих на коронавірус у Києво-Печерській лаврі, яка зачинилась на карантин.
+Співробітники Нацполіції склали 192 адміністративних протоколи за порушення карантинних заходів.
+МОЗ нагадує, що у випадку появи симптомів COVID-19, перш за все, треба телефонувати своєму сімейному лікарю, а той вже ухвалює рішення про подальші дії і може зетелфонувати мобільній бригаді, що проводить аналізи.
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>7/04/2020</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr"/>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>Обмеження на кордоні: як пускатимуть українців на Великдень</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+ДПСУ
+Цього року на Великодні свята прикордонники очікують повернення додому з усіх усюд близько 200 тисяч українців. А це значно підвищує ризики приїзду нових заражених коронавірусом, що може пришвидшити темпи його розповсюдження в Україні.
+Недаремно влада очікує, що саме на Великдень припаде пік захворюваності в Україні. Тому обмеження на кордоні посилюють, а зусилля подвоюють, аби вчасно виявити хворих та ізолювати їх.
+"Зараз небагато людей перетинають кордон, черг немає. Але на свята чекаємо напливу", - кажуть прикордонники.
+То як готується Україна до масового повернення своїх громадян на Великдень в розпал пандемії - з'ясовувала BBC News Україна.
+"Немає часу чекати": Зеленський заявив про закриття кордону для пасажирських перевезень
+"Коли тобі кажуть: у тебе - коронавірус". Розповідь першого українця, який одужав
+200 тисяч на Великдень
+Прикордонна служба раніше прогнозувала, що ближчими тижнями на Великодні свята додому можуть приїхати 200 тисяч українців. А це значно підвищує ризики того, що вірус завезуть в Україну ще більшими темпами.
+Для порівняння з 16 березня літаками, потягами, автобусами та пішки до України повернулося 160 тисяч людей. Деякі з них привезли коронавірус та встигли "роздати" його іншим.
+Міністр внутрішніх справ Арсен Аваков не добирає слів, коли говорить про загрозу від тих, хто приїжджає з-за кордону.
+"Понад 75% випадків зараження коронавірусом у Києві - це люди, які прилетіли літаками, 25% - вторинне зараження від них же уже в Києві", - написав він у соцмережах.
+В пресслужбі прикордонного відомства повідомили BBC News Україна, що вже минулими вихідними кількість тих, хто їде в Україну почала зростати. Якщо в попередні тижні щодоби в Україну поверталося 5-7 тисяч людей, то вже минулої доби - 9 тисяч. Не виключено, що ближче до свят цей показник зросте до 15-20 тисяч українців щодня.
+З іншого боку, ці прогнози можуть і не справдитися, адже з вівторка, 7 квітня, набувають чинності нові обмеження через пандемію. А це може відлякати багатьох, хто планував раніше поїхати на свята в Україну.
+Копирайт изображения
+ДПСУ
+Image caption
+З 7 квітня державний кордон України можна перетнути лише автотранспортом і лише у 19 пунктах пропуску.
+Відтепер будуть працювати лише 19 пунктів пропуску, де можна перетнути державний кордон України власним автотранспортом. Жодного пункту пропуску, де можна потрапити в Україну пішки, немає.
+При цьому в аеропорти можуть і далі прилітати евакуаційні та спецрейси, які повертатимуть тих, хто опинився заблокованим за кордоном.
+Як готуються в пунктах пропуску?
+В тих пунктах пропуску на кордоні, які залишаються працювати, вже посилюють наряди.
+Прикордонник Сергій з пункту пропуску "Краківець", що на кордоні з Польщею, розповів BBC News Україна, що до них приїде підсилення з інших пунктів пропуску, які раніше уряд закрив через пандемію.
+"Та я не думаю, що будуть дуже великі черги на Великдень, адже багато заробітчан вже повернулися в Україну. Тому ми з цим збільшенням справимося", - каже він.
+Копирайт изображения
+ДПСУ
+За його словами, після введення перших обмежень на кордоні 17 березня люди почали масово повертатися додому. Пік навантаження на українсько-польському кордоні припав на 27 березня - одразу після заяви Володимира Зеленського про плани повністю закрити кордони.
+"Зараз пасажиропотік дуже впав. Але ми працюємо планово. Сьогодні прикордонники забезпечені всім необхідним - масками, рукавицями, респіраторами", - розповідає прикордонник. На службі намагаються дотримуватися дистанції, роблять дезінфекцію. До того ж регулярно слідкують за станом свого здоров'я. Якщо у когось є симптоми - відправляють на обсервацію.
+"Але хворих на коронавірус поки немає", - каже Сергій.
+За його словами, всі виходять на службу, бо розуміють, що це обов'язок. Вихідних прикордонникам намагаються давати більше - аби відпочили.
+На питання, чи боїться заразитися, адже доводиться першими зустрічати і оформляти тисячі людей, серед яких є і хворі, відповідає: "Щоб сказати, що страшно - то ні, паніки теж немає. Ми просто йдемо і виконуємо свою роботу".
+Копирайт изображения
+ДПСУ
+Самоізоляція чи обсервація
+Вимогу про обов'язкову обсервацію тих, хто в'їжджає в Україну, уряд ввів 29 березня і це вже призвело до конфліктів та сутичок в "Борисполі".
+Арсен Аваков пояснював, що "заради безпеки мільйонів, ми підемо на незручності для кількох тисяч". Але виконати таке рішення на практиці виявилося не так просто.
+Вже коли перші чартерні рейси почали привозити українців, виявилося, що питання про місце їхньої обсервації влада не вирішила. Саме тому рішення про обов'язкову обсервацію застосовують лише до авіасполучення, а мали б до всіх, хто перетинає кордон.
+Ті, хто в'їжджає на авто, ніякої обсервації не проходять, але підписують добровільну згоду на самоізоляцію.
+Копирайт изображения
+ДПСУ
+В прикордонній службі кажуть, що завдання щодо обсервації уряд поклав на місцеву владу і саме вона має забезпечувати місце, а також транспортування прибулого з-за кордону на обсервацію. Поки що цього немає.
+У прикордонній службі не виключають, що це рішення згодом таки може запрацювати повною мірою. Але воно тягне за собою багато фінансових питань. Де знайти таку кількість місць в готелях чи санаторіях, де б можна було розмістити людей? Хто це все буде оплачувати? Хто фінансуватиме транспортні витрати, аби забрати людину з кордону і відвезти до місця обсервації?
+До того ж навряд ті, хто поїде додому на свята, погодиться на двотижневу обсервацію в якомусь окремому закладі в ізоляції від рідних. Бо який тоді сенс їхати додому на Великдень.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>7/04/2020</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>BBC Travel</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>Як карантинять у різних країнах світу</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+BARCROFT MEDIA
+Те, як мешканці різних країн дотримуються карантину, виявляє багато цікавого про національний менталітет.
+Кажуть, що найкраще характер людини виявляється у важких обставинах. Схоже, те саме можна сказати й про характер нації.
+Поки світ намагається зупинити поширення смертельного вірусу, кожне місто чи країна у свій власний спосіб переживає тяжкі часи.
+Італійці співають опери з балконів, бельгійці вирішили не зачиняти свої легендарні кіоски з картоплею фрі, скандинави продовжують їздити на велосипедах.
+Копирайт изображения
+PIERRE SUU
+Image caption
+За останні кілька тижнів світ дізнався, що національні традиції - сильніші за коронавірус
+Глобальна пандемія, як лакмусовий папірець, виявила важливі для різних країн речі. Вона також нагадала нам про безліч людей, місць та культур, які роблять цей світ чудовим і різноманітним.
+Ми попросили кількох блогерів розповісти про особливості карантину в їхніх країнах.
+Франція
+Чи можна уявити Францію без її традиційних "буланжерій" та французького багета?
+Слідом за Італією французький уряд запровадив жорсткі карантинні заходи. Виходити з дому можна тільки у разі крайньої потреби, яку потрібно довести письмово.
+Все про коронавірус. Стислі факти
+Чому французи не схильні надто радіти
+Усі підприємства, крім тих, що надають товари і послуги першої необхідності, також зачинено.
+До "життєво необхідних для нації підприємств" міністерство охорони здоров'я Франції віднесло близько 40 видів супермаркетів і магазинів, серед яких пекарні, м'ясні, винні, сирні і тютюнові крамниці.
+Копирайт изображения
+STEPHANIE CARDINALE/GETTY IMAGES
+Image caption
+До життєво необхідних під час кризи крамниць французи віднесли й свої легендарні пекарні
+Тепер щоранку порожніми вулицями країни шириться аромат свіжоспеченого хліба, який виробляють близько 33 тис. пекарень від Парижа до Провансу.
+Французи щодня заходять за свіжим багетом, кожен в черзі зберігає безпечну відстань.
+Президент Національної конфедерації французьких кондитерських і пекарень (CNPBF) Домінік Анракт каже, що "багет є символом французької культури".
+"Пекарня - це перше місце, куди ви приходите в дитинстві. А для літніх людей - це часто ще й єдиний спосіб поспілкуватися з іншими". Великі супермаркети є не у кожному районі, а тому багато хто купує основну їжу в пекарнях, додав пан Анракт.
+Вино у Парижі є таким же важливим як і дезінфекція для рук. "Для француза обід без вина, як страва без хліба", - каже сомельє Тьєррі Жівон із Парижа.
+Деякі місцеві винні крамниці пропонують "набори для виживання" з шести або 12 пляшок.
+Карантин втручається у наші звички, ми, приміром, більше не цілуємось при зустрічі. Але пандемія ніколи не забере у французів joie de vivre - вміння радіти життю.
+- Касія Дієц
+Німеччина
+Пандемія втрутилися й у славетне нічне життя Берліна. Легендарні берлінські клуби, як-от Tresor і Berghain, закріпили за столицею Німеччини статус священного граалю гедоністів.
+Але із забороною на зустрічі більш ніж двох людей, яку нещодавно запровадив уряд Німеччини, єдиним місцем для вечірок залишилося власне помешкання.
+Берлінська асоціація 245 незалежних клубів та концертних майданчиків ClubCommission створила за підтримки уряду сайт, який проводить онлайн-трансляції DJ-сетів.
+На сайті United We Stream найкращі берлінські клуби щодня з 19.00 до півночі розважають рейверів на карантині. Фанів також заохочують фінансово підтримати улюблені клуби артистів.
+Копирайт изображения
+JOHN MACDOUGALL/GETTY IMAGES
+Image caption
+Бурхливе нічне життя столиці техно перемістилося в онлайн
+"Віртуальні вечірки UWS свідчать про глибоку солідарність берлінських клубів, розуміння, що ми всі в одному човні", - зазначив Димитрі Хегеманн, який 1991 року заснував клуб Tresor.
+На думку Ракель Федато, яка організовує популярну берлінську вечірку Pornceptual, сайт UWS дозволяє відчути себе частиною спільноти.
+Коронавірус у Німеччині: чому така низька кількість померлих
+Як це у Швеції: "ліберальний (не) карантин" - чому він працює
+"Танцювати перед екраном трохи дивно, але можна збожеволіти від того, в які дивні часи ми живемо".
+"Коли пандемія скінчиться, люди вирвуться у світ, й тусовки вже не спинити", - впевнений Хегеманн.
+- Крістін Арнесон
+Індія
+Минулого тижня рішення про 21-денний карантин ухвалив й уряд Індії, другої за чисельністю країни світу. Але якими будуть наслідки для майже 1,3 млрд індійців, поки що невідомо.
+Багатьом наразі не зрозуміло, як задовольнити найважливіші потреби у продуктах і медикаментах. Єдиний позитивний момент - у країні, яка традиційно користується біде, туалетний папір поки що залишається на полицях супермаркетів.
+Незабаром після оголошення уряду до нації звернулося і найвідоміше в Індії подружжя - капітан індійської збірної з крикету Вірат Колі та його дружина улюблена зірка Боллівуда Анушка Шарма.
+Пара закликала 55 мільйонів своїх шанувальників "дотримуватися гігієни і зберігати єдність". Утім, значно складніше для індійців завдання протягом наступних трьох тижнів - це власне дотримуватися дистанції.
+Копирайт изображения
+HINDUSTAN TIMES / GETTY IMAGES
+Image caption
+Індійці вчаться стояти у черзі, зберігаючи безпечну дистанцію, - непросте завдання в країні із населенням 1,3 млрд людей
+Правильні черги - не найсильніша риса індійської ментальності. У такій щільно населеній країні поняття особистого простору практично не існує.
+За допомогою позначок на землі і підлозі супермаркети навчають покупців дотримуватися безпечної відcтані.
+Черги - не єдина річ, якої нам доводиться вчитися. Протягом останніх тижнів кожен телефонний дзвінок в Індії починається з прослуховування повідомлення про важливість миття рук та прикриття рота під час кашлю.
+Утім, будь-які відео про правила гігієни нам подобаються набагато більше, коли їх супроводжують витончені танці та пісні в стилі Боллівуду.
+- Чарукесі Рамадурай
+Велика Британія
+Доба здорового способу життя та безалкогольного пива не похитнула позицій британського паба. Це - бастіон вікових традицій, особливої атмосфери, еля і, звісно ж, повної відчутності соціальної дистанції.
+Як нещодавно заявив прем'єр-міністр Великої Британії Борис Джонсон, який також підхопив коронавірус, "право на паб" є невід'ємним для кожного британця.
+Утім, пандемія змінила і це. Останні замовлення зроблені у п'ятницю, 20 березня, й тепер, щоби хильнути вечірню пінту, доводиться докладати чималих зусиль.
+На допомогу прийшли WhatsApp, Skype, Zoom та HouseParty - платформи для віртуальних зустрічей із друзями та цифрових "щасливих годин".
+Один такий паб, Jim the Janny's Virtual Pub, заснований у Данді, тепер має майже 13 тисяч прихильників і є чудовим місцем для вечора.
+Копирайт изображения
+CLIVE BRUNSKILL/GETTY IMAGES
+Image caption
+Закриті паби у Британії сприяли появі віртуальних вечірок і цифрових "щасливих годин"
+І отже, ми навчилися святкувати онлайн дні народження, проводити парубочі вечори і традиційні паб-квізи. Минулого тижня на вікторину у ланкаширському Virtual Pub Quiz зареєструвалися понад 340 тисяч людей.
+Нещодавно цифрове хрещення пройшла й традиційна Кейлі - вечірка ірландських та шотландських танців і музики.
+Тож, як провести наступні вихідні? Можна відкрити свій власний віртуальний паб або пуститися у запальний ірландський танок під Flying Scotsman, Gay Gordons або Highland Barn Dance.
+А що робитиму я? Я проведу свою першу віртуальну "щасливу годину" з 12 друзями з Глазго та Единбурга.
+- Майк Макічеран
+Австралія
+Традиційні великодні пікніки - для австралійців найкраще втілення їхньої любові до природи, розслабленого способу життя та вміння виживати поруч із крокодилами, акулами та отруйними зміями і павуками.
+Зазвичай у цю пору року австралійці готуються до барбекю з друзями та родиною. Це останні теплі дні перед настанням зими.
+Хоча Великодні свята цього року скасовані, ми, австралійці, винахідливий народ.
+Копирайт изображения
+JAMES BOWYER/GETTY IMAGES
+Image caption
+У ці дні понад 300 000 австралійців зазвичай вирушають на великодні пікніки. Тепер кемпінги доведеться влаштувати у дворі
+Цього тижня Асоціація трейлерної промисловості Австралії закликала громадян відмовитися від традиційних поїздок на природу і розбити намети у своїх дворах (або вітальнях).
+А милуватися краєвидами дикої природи можна за допомогою прямих трансляцій із заказників та парків дикої природи Lone Pine Koala Sanctuary, Melbourne Zoo and CaPTA Group Wildlife Parks.
+А от у чому "оссі" можуть собі не відмовляти, це легендарний крикет на задньому дворі. Сайт Cricket Australia проводить симуляції матчів та тренінги для молоді - майбутніх чемпіонів світу з національного виду спорту.
+І хоча ми змушені залишатися вдома, артисти Національної австралійської опери Том Гамільтон та Томаш Далтон нещодавно виконали з балкона гімн I Still Call Australia Home, нагадавши нам усім, що ми живемо у чудовій країні.
+- Кетрін Маршалл
+Південна Корея
+Галасливі нічні ринки, цілодобова офісна робота і цифрова культура суперечать статусу Сеула як столиці "Країни ранкового спокою".
+Втім, останні декілька тижнів суворого карантину в Південній Кореї сприяли популярності кави дальгона. Медитативні відео з приготування цього смачного напою почали активно ширитися в інтернеті й за межами Кореї.
+Коронавірус у Південній Кореї йде на спад: як їм це вдалося?
+Корейці - відомі кавомани, за даними Reuters, країна має найбільшу кількість кав'ярень на душу населення у світі. Тому, коли кафе закрили, корейці вирішили відтворити кавову культуру у себе вдома.
+Копирайт изображения
+JENNIFER GAULD
+Image caption
+Кава "дальгон"
+Приготувати легендарну каву дальгон не так складно. Для цього потрібні розчинна кава, цукор, молоко та лід, які збивають до легкої піни кольору арахісового масла.
+Оскільки дедалі більше людей у світі залишаються вдома на карантині, рецепт приготування смачної кави у домашніх умовах виявився дуже вчасним.
+Шаленої популярності в інтернеті останнім часом набули ролики приготування кави в стилі ASMR (автономної сенсорної меридіональної реакції) або мозкового оргазму. Хештег #dalgonacoffeechallenge набрав понад 64 млн переглядів у TikTok.
+Єдине, що перевершує каву дальгон за милістю, це традиція залишати для кур'єра записку з подякою, написану від руки, а іноді і маленький подаруночок.
+У корейській культурі записка від руки є більшим знаком подяки, ніж слова чи імейл. Як зазначив один відомий корейський лінгвіст, "наші предки вважали, що рукописні листи передають справжні почуття людини".
+Серед тисяч рукописних записок із подякою кур'єрам, викладених в Instagram, найпопулярнішою є така - "Сподіваюся, що більше ніхто не стане жертвою коронавірусу".
+Прочитати оригінал цієї статті англійською мовою ви можете на сайті BBC Travel.
+Хочете поділитися з нами своїми життєвими історіями? Напишіть про себе на адресу questions.ukrainian@bbc.co.uk, і наші журналісти з вами зв'яжуться.
+Хочете отримувати головні статті в месенджер? Підписуйтесь на наш Telegram.
+--
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>6/04/2020</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr"/>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>Хроніки коронавірусу. Секс-працівники просять Макрона про допомогу, Меркель повернулася з карантину</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Станом на вечір 6 квітня коронавірус у світі підхопили вже понад 1,3 мільйона людей.
+Найбільше хворих зафіксували у США (347 тисяч), Іспанії (135 тисяч), Італії (132 тисячі) та Німеччині (101 тисяча).
+Коронавірус: коли закінчиться епідемія
+Коронавірус: поради тим, хто має хронічні захворювання
+Коронавірус і секс: що ви хотіли, але соромились запитати
+Секс-працівники Франції просять Макрона про допомогу
+Асоціація захисту секс-працівників Франції звернулася до президента Емманюеля Макрона із закликом створити надзвичайний фонд - для компенсації доходів, які вони втрачають через пандемію коронавірусу.
+"Має бути створений надзвичайний фонд, що зможе компенсувати дохід на період обмежувальних заходів", - йдеться в заяві.
+Меркель повернулася з карантину
+Після двотижневого карантину вдома канцлерка Німеччини Ангела Меркель повернулася до роботи в офісі, повідомляє Deutsche Welle.
+"На щастя, тест канцлерки на коронавірус кілька разів дав негативний результат", - заявив прес-секретар Меркель Штефан Зайберт.
+Пані Меркель пішла на карантин два тижні тому - після того, як коронавірус виявили в лікаря, з яким вона контактувала.
+10 тисяч смертей у США
+Копирайт изображения
+GETTY IMAGES
+Кількість смертей серед людей, в яких виявили коронавірус, у США сягнула 10 тисяч випадків.
+Це - третій показник у світі. Більше смертей, спричинених Covid-19, зафіксували лише в Італії (16 тисяч) та Іспанії (13 тисяч).
+Раніше президент Дональд трамп попереджав, що пік пандемії у США лише попереду.
+У США з тюрем почали випускати в’язнів. Через коронавірус
+Водночас він заявляв, що вважає добрим знаком зниження темпу росту летальних випадків від коронавірусу у штаті Нью-Йорк, який є епіцентром пандемії в країні.
+"Ми починаємо бачити світло в кінці тунелю. І, сподіваюся, в недалекому майбутньому ми будемо дуже пишатися роботою, яку всі зробили", - сказав він.
+Раніше американські медики прогнозували, що в результаті пандемії коронавірусу можуть померти до 240 тисяч американців, навіть попри жорсткий карантин.
+Рекордна кількість смертей у Франції
+Упродовж доби у Франції зафіксували 833 смерті, спричинених коронавірусом. Це найвищий показник за час спалаху в країні.
+Загальна кількість померлих від коронавірусної інфекції у Франції вже сягнула понад 8 900 - це четвертий показник після Італії (16 тисяч), Іспанії (13 тисяч) та США (10 тисяч).
+Борис Джонсон у лікарні
+Прем'єр-міністра Британії Бориса Джонсона госпіталізували для "планового тестування" на коронавірус, повідомила його пресслужба.
+Попри те, що коронавірус у Джонсона виявили понад тиждень тому, у нього зберігаються "стійкі симптоми" хвороби, зокрема підвищена температура.
+У заяві Даунінг-стріт йдеться про те, що Борис Джонсон вдячний лікарям за їхню "неймовірно важку працю" і закликає громадян дотримуватися порад уряду й залишатися вдома.
+За даними британських ЗМІ, Джонсона поклали в лікарню, розташовану всього за кілька хвилин пішки від резиденції прем'єра на Даунінг-стріт, 10.
+Замість Джонсона засідання надзвичайного комітету COBRA щодо ситуації з коронавірусом проведе керівник МЗС Домінік Раабе.
+Копирайт изображения
+REUTERS
+Італія та Іспанія минули пік
+В Італії та Іспанії, двох країнах, які важко постраждали від пандемії Covid-19, кількість померлих за добу знижується вже щонайменше третій день поспіль.
+В Іспанії за минулу добу померло 674 пацієнти з коронавірусом. Це на 135 менше, ніж у п'ятницю.
+Загальна кількість смертей від Covid-19 в Іспанії - 12 418 людей, а загальна кількість підтверджених випадків зараження - 130 759.
+Прем'єр-міністр Педро Санчес напередодні заявив, що країна "близька до проходження піку захворюваності" коронавірусом.
+Санчес оголосив про продовження карантину до 25 квітня, заявивши, що ці заходи рятують життя, і додаткові два тижні карантину полегшать роботу медиків.
+Копирайт изображения
+GETTY IMAGES
+За несплату ізоляції - депортація
+Південна Корея депортувала жінку з Тайваню, яка відмовилася перебувати в карантинному закладі, повідомляє інформаційна агенція Yonhap.
+Усі, хто повертається в країну з-за кордону, повинні відбути двотижневу самоізоляцію - або у себе вдома, або в установах, визначених урядом. Це коштує близько 81 долара в день.
+Жінка погодилася на карантин, але відмовилась оплатити витрати. Увечері в неділю її депортували назад до Тайваню.
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Копирайт изображения
+GETTY IMAGES
+Кашель заради розіграшу привів до суду
+У Новій Зеландії чоловіка засудили за "образливу поведінку" після того, як він знімав себе на відео демонстративно кашляючи на інших людей у супермаркеті в Крайстчерчі.
+38-річний Реймонд Кумбс пояснив, що він був п'яний і робив це як розіграш.
+Пізніше він заявив, що шкодує про те, що зробив "дурний вчинок".
+Поліція заарештувала його в суботу після того, як він опублікував відео у Facebook, де воно стало вірусним та викликало обурення.
+Прем'єр-міністр Джасинда Ардерн назвала його "ідіотом".
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>6/04/2020</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr"/>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Коронавірус</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>Як штрафують за порушення карантину – випуск новин 06.04.2020</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t xml:space="preserve">У випуску 6 квітня:
+Чи законні нові суворі обмеження, які запровадили в Україні, та як зупиняють порушників.
+Борис Джонсон у лікарні. Як у Британії борються із коронавірусом.
+Дезінформація під час пандемії: як перевіряти факти - поради ВВС.
+Карантинна дієта: як залишатись вдома і не погладшати.
+Пропустити Youtube допис , автор: BBC News Україна
+Увага: інші сайти можуть містити рекламу
+Кінець Youtube допису , автор: BBC News Україна
+Ви також можете подивитись випуск на YouTube.
+Всі випуски новин на YouTube.
+І підписуйтеся на наш Youtube-канал!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="inlineStr"/>
+      <c r="C353" t="inlineStr"/>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Суспільство</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>Хроніки коронавірусу. З Уханя можна виїхати вперше за два місяці</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Станом на вечір 7 квітня у світі виявили понад 1,3 мільйона підтверджених випадків коронавірусу.
+Серед них 79 тисяч людей померли, понад 295 тисяч - одужали.
+Лідери за кількістю хворих - США (378 тисяч), Іспанія (140 тисяч), Італія (132 тисячі) та Німеччина (105 тисяч).
+Водночас в Україні станом на ранок 7 квітня виявили 1462 підтверджених випадки коронавірусу, 143 - за останню добу. Померли 45 людей.
+Коронавірус: коли закінчиться епідемія
+Коронавірус: поради тим, хто має хронічні захворювання
+Коронавірус і секс: що ви хотіли, але соромились запитати
+З Уханя можна виїхати вперше за два місяці
+Жителі китайського Уханя, звідки почався спалах коронавірусу, можуть виїхати з міста вперше за понад два місяці - обмеження на виїзд влада запровадила ще 23 січня.
+Населення Уханя - понад 11 мільйонів людей.
+Тепер в місті повністю відновлюють автомобільне, залізничне пасажирське сполучення.
+Раніше стало відомо, що в Китаї вперше за час спалаху не зафіксували жодної смерті від коронавірусу упродовж доби.
+10 тисяч смертей у Франції
+Копирайт изображения
+GETTY IMAGES
+Кількість смертей через коронавірус у Франції сягнула 10 тисяч.
+Наразі це четвертий показник у світі - більше тільки в Італії (17 тисяч), Іспанії (13 тисяч) та США.
+Загалом у Франції виявили понад 98 тисяч випадків коронавірусу. 30 тисяч із них наразі госпіталізовано, понад 7 тисяч перебувають у відділеннях інтенсивної терапії.
+Вихід на вулицю без маски загрожує в'язницею
+Копирайт изображения
+GETTY IMAGES
+Таке правило сьогодні набуло чинності у Марокко, де станом на 7 квітня понад 1100 випадків коронавірусу, 83 з них - летальні.
+Відтепер жителям, які виходитимуть на вулицю без маски, загрожуватиме до трьох місяців в'язниці та штраф у розмірі 126 доларів.
+Карантинні обмеження діють в країні вже близько трьох тижнів: люди можуть залишати свої домівки, щоб купити продукти чи ліки. На роботу мають право ходити лише ті, хто має спеціальний дозвіл.
+Рекордна смертність у штаті Нью-Йорк
+Штат Нью-Йорк залишається епіцентром поширення коронавірусу в США, де загалом виявили вже понад 378 тисяч хворих.
+У штаті напередодні зафіксували рекордну кількість смертей за добу - через ускладнення, пов'язані з коронавірусом померла 731 людина, розповів губернатор Ендрю Куомо.
+За його словами, у штаті виявили вже майже 39 тисяч випадків захворювання, понад 5 400 людей померли.
+Жорсткі обмеження через вірус запроваджені у багатьох країнах світу - заборонені відвідини громадських місць, закриті школи і кордони.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Міністра охорони здоров'я Нової Зеландії Девіда Кларка понизили в ранзі після поїздки на пляж
+І багато де це порушують. Наприклад, у Новій Зеландії карантин порушив міністр охорони здоров'я Девід Кларк. Він вивіз свою родину на пляж. Щоправда, після цього розкаявся, назвав себе "ідіотом" і запропонував прем'єру заяву про відставку.
+На роботі його залишили через кризовий момент для країни, але понизили у ранзі.
+Копирайт изображения
+REUTERS
+Іспанія минула пік
+Загальна кількість смертей від Covid-19 в Іспанії - 13 тисяч людей, а загальна кількість підтверджених випадків зараження - 136 тисяч.
+Прем'єр-міністр Педро Санчес напередодні заявив, що країна "близька до проходження піку захворюваності" коронавірусом.
+Санчес оголосив про продовження карантину до 25 квітня, заявивши, що ці заходи рятують життя, і додаткові два тижні карантину полегшать роботу медиків.
+Як коронавірус шириться планетою. Мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>6/04/2020</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>В'ячеслав Шрамович</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Суспільство</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>Чорнобиль та пожежі: чи є небезпека для здоров'я</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+SKY UK LTD/HBO
+Image caption
+Серіал HBO "Чорнобиль" знову нагадав про найбільшу техногенну катастрофу в історії людства. Будь-яку пожежу в Зоні відчуження сприймають мало не як повторення 1986 року. Насправді, нинішні займання сталися далеко від станції, і хоча район той справді забруднений, однак реальної небезпеки поширення радіації немає.
+Пожежі у Чорнобильській зоні відчуження - давній страх киян та жителів північних районів України.
+Люди вважають, ніби з димом можуть поширюватися "заряджені" радіоактивні частинки, - мало не як під час аварії 1986.
+Насправді ж поширення радіації якщо і відбувається, то дуже локально.
+Утім, пожежі у лісистій зоні - це справді проблема, але більше з точки зору екології, ніж радіаційної безпеки.
+Моторошна правда і вигадки серіалу "Чорнобиль" - розповідь очевидця
+Горить Чорнобильська зона, рятувальники залучили авіацію
+"Погані новини"
+Копирайт изображения
+ДСНС
+Image caption
+Нинішню пожежу гасять з авіацією
+"Є погані новини - у центрі пожежі радіація вище норми. Як ви бачите на відео, показники приладу становлять 2,3 при нормі 0,14", - так описав пожежу в Зоні відчуження у неділю тимчасовий виконувач обов'язків голови Державної екоінспекції Єгор Фірсов.
+Пост супроводжує відео з тривожним сигналом дозиметра про перевищення допустимих показників одного з видів радіоактивних випромінювань.
+Пропустити Facebook допис , автор: Єгор
+Вогнеборці продовжують боротися з пожежою, яка виникла у Чорнобильській зоні. Ситуація складна. Вогонь поширився на...
+Posted by Єгор Фірсов on Sunday, 5 April 2020
+Кінець Facebook допису , автор: Єгор
+Єгор Фірсов уточнив, що мова йде лише про "ситуацію в осередку пожежі".
+Але в українському і не тільки медіапросторі вже вкотре поширився меседж про "радіоактивну пожежу" в Чорнобильській зоні та "різке перевищення норм радіації".
+Пожежа на "забрудненому" заході
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Пожежі в Чорнобильській зоні трапляються періодично, все залежить від того, наскільки сухий сезон
+"Радіоактивне забруднення в Зоні має нерівномірний характер, проте загалом відстежуються підвищені рівні у західній та північній частинах території", - пояснює BBC News Україна Микола Фомін, провідний гід "Гамма Тревел", який багато років працює у Зоні відчуження.
+Нинішня пожежа, судячи з повідомлень Держслужби з надзвичайних ситуацій, виникла у західній частині Зони відчуження.
+Це район Котовського лісництва.
+Пропустити Facebook допис , автор: Державне агентство України з управління зоною відчуження
+Радіаційна ситуація у районі пожежі знаходиться під контролем За повідомленням чергового ДПРЧ-11 03.04.2020 о 21:25...
+Posted by Державне агентство України з управління зоною відчуження on Saturday, 4 April 2020
+Кінець Facebook допису , автор: Державне агентство України з управління зоною відчуження
+Котовське - одне з покинутих сіл Поліського району, найближче до пожежі населене село - Рагівка на північному заході Київщини.
+"Основна частина пожежі розташована на заході, тому певне перевищення допустимих рівнів в осередку пожежі - це "нормальне" для зони явище", - відзначає Микола Фомін.
+Загалом загорілось 20 гектарів лісу.
+Це справді призводить до поширення радіації, але мова не йде про масове забруднення.
+"При згоранні забрудненої деревини та рослинності вивільняються ізотопи, що розповсюджуються із димом та пилом дуже локально, на десятки або сотні метрів. Проте рівні на місці пожежі піднімаються", - відзначає Микола Фомін.
+За його словами, у таких масштабах загроза забруднення за межами Зони мінімальна.
+Сезонне явище
+Копирайт изображения
+ДСНС
+"Взагалі, лісові пожежі в зоні - це сезонне явище. Проблема в тому, що трав'яний покрив Зони відчуження дуже сухий у теплі пори року, і при довгій відсутності опадів небезпека пожеж зростає", - пояснює Фомін.
+"Усі відповідні служби Зони про це знають і регулярно готуються до подібних ситуацій. Постійно проводиться роз'яснювальна робота, та проводяться навчання персоналу для швидкого реагування", - додає Микола, який підтримує контакти з різними службами у Чорнобилі та Чорнобильській зоні.
+Причини пожежі можуть бути як природні, так і пов'язані з людьми.
+"Останнім часом зросла популярність так званих нелегальних візитів на цю територію. Люди, які проникають в Зону таким чином, грубо ігнорують усі протипожежні правила", - відзначає Микола Фомін.
+І додає: "При цьому штраф за проникнення приблизно у сто разів менший штрафу за неносіння маски в громадських місцях".
+"Нелегали" у Чорнобильській зоні, якщо їх зловлять поліцейські чи прикордонники, ризикують отримати адміністративні штрафи - зазвичай, це кілька сотень гривень.
+Можна відкривати вікна
+Тим часом пожежники повідомляють про ліквідацію пожежі біля Рагівки.
+Однак окремі осередки вогню залишаються в інших районах на заході Зони відчуження, зокрема біля покинутого селища Поліське.
+Хоча, за словами пожежників, мова не йде про верхову пожежу (хоча раніше повідомляли саме про неї) - горить трава і лісова підстилка.
+Про серйозне підвищення рівнів радіації також не йдеться.
+"Радіаційний фон по Києву та Київській області у межах норми та не перевищує природних фонових значень (Київ - 0,013 мР/год, Київська область - в межах 0,011 мР/год. при допустимому фоні 0,05 мР/год)", - повідомляють у ДСНС.
+"У зоні відчуження та безумовного відселення рівні потужності еквівалентної дози гамма випромінювання не змінилися (м. Чорнобиль - 0,2 мР/год при контрольно допустимому рівні до 0,55 мР/год, на КДП Дитятки 0,1 мР/год при контрольно допустимому рівні до 0,2 мР/год)", - додають рятувальники.
+Про відсутність небезпеки радіації говорять і в інших офіційних органах.
+Наприклад, у Центрі з ядерної та радіаційної безпеки провели вимірювання повітря у Києві - у тих районах, куди міг би дійти радіоактивний дим.
+"За результатами вимірювань техногенних радіонуклідів на місцевості виявлено не було", - кажуть у Центрі.
+Зрештою, не панікувати через пожежі у Зоні закликав і Євген Фірсов.
+"Можете не боячись відчиняти вікна та провітрювати приміщення під час карантину", - написав він у Facebook.
+Але це не значить, що не ризикують пожежники, які працюють у радіоактивно "брудних" місцях.
+Копирайт изображения
+ДСНС
+Image caption
+Пожежників, які гасили полум'я у Чорнобильській зоні, тепер перевіряють
+Зараз пожежники, які гасили і гасять пожежі у Чорнобильській зоні, проходять обстеження у Національному інституті радіаційної медицини.
+"Рятувальники працюють на межі можливостей у вкрай складних умовах... За кожного з хлопців я переживаю, як за себе особисто... Обурення викликає те, що вогнеборці, котрі вимушені працювати в Чорнобильській зоні, ліквідовують не наслідки якоїсь аварії, а наслідки людської недбалості та злочинних вчинків", - написав керівник ДСНС у Києві Анатолій Ватолін.
+Недбалість, про яку він говорить, виявила поліція.
+Там кажуть, що знайшли, хто саме винен у пожежі.
+"Ним виявився 27-річний житель села Рагівка. Як пояснив молодик поліцейським, він задля забави в трьох місцях підпалив сміття та траву. Після чого вогонь вітром перекинуло далі і він вже не зміг впоратися та загасити багаття", - йдеться у повідомленні правоохоронців.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>6/04/2020</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Мирослава Станкевич</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Суспільство</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>Карантин: життя заблокованого міста на Черкащині</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+КАМ'ЯНСЬКА МІСЬКА РАДА
+"Ходжу без маски, бо в аптеці їх немає. А в АТБ зайти, щоб купити продуктів, без маски не дозволяють. Мама має зшити мені з підручних матеріалів. Епідемія - боремося, як можемо", - розповідає Євген Прозор.
+Чоловік живе разом з мамою-пенсіонеркою у Кам'янці, 12-тисячному місті на Черкащині.
+29 березня його закрили на в'їзд та виїзд через 28 підверджених випадків захворювання на коронавірус.
+Коронавірус в Україні. Інтерактивна мапа
+Карантин: чи правда, що 60-річним заборонили виходити?
+На Донузлаві "почувався впевненіше"
+Євген Прозор прослужив 11 років у Військово-морських силах України.
+Він - старшина моторної команди тральщика "Черкаси", який до останнього протистояв російській анексії у березні 2014-го на заблокованому Донузлаві.
+Нині чоловік заблокований у рідній Кам'янці.
+Каже, що у 2014 році на Донузлаві почувався навіть впевненіше, ніж зараз.
+"(Проти росіян) у 2014-му на Донузлаві легше було, тоді я був герой", - пригадує Прозор.
+"Коли йшли вибори і в квітні, і в липні, то календарики всі роздавали направо й наліво... А коли прийшла в країну халепа, то отих наметів вже не видно", - розповідає Євген.
+"Зараз виживаємо, як зазвичай: у мами - пенсія, я - військовослужбовець. В магазин надягаю баф. Є свій город, консервація. Потім піде полуниця, гриби, риба, щука - це хобі", - додає він.
+Чоловік твердить, що не бачить підтримки та допомоги місцевої влади. Ціни в магазині піднялися, вулиці порожні, люди ходять в масках, всі злі.
+Але попри все - не панікує.
+"Ну, так склалося"
+Катерина Мельник живе у Кам'янці у районі залізничного вокзалу. Там три продуктові магазини.
+Розповідає, що усі продукти першої необхідності є, ціни не змінилися, а місцева влада підтримує - інформує про всі свої кроки, дезінфікує вулиці.
+Пропустити Youtube допис , автор: BBC News Україна
+Увага: інші сайти можуть містити рекламу
+Кінець Youtube допису , автор: BBC News Україна
+"Неприємно на душі спочатку було. А пройшов день-два, то розумієш - ну, так склалося. Люди в масках, бо ж ніхто не знає, в кого є (вірус), в кого немає. Так, здогадуємося, хто заразив", - відзначає жінка.
+"В рукавичках медичних ходжу, як іду в магазин. Одну маску пошила. На роботу собі одну в аптеці купила за 40 гривень", - ділиться вона.
+Селфі у масках
+Нині Черкащанин Сергій Воронов - родом з Кам'янки, де залишилися його батьки.
+Розповів, що 2 квітня віз у заблоковане місто гуманітарну допомогу, предмети індивідуального захисту для місцевих лікарів.
+"Поки доїхав, мені товариш оформив перепустку. Її отримати не складно - там має бути підпис чергового міської ради, вказується номер машини. На проїзді стоїть поліцейський, який не міряє температуру, а просто дивиться на перепустку", - пояснює Сергій.
+Він пригадує, що того дня у місті бачив багато машин, трохи менше людей. Паніки не відчув.
+"Мама з дитиною, бачив, йшла, дівчата у масках селфилися, день сонячний, вони на лавочках сиділи грілися і фотографувалися. Бачив біля магазинів людей, черги організовані, два метри один від одного", - каже чоловік.
+Сергій також розповідає, що його батьки, люди поважного віку, залишаються вдома, у приватному будинку, не виходять у місто.
+"Я привіз їм продукти, щоб вони якомога довше могли там бути. Залишив у себе на сторінці у Facebook свої контакти, щоб такі ж, як мої батьки, могли звернутися, і ми з друзями зможемо забезпечити їх необхідним", - говорить Сергій Воронов.
+У місто чоловік в'їжджав у масці, рукавичках. Вважає себе здоровим. Такі заходи потрібні, за його словами, для власного захисту.
+"Тричі зустрів швидку допомогу, так розумію, що викликів вистачає. Нині люди, як тільки відчувають найменший синдром, відразу викликають швидку", - каже Сергій.
+Він додає: "Уклав угоду з сімейним лікарем у Кам'янці. Вона розповіла, що люди панікують з найменшою підозрою, телефонують їй. Цьогоріч у Кам'янці була висока захворюваність на ГРВІ. Лікарка розповіла, у лютому був тиждень, що 600 хворих за тиждень звернулося. Зараз менше. До цього часу (До виявлення випадків COVID-19. - Ред.) у місті померло чотири людини від пневмонії, у тому числі моя троюрідна сестра - за добу згоріла в лікарні".
+Сергій - депутат обласної ради від округу, до якого входить Кам'янка.
+З його слів, перші партії засобів індивідуального захисту почали надходити у лікарню через тиждень після того, як були зафіксовані 28 хворих.
+Пропустити Youtube допис 2, автор: BBC News Україна
+Увага: інші сайти можуть містити рекламу
+Кінець Youtube допису 2, автор: BBC News Україна
+Проблема у тому, що райлікарня залишилася на балансі райради. До неї нині входять шість сіл. Їхнього бюджету для утримання лікарні замало.
+"Всі чотири новостворені ОТГ із сіл району відмовилися фінансувати її, вважаючи, що це не їхній клопіт. Лікарня останні кілька років ледь виживала. А зараз біда місцевих керманичів трохи об'єднала", - відзначає Сергій Воронов.
+Гості з Італії
+Головний лікар районної лікарні Костянтин Тамко розповідає, що сьогодні лікарі забезпечені засобами захисту на тиждень.
+"А далі: будемо жити - будемо бачити. Обіцяють забезпечувати, допомагають спонсори", - додав він.
+За словами Костянтина Тамка, у січні-лютому цьогоріч у Кам'янці було 12 хворих на пневмонію, чотири з них померли, серед них були і молоді люди, і літні.
+Як розповів міський голова Кам'янки Володимир Тірон, зараз у місті працюють усі підприємства та продуктові магазини. У пунктах пропуску, за його словами, черг немає.
+"Працівники апарату міськради та бюджетники міста вирішили перерахувати дводенний заробіток до лікарень. На сьогодні потреби у засобах захисту у лікарнях немає. Місто дезінфікують. Будинки, під'їзди щоденно обробляють розчином на основі хлору. За рекомендацією лабораторного центру дезінфікуємо місця найбільшого скупчення людей, особливо тінисті, бо ділянки, освітлені сонцем, обробляти не рекомендують", - розповів міський голова.
+За його словами, до понеділка у місті діяли чотири блокпости, де чергували поліцейські, а також ДСНС.
+Виїздів з міста більше, але вони були перекриті повністю.
+Медиків з термометрами в останні дні на пости не направляли, оскільки низька температура повітря не давала змоги нормально вимірювати температуру тіла.
+Як повідомив Володимир Тірон, перший кам'янський хворий - 60-річний чоловік, працює водієм на одному з підприємств міста.
+"До нього приїхала сваха з чоловіком з Італії у гості. І поїхали. Він захворів, його лікували чотири дні у нашій лікарні, у терапевтичному відділенні, як ГРВІ", - розповів міський голова.
+Першого хворого на коронавірус в області офіційно виявили 23 березня. Він був з Уманщини.
+За чотири дні хворих стало троє, серед них - один з Кам'янки.
+А 29 березня в Кам'янці лабораторно підтвердили COVID-19 вже у 28 людей. Серед інфікованих, за словами головного лікаря райлікарні, чотири лікарі та п'ять інших медпрацівників.
+Костянтин Тамко стверджує, що всі інфіковані вже виявлені, а з підозрами нині у місті немає нікого.
+Трьох хворих направили у стаціонар інфекційного відділення у Черкаси.
+Загалом же цифри у Кам'янскому районі залишаються незмінними: 114 людей з підозрою на COVID-2019 обстежено, у 28 з них захворювання підтвердили.
+Перекриті дороги
+Image caption
+Різні міста України починають запроваджувати перевірки машин на в'їзді та виїзді
+Володимир Тірон повідомив, що у неділю обласна комісія з надзвичайних ситуацій вирішила блокувати в'їзди в область, тому у Кам'янці із 6 квітня знову змінюють режим в'їзду та виїзду.
+"Оскільки ми район, який межує із сусідньою Кіровоградщиною, ми залишаємо один центральний пост, через який у місто заїжджають 80% людей. Це потрібно для власного контролю ситуації у місті. На посту чергують представники поліції, Нацгвардії, МНС та медпрацівник. Натомість заблокували в'їзди із Кіровоградської області", - пояснив міський голова.
+З п'ятого квітня на Черкащині блокують в'їзди та виїзди ще з одного райцентру - Умані. Тут другого квітня зафіксовано першу смерть від COVID-19.
+Померлий був паломником, громадянином США, приїхав із Лондона. У нього також був цукровий діабет.
+Разом із 47-річним чоловіком були ще шестеро дітей та дружина. За два дні у неї, сина та доньки діагностували COVID-19.
+Вже встановлено 50 контактних осіб, які перебувають на самоізоляції.
+На сьогодні в Черкаський області загалом 63 хворих на коронавірус. Одна людина померла, двоє одужали.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>6/04/2020</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr"/>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Суспільство</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>Коронавірус в Україні: як карантин змінив життя та звички українців</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Соціологічна група "Рейтинг" провела опитування, щоб дослідити емоції та поведінку українців на карантині.
+Його результати показали, що за період карантину значно зросла частота перегляду новин. Майже половина опитаних стала слідкувати за ним частіше, причому жінки роблять це активніше за чоловіків.
+Водночас дослідження продемонструвало, що перегляд новин негативно впливає на емоційний стан людей: ті, хто почав більше дивитися новини, частіше за інших зазначали, що відчувають страх та здивування.
+Кінокарантин: що подивитися, щоб покращити собі настрій
+Місяць без школи: як вчитися на карантині
+Карантин: які заборони діють з понеділка
+Фільми, серіали та прибирання
+Третина опитаних зазначили, що стали частіше дивитися фільми та серіали, прибирати вдома, готувати їжу. І хоча більше куховарити стали жінки, чоловіки також почали робити це частіше, ніж до карантину.
+Також більше часу на приготування їжі почали витрачати молоді люди до 40 років.
+Близько чверті респондентів зазначили, що збільшили час на заняття саморозвитком, спілкування з рідними та близькими, сон, їжу та музику. Частіше за інших це роблять молоді люди віком 18-29 років.
+Спорт, секс і алкоголь
+Кожен п'ятий опитуваний почав частіше займатися своїм хобі, читати книги або ж займатися спортом - ним більш активно займаються чоловіки.
+Також чоловіки більше часу, ніж зазвичай, витрачають на сон, алкоголь і секс. Особливо ті, які наразі не ходять на роботу.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Чоловіки стали більше займатися спортом
+Молодь без прогулянок
+Негативно карантин вплинув на прогулянки на свіжому повітрі - майже половина зазначили, що роблять зараз це рідше, ніж зазвичай.
+Найбільше ці обмеження позначились на молодих людях до 40 років - вони згадували про них частіше, ніж представники інших вікових груп.
+Також обмеження суттєво позначилися на спілкуванні з друзями: близько 40% опитаних заявили, що спілкуються з ними не так часто, як до карантину.
+Що з емоціями?
+Водночас серед базових емоцій опитані найчастіше відчувають радість та зацікавленість або хвилювання. Менш виражені - здивування, гнів, сум та страх. Ще менш виражені - відраза, почуття провини, сором і байдужість.
+Дослідження також показало, що чоловіки відчувають більше негативних емоцій, зокрема байдужість, відразу та гнів. Водночас жіночий емоційний спектр двополюсний - вони частіше відчувають як позитивні, так і негативні емоції.
+Результати опитування свідчать про негативний вплив на емоції алкоголю - ті, хто більше вживає алкоголю, частіше відчувають страх, неприязнь, гнів, здивування та сум.
+Натомість ті, хто став частіше займатися сексом та робити онлайн-покупки, більше за інших відчувають здивування та радість і значно менше - сум.
+А от ті, хто почав більше спати, також більше відчувають байдужість, відразу і гнів. Дослідники пояснюють це тим, що свідомість людини намагається вберегти її від стресу, тому сон "вимикає" на певний проміжок часу переживання, але не допомагає їх подолати.
+Люди, які стали більше бувати на свіжому повітрі, частіше відчувають радість, але водночас у них підвищене почуття провини, пов'язане з карантинними обмеженнями.
+Відповіді на головні питання про коронавірус
+Як безпечно купувати продукти та замовляти їжу з доставкою
+Коронавірус: що він робить з організмом
+Чи захищають медичні маски від вірусу?
+Опитування провела Соціологічна група "Рейтинг" у співпраці з Національною дослідницькою мережею "POLLARIS" 1-2 квітня 2020 року.
+У ньому взяли участь 1300 людей віком від 18 років.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>6/04/2020</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr"/>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Суспільство</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>Карантин: які заборони діють з понеділка</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+УНІАН
+З 6 квітня в Україні набуває чинності низка нових обмежень щодо того, як перебувати на вулиці.
+"Проти росіян на Донузлаві легше було": життя заблокованого міста на карантині
+Карантин. Список нових обмежень
+Зокрема мова йде про дві заборони:
+Ходити по вулицях більше, ніж удвох. Виняток - супровід дітей до 14 років батьками, опікунами, піклувальниками, прийомними батьками, батьками-вихователями або повнолітніми родичами. Інший виняток - службова необхідність.
+Не можна перебувати у громадських місцях без вдягнутого респіратора чи маски. При цьому, маски дозволяються саморобні.
+Права на зображення BBC News Україна
+BBC NEWS УКРАЇНА
+BBC News Україна з'ясувала, що саме правоохоронці розуміють під терміном "громадське місце".
+Що таке "громадське місце", де відтепер обов'язкові захисні маски
+"Громадське місце у розумінні поліції - це всі місця у публічному просторі, де можуть збиратись люди", - пояснили поліцейські.
+"Умовно кажучи - вийшов з дому іти до магазину - ти вже у громадському місці. Фактично, це всі місця поза приватним житлом", - додають правоохоронці.
+А Київрада у своїх рішеннях уточнила, що правило щодо обов'язкових масок і респіраторів поширюється і на прибудинкові ділянки (двори будинків).
+Без масок не пускають у більшість магазинів та аптек.
+Влада просить громадян залишатися вдома і не виходити без крайньої потреби.
+Без документів не виходити
+Крім того, з п'ятниці вже діє заборона виходити без документів.
+Дослівно вона звучить так: "Заборонено перебувати на вулицях без документів, що посвідчують особу, підтверджують громадянство чи її спеціальний статус".
+Також в Україні вже закриті всі парки, сквери, пляжі, дитячі і спортивні майданчики, а також ТРЦ і ресторани.
+Дітям до 14 років заборонено виходити на вулицю без дорослих.
+Між областями, а також на в'їзді до великих міст, таких як Київ, встановили блокпости, де вимірюють температуру всім, хто хоче заїхати.
+При цьому, рух транспорту можуть взагалі перекрити.
+"У разі погіршення епідемічної ситуації обмежити переміщення між областями", - йдеться у рішенні уряду.
+А мер Києва Віталій Кличко допустив, що в місті можуть заборонити рух приватного автотранспорту, якщо ситуація з коронавірусом погіршиться.
+"Якщо ми побачимо кратне збільшення кількості інфікованих, щоб інфекційного вибуху не було,.. ми однозначно будемо приймати більш жорсткі правила і може бути припинено взагалі пересування вулицями нашого міста приватним транспортом", - сказав він.
+Всі заборни діятимуть до 24 квітня.
+Водночас в уряді кажуть, що можуть продовжити карантин, якщо цього вимагатиме ситуація з поширенням корнавірусу.
+Але прем'єр Денис Шмигаль у п'ятницю припустив можливість поступового послаблення карантину, якщо динаміка захворюваності почне знижуватися.
+Наприклад, у кінці квітня можуть частково відновити рух громадського транспорту та дозволити ходити на роботу людям працездатного віку.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>6/04/2020</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Кеті Прескотт</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Суспільство</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>"І тут телефон впав у ванну". Як це - працювати з дому під час карантину</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+JAMES GILL
+"Минулого тижня під час відеонаради у колеги за спиною ходив її напівоголений хлопець", - розповідає консультант із комунікацій Джейсон Ніссе.
+Цей приклад добре ілюструє підводні камені відеоконференцій - технології, до якої тисячі людей звикають, намагаючись працювати вдома.
+Деякі ситуації справді потребують радикальної допомоги.
+Карантин? Який карантин? Шведський підхід до боротьби з коронавірусом
+Кохання під час коронавірусу. Фільм ВВС з Уханя
+Коронавірус: 9 питань, на які ми досі не маємо відповіді
+Приміром, працівник фінансової служби однієї компанії отримав на корпоративну пошту таке попередження: "Монітор вашого комп'ютера проглядається, і ми всі можемо бачити, як між пошуковими запитами ви дивитесь порно".
+Сервіси для телеконференцій, такі як Zoom, Microsoft Teams та Google Meet, повідомляють про різке збільшення кількості користувачів.
+Для багатьох із нас це абсолютно новий спосіб роботи, до якого треба адаптуватись.
+Чи всі мене чують?
+Якість зв'язку, технічні проблеми і, звичайно ж, невправність користувачів додають сум'яття під час відеонарад.
+Переконавшись, що всі розуміють, як працює програма, можна заощадити величезну кількість часу.
+Крім того, деякі керівники усвідомили, що до участі у нарадах часто залучають персонал, якому насправді не потрібно там бути.
+А скорочення кількості учасників відеоконференції зменшує рівень небажаного шуму.
+Один важко дихає, інший чмихає або кашляє, гавкає собака або дзвонять у двері - усі ці неприємні додаткові звуки можна прибрати, вимкнувши мікрофон.
+Ось ще один приклад не дуже приємної ситуації.
+"Якось клієнт розмовляв зі мною у ванній, і я чув плескіт води і стукіт крану. Потім він зрозумів, що мікрофон увімкнений, і телефон вислизнув у нього з рук у ванну. У мене в слухавці з'явилося дзюрчання, булькання і хлюпання. Клієнт вистрибнув з ванни, щоб взяти інший телефон, послизнувся та впав зі сходів", - згадує Ніл Хендерсон з Zurich Insurance.
+Хто модератор?
+Під час онлайн-наради варто призначити відповідального за її організацію. Це має бути людина, яка може перевести розмову у необхідний напрямок, коли, приміром, дискусія "скотилась" до забезпечення офісу туалетним папером.
+Стів Паркс із цифрового агентства Convivio каже, що це нагадує роботу модератора ток-шоу.
+Як подорожувати під час епідемії
+Як безпечно купувати продукти та замовляти їжу з доставкою
+Карантин: що зі школою і вступом до вишів?
+Чи захищають медичні маски від вірусу?
+"Він відповідає за таймінг, розподіл дискусії між "гостями", запитання до аудиторії, темп та динаміку процесу", - говорить він.
+Теле- та радіопродюсери завжди працюють за цим принципом, вибудовуючи програми. Кожне питання має свої часові межі, мету та можливі додаткові моменти, які треба розглянути.
+Доцільно скласти порядок денний заздалегідь та ознайомити з ним учасників. Це та дотримання часового ліміту допомагає краще організувати зустріч та не перетворити її на балаган.
+"Під час звичайного спілкування люди іноді говорять одночасно. Але в режимі відеоконференції це неможливо, тому що розмова перетворюється на нерозбірливий гомін. А поганий зв'язок загострює проблему", - розповідає Кріс Херст, виконавчий директор медіа-компанії Havas Global, яка працює дистанційно від початку спалаху коронавірусу в Китаї.
+"Крім того, наше спілкування - здебільшого невербальне. А під час відеоконференцій це зазвичай втрачається, тому модератор має постійно про це пам'ятати", - пояснює пан Херст.
+Вигляд у кадрі
+Не забувайте, що відеонарада - частина робочого процесу, і в кадрі ви маєте виглядати охайно і пристойно, принаймні, верхня частина тіла.
+Оператор BBC Трейсі Ленгфорд рекомендує поставити ноутбук на стос книг - так, щоб він був на рівні очей.
+"Погляд вниз справляє не дуже приємне враження, - зазначає вона. - Тому не забувайте дивитись на верхню частину екрана - туди, де розміщена камера, а не на сам екран".
+Кілька слів про освітлення.
+Трейсі радить розмістити джерело світла трохи вище обличчя: "Не варто одну частину обличчя освітлювати з вікна, а іншу - за допомогою внутрішнього світла. Оберіть щось одне", - каже вона.
+Подумайте також про інтер'єр у кадрі за вашою спиною. Неприбране ліжко, сушарка для одягу або засоби для миття у ванній кімнаті виглядають дивно і псують бізнес-атмосферу.
+Але комічні та іноді абсурді ситуації під час відеонарад мають і користь, говорить Бен Тодд з Rolls Royce.
+"Я не проти сторонніх звуків. Люблю слухати, як граються діти, працює телевізор або гавкає собака. Це нагадує про те, що всі ми - люди", - говорить він.
+Image caption
+Мелінда де Бур
+Мелінда де Бур, директорка з комунікацій одного зі світових брендів, погоджується: "Багато разів мої колеги бачили, як я кидала суворі погляди на моїх двох синів, що вештались у кімнаті, де я намагалася працювати через Skype. Колеги кажуть, що щоразу самі лякалися, шкода, що з дітьми це не дуже працювало!"
+Суспільний резонанс
+Через карантин довелось відмовитись від корпоративних п'ятничних посиденьок у пабі.
+Проте багато компаній кажуть, що намагаються підтримувати нормальне щоденне спілкування між колегами і отримувати задоволення від роботи.
+Приміром, британська компанія Etch під час обідньої перерви проводить вікторини для клієнтів і працівників, а також організувала віртуальний кіноклуб і заняття йогою. Інші компанії розповідають, як вони обідають "разом" - при цьому кожен сидить за столом у себе вдома.
+Якщо ж відеоконференції - не ваш стиль роботи, то вам не пощастило, вважає Кріс Херст, виконавчий директор медіа-компанії Havas Global.
+"Гадаю, що нинішній досвід може стати поштовхом до швидкого та сталого впровадження технологій, що дозволяють нам працювати віддалено щодня", - говорить він.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>5/04/2020</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Селестіна Олулод</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Суспільство</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>Коронавірус і секс: що ви хотіли, але соромились запитати</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Чи можна заразитися коронавірусом під час сексу? Можливо, ви думали про це, але соромилися запитати.
+Щоб відокремити факти від міфів, ми поставили ваші запитання експертам охорони здоров'я.
+Д-р Алекс Джордж - лікар швидкої допомоги та колишній учасник реаліті-шоу "Острів кохання". Алікс Фокс - секс-журналістка, ведуча шоу "Несподівані рідини" (Unexpected Fluids) на BBC Radio 1 та співавторка подкасту The Modern Mann.
+Кохання під час коронавірусу. Фільм ВВС з Уханя
+"Від психозу будуть інші хвороби". Як Лукашенко підкорив коронавірус в Білорусі
+Чи безпечно займатися сексом під час спалаху коронавірусу?
+Д-р Алекс Джордж: Якщо ви перебуваєте в стосунках ... живете з цією людиною, то це не повинно вплинути на вашу ситуацію. Однак якщо у когось із вас є симптоми коронавірусу, вам слід дотримуватись соціальної дистанції та ізолюватись навіть у своєму будинку. В ідеальному світі усі мають бути на відстані двох метрів одне від одного - навіть у власному будинку. Але ми розуміємо, що це малореально.
+Алікс Фокс: Також важливо не припускати, що якщо у вас легкі симптоми коронавірусу, то так само буде і у вашого партнера. Отже, якщо у вас є будь-які симптоми, то намагайтеся триматися подалі від коханого.
+Image caption
+Алікс Фокс та доктор Алекс Джордж відповіли на деякі питання щодо сексу та коронавірусу, відповіді на які шукають в інтернеті
+Як бути із сексом з новими людьми?
+Д-р Алекс: Я, звичайно, не радив би мати зараз нових сексуальних партнерів, тому що таким чином може передаватися вірус.
+Алікс Фокс: Не забувайте також, що деякі люди, які є носіями вірусу, не матимуть жодних симптомів. Тож навіть якщо ви почуваєтесь абсолютно добре ... ви все одно можете когось заразити, а вони можуть передати її іншим людям через тісний контакт і поцілунки.
+Я поцілував нового знайомого, у якого невдовзі з'явилися симптоми хвороби. Що мені робити?
+Д-р Алекс: Якщо ви поцілувались або контактували з тим, хто, на вашу думку, захворів на коронавірус, обов'язково самоізолюйтесь.
+Слідкуйте за своїми симптомами. Якщо у вас вони з'являться, будьте особливо обережні. Відвідайте вебсайт nhs.uk. Зателефонуйте до служби 111, лише якщо вам справді потрібна медична допомога.
+Алікс Фокс: Ми маємо бути відповідальними у стосунках. Якщо у вас з'явилися симптоми, і ви знаєте, що останнім часом з кимось цілувалися, ви маєте їм про це сказати. І навіть якщо ви когось поцілували, і у них з'явилися симптоми, а у вас їх немає, вам також слід самоізолюватися.
+Ми з партнером не користувалися презервативами до коронавірусу - чи варто починати зараз?
+Алікс Фокс: Відповідь залежить від того, чому ви не використовували презервативи.
+Якщо ви не користувались ними, бо обоє перевірились на ІПСШ або перебуваєте в гетеросексуальних стосунках до менопаузи і використовуєте інший вид контрацепції для запобігання незапланованій вагітності, то все гаразд. Але якщо ви не використовували презервативи, бо покладалися на щось на кшталт перерваного статевого акту - або ризикували заразитися ІПСШ - тоді ще важливіше зараз почати їх використовувати.
+Як подорожувати під час епідемії
+Як безпечно купувати продукти та замовляти їжу з доставкою
+Карантин: що зі школою і вступом до вишів?
+Чи захищають медичні маски від вірусу?
+Чи можу я заразитися коронавірусом, торкаючись чужої піхви чи пеніса?
+Д-р Алекс: Якщо ви збираєтесь торкатися геніталій один одного, цілком ймовірно, що ви під час цього також можете цілуватися - а ми знаємо, що вірус передається через слину. По суті, будь-яка можливість передачі коронавірусу - з рота на руки, на геніталії, до чужого носа чи рота - збільшує ризики. Ми хочемо їх скоротити до абсолютного мінімуму. Отже, жодних контактів із партнером, з яким ви не живете разом.
+Як мені підтримувати стосунки у такий час? Я не хочу бути самотнім.
+Алікс Фокс: Уся ця пандемія спонукає багатьох людей переосмислити, що таке гарне сексуальне життя і як його підтримувати. Я чула, що люди пишуть одне одному еротичні історії, а ті хто, зустрічаються, але перебувають на карантині в різних місцях, знаходять позитив у часі та відстані. Дуже багато людей стали проявляти творчість. Якщо ви трохи пофантазуєте, то знайдете безліч способів, як можна сексуально провести час, навіть не будучи поряд.
+Зараз важливо також пам'ятати про те, що дехто може виявити, що у них із партнером різні лібідо. Ви можете опинитися в ситуації, коли ви ходили на побачення лише раз на тиждень, а тепер раптом живете під одним дахом. Можливо, ви побачите, що хочете займатися сексом, коли ваш партнер цього не хоче, або навпаки. Важливо говорити про це із повагою та розумінням. Спільне життя не означає, що ви маєте право на секс, коли захочете. І для всіх, хто опинився в ситуації, коли їм недобре разом із партнером, бо вони відчувають, що їх примушують до сексу, є доступні лінії довіри.
+Чи маю я більший ризик заразитися коронавірусом, якщо у мене є ВІЛ?
+Алікс Фокс: Д-р Майкл Брейді з організації Terrence Higgins Trust дав кілька справді чудових порад щодо цього. Якщо ви вже приймаєте терапію для боротьби з ВІЛ, у вас хороший показник CD4 (кількість лейкоцитів для боротьби з інфекцією) та невизначене вірусне навантаження (кількість ВІЛ у крові), тоді вашу імунну систему не вважають ослабленою.
+Це означає, що ви не маєте додаткових ризиків заразитися коронавірусом. Отже, якщо ви ВІЛ-позитивні, просто продовжуйте приймати ліки. Переконайтеся, що ви дотримуєтесь тих самих правил, що й решта - наприклад, стосовно самоізоляції.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>5/04/2020</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr"/>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Суспільство</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>Хатка-веселка: як сільська художниця розмалювала свою оселю</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>6/04/2020</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr"/>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Технології</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>Коронавірус: у Британії підпалюють 5G-вежі мобільного зв’язку</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+У Великій Британії розслідують серію підпалів веж мобільного зв'язку, яка може бути пов'язана із конспірологічними теоріями про поширення коронавірусу.
+Останнім часом у соцмережах активно розповсюджувалася інформація про те, що поширення коронавірусу в китайському Ухані пов'язано із тим, що в місті почали розгортати мережу веж 5G.
+Прихильники однієї з теорій вважають, зокрема, що електромагнітне випромінювання завдає шкоди імунній системі людині, і це допомагає проникненню вірусу в організм.
+Прихильники іншої - що вірус якимось чином поширюється через радіохвилі.
+"Проти росіян на Донузлаві легше було": життя заблокованого міста на карантині
+Коронавірус в Україні. Інтерактивна мапа
+Після того, як ця інформація почала ширитися соцмережами, вже у кількох британських регіонах зафіксували підпали веж мобільного зв'язку - зокрема у Бірмінгемі, Ліверпулі та окрузі Меллінг.
+Водночас, як пише видання The Verge, не всі вежі, яким було завдано шкоди, роздають сигнал 5G. Приміром, вежа у Бірмінгемі забезпечувала зв'язок 2G, 3G та 4G.
+У британській владі вже заявили, що немає жодного підтвердження теорії про зв'язок між 5G та коронавірусом, і назвали її нонсенсом.
+"Я обурений тим, що люди завдають шкоди інфраструктурі, яка необхідна для боротьби з цієї надзвичайною ситуацією", - заявив директор Національної служби охорони здоров'я.
+Розслідування інцидентів і встановлення точних причин підпалів триває.
+Як подорожувати під час епідемії
+Чи захищають медичні маски від вірусу?
+"Ховати знайомих гірше". Як живе Європа на карантині
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="inlineStr"/>
+      <c r="C362" t="inlineStr"/>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Здоров'я</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>Коронавірус і секс: відповідаємо на найпопулярніші питання</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="inlineStr"/>
+      <c r="C363" t="inlineStr"/>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Здоров'я</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>Нові міфи про коронавірус: лимони, комарі та донори крові</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Якщо ви хочете зробити безкоштовний тест на Covid-19 і готові заради цього стати донором крові, то це погана ідея. Хоча б тому, що в банках крові донорів не перевіряють на коронавірус.
+Комарі можуть переносити страшні хвороби, але доказів їхньої причетності до пандемії Covid-19 немає.
+Лимони багаті на вітамін С. Але він не захистить вас від зараження.
+Пропустити Youtube допис , автор: BBC News Україна
+Увага: інші сайти можуть містити рекламу
+Кінець Youtube допису , автор: BBC News Україна
+Сам собі перукар. Як чоловіки стрижуться на карантині
+Карантин в Україні: що ще заборонив уряд
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>6/04/2020</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Оуен Амос</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Здоров'я</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>Коронавірус: яка країна "захворіє" останньою?</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+AFP
+Image caption
+Парафіяни миють руки у столиці Малаві Лілонгве
+12 січня - менш як три місяці тому - коронавірус "мешкав" лише в Китаї. Жодного випадку за межами країни, де вперше з'явився Covid-19, виявлено не було.
+А вже 13 січня він став глобальною проблемою. Хвороба дісталась Таїланду, Японії, а далі - Південної Кореї і США.
+Відтоді пандемія крокує планетою, а кількість хворих зростає, мов снігова лавина.
+Права на зображення BBC News Україна
+BBC NEWS УКРАЇНА
+Наразі у світі зареєстровано понад мільйон випадків Covid-19 - від Непалу до Нікарагуа. Кількість померлих збільшується, лікарні переповнені. Постає питання - чи є місце на планеті, де немає коронавірусу?
+Як не дивно, але є.
+Копирайт изображения
+EPA
+Image caption
+Офіційно в КНДР не зареєструвала жодного випадку коронавірусу, а от випробування нових ракет відбуваються там регулярно
+За даними Університету Джонса Гопкінса, станом на початок квітня, про випадки Covid-19 не повідомили 17 країн.
+Науковці врахували дані лише країн-членів ООН. Це загалом 193 держави світу.
+Коронавірус: чи можна ним заразитися двічі?
+Онлайн карта коронавірусу
+Коронавірус: коли закінчиться епідемія
+Країни без Covid-19
+Коморські острови; Кірибаті; Лесото; Маршаллові острови; Мікронезія; Науру; Північна Корея; Палау; Самоа; Сан-Томе і Принсипі; Соломонові острови; Таджикистан; Тонга; Туркменістан; Тувалу; Вануату; Ємен.
+Експерти сходяться на думці, що деякі з них, найімовірніше, не реєструють випадки захворювання. Наприклад, Північна Корея і Ємен наразі офіційно заявляють, що у них немає хворих на коронавірус.
+Але є країни, куди вірус просто не дійшов. Більшість з них - маленькі острови, куди люди майже не їздять. За даними ООН, хворих на Covid-19 немає в семи з 10 найменш відвідуваних місць у світі.
+Нині майже вся планета змушена жити за правилами "соціального дистанціювання", але острівні народи завжди так жили. Самоізоляція - це цілком природне становище для них.
+Президент однієї з таких країн працює на випередження, прагнучи захистити людей від вірусу. У розмові з ВВС він вже назвав Covid-19 національним лихом.
+Онлайн карта коронавірусу
+Коронавірус: що він робить з організмом
+Чи захищають медичні маски від вірусу?
+Як перевіритися на коронавірус?
+Мова йде про Науру - карликову державу на віддаленому острові у західній частині Тихого океану. Найближчий острів - Банаба - розташований за 320 км і належить республіці Кірибаті.
+Найближче велике місто з прямим авіасполученням - Брісбен, за 4000 км на південний захід.
+Науру - друга за величиною карликова держава серед країн-членів ООН, менше тільки Монако. І друга за кількістю населення після Тувалу - там живе близько 10 тисяч людей.
+Це також одне з найменш відвідуваних місць на Землі. Як розповів один туроператор, лише 160 туристів щороку відвідують Науру.
+Здається, що таке віддалене місце не потребує додаткової самоізоляції. Але країна, де є лише одна лікарня, та й та без вентиляторів і достатньої кількості медсестер, звичайно, у зоні ризику.
+2 березня країна закрила кордон для Китаю, Південної Кореї та Італії. Пізніше до цього переліку додали Іран.
+В середині березня місцева авіакомпанія Nauru Airlines перепинила авіасполучення з Фіджі, Кірібаті та Маршалловими островами, а кількість рейсів до Брісбена скоротили з трьох на тиждень до одного на два тижні.
+Всі, хто прибуває з Австралії мають пройти 14-денний карантин у місцевих готелях.
+Президент Науру Лайонел Енгімеа називає таку політику "захопленням і стримуванням".
+Людей на карантині щодня перевіряють на наявність симптомів Covid-19. Якщо підвищується температура, беруть аналіз на коронавірус і продовжують самоізоляцію. Поки всі тести, що відправили на перевірку до Австралії, дали негативні результати.
+Попри кризу в країні, прості науруанці "спокійні і зібрані", говорить президент. А сам він знаходить підтримку в релігії та вдячний іншим країнам за допомогу - особливо Австралії і Тайваню, з якими Науру підтримує всебічні відносини.
+Пан Енгімеа розуміє, що решті світу не так пощастило.
+"Щоразу, як ми дивимося на мапу Covid-19, створюється враження, що світ охопив спалах кору - всюди червоні точки, - говорить він. - Але ми віримо, що наші молитви допоможуть іншим народам пережити ці важкі часи".
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Є побоювання, що зубожілий Науру не зможе подолати можливий спалах коронавірусу
+Науру - не єдина маленька тихоокеанська країна, що оголосила надзвичайний стан, - Кірібаті, Тонга, Вануату та інші зробили те саме.
+Колін Тукуітонга з Ніуе - карликової острівної держави у південній частині Тихого океану - переконаний, що це правильна політика.
+"Це, без сумніву, найкращий вибір - тримати цю бісову штуку подалі, - каже він. - Бо, якщо вона туди зайде, буде біда".
+Доктор Тукуітонга - експерт з громадської охорони здоров'я, колишній комісар ВООЗ, а нині заступник декана у медичній школі Оклендського університету.
+"Ці країни не мають надійної системи охорони здоров'я, - каже він. - Вони маленькі, вразливі. Спалах просто знищить їхнє населення".
+За його словами, багато жителів тихоокеанських островів мають слабке здоров'я.
+"Вони страждають на діабет, хвороби серця і грудної клітини. Тому - у групі ризику у випадку зараження коронавірусом".
+Якщо буде серйозний спалах, будь-якій з цих карликових країн доведеться відправляти своїх пацієнтів за кордон. Але це легше сказати, ніж зробити, адже зараз майже всі країни блокують свої кордони.
+Тому, каже Тукуітонга, їм варто якомога довше уникати зараження.
+"Ізоляція, яка завжди була для них проблемою, сьогодні перетворилася на захист", - каже він.
+Невеликій кількості країн із сухопутними кордонами також поки вдається уникнути спалаху коронавірусної інфекції.
+Лише в четвер Малаві - країна у Східній Африці, що не має виходу до моря, з населенням 18 мільйонів, - повідомила про перші випадки захворювання. Але вони готувалися їх прийняти.
+Країна оголосила надзвичайний стан, закрила школи і скасувала всі візи, видані до 20 березня.
+"Влада також активізувала зусилля, щоб забезпечити населення тестами на коронавірус", - каже доктор Пітер Макферсон, експерт з громадської охорони здоров'я з Ліверпульської школи тропічної медицини, який нині працює в Малаві.
+За його словами, країна мала один-два тижні, щоб підготуватись. І це дуже важливо, тому він переконаний, що Малаві впорається.
+"Останні 30 років Малаві страждала від епідемії ВІЛ та пандемії туберкульозу, - пояснює пан Макферсон. - Вони розробили дуже прості, але ефективні заходи медичного реагування. І тепер ці навички дуже допомогли".
+Як свідчать дослідження, коронавірус "завітає" до кожної країни, каже доктор Макферсон. Тому, якщо не Малаві, то яка країна стане останнім місцем призначення Covid-19?
+"Ймовірно, це будуть ті самі маленькі тихоокеанські країни, дуже віддалені острови", - каже Енді Татем, професор просторової демографії та епідеміології в Університеті Саутгемптона.
+"Ми живемо в умовах глобалізованої економіки, тому я не впевнений, що комусь вдасться уникнути такого інфекційного захворювання".
+"Більшість країн, подібних до Науру, дуже залежать від імпортних товарів, і хочуть експортувати свої. Вони звичайно можуть повністю закрити кордони, але від цього постраждає економіка. Тому рано чи пізно їм доведеться скасувати карантин".
+Піку епідемії ми ще не досягли, попереджає він.
+"Наразі ми всі живемо в режимі самоізоляції, що знижує поширення вірусу. Багато людей ще не перехворіли. Це зменшує навантаження для системи охорони здоров'я, але це також означає, що сприйнятливість до вірусу вкрай висока. І нам доведеться жити з цим вірусом ще деякий час".
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>6/04/2020</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr"/>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Здоров'я</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>Коронавірус в Україні: 1319 хворих, помер священник</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+УНІАН
+За минулу добу в Україні зафіксовано 68 нових випадків зараження коронавірусом - кількість хворих зросла до 1319.
+"Проти росіян на Донузлаві легше було": життя заблокованого міста на карантині
+Коронавірус в Україні. Інтерактивна мапа
+38 людей померло від COVID-19.
+Водночас вже 28 хворих одужали.
+За словами головного сантіарного лікаря Віктора Ляшка, за минулу добу померло шість людей, одужало троє.
+Пропустити Youtube допис , автор: BBC News Україна
+Увага: інші сайти можуть містити рекламу
+Кінець Youtube допису , автор: BBC News Україна
+Зокрема стало відомо про смерть священника із Заліщиків, в якого першого на Тернопільщині підтвердився діагноз COVID-19. Чоловік перебував у госпіталі, але в останні дні його стан погіршився.
+Про це повідомив Тернопільський штаб для боротьби з коронавірусом.
+"Помер чоловік 57 років з міста Заліщики. Це священик, у якого першим на Тернопільщині лабораторно підтвердили коронавірус. Чоловік проходив лікування в Тернопільській лікарні швидкої допомоги. В останні дні його стан погіршився. Пацієнта підключили до апарату штучної вентиляції легень. Врятувати чоловіка не вдалося. Сьогодні вранці він помер. Висловлюємо співчуття рідним", - йдеться у повідомленні.
+Пропустити Facebook допис , автор: Тернопільський штаб для боротьби з коронавірусом
+❗️НА ТЕРНОПІЛЬЩИНІ ЩЕ ОДИН ЛЕТАЛЬНИЙ ВИПАДОК ВІД COVID-19 🔹Помер чоловік 57 років з міста Заліщики. 🔹Це священик, у...
+Posted by Тернопільський штаб для боротьби з коронавірусом on Sunday, 5 April 2020
+Кінець Facebook допису , автор: Тернопільський штаб для боротьби з коронавірусом
+Найбільше хворих у Києві (234 випадки), у Чернівецькій області (220 випадків), на Тернопільщині (160 випадків) та Івано-Франківщині (116 випадків).
+Пропустити Facebook допис , автор: Центр громадського здоров’я України
+Підтверджено 1319 випадків COVID-19 (станом на 9:00, 6 квітня) Загалом випадки підтверджено: Вінницька обл. — 75...
+Posted by Центр громадського здоров’я України on Sunday, 5 April 2020
+Кінець Facebook допису , автор: Центр громадського здоров’я України
+Віктор Ляшко нагадав, що у випадку появи симптомів COVID-19, перш за все, треба телефонувати своєму сімейному лікарю, а той вже ухвалює рішення про подальші дії і може зетелфонувати мобільній бригаді, що проводить аналізи.
+"Займатися самолікуванням заборонено, оскільки це може призвести до несумісних з життям випадків", - наголосив лікар.
+Він додав, що медики закликають всіх залишатися вдома.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>5/04/2020</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Мішель Робертс</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Здоров'я</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>Коронавірус: поради тим, хто має хронічні захворювання</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+Коронавірус може вразити будь-кого, але вважають, що літні люди і пацієнти з хронічними захворюваннями мають вищий ризик важкого перебігу хвороби.
+Якщо ви потерпаєте від хронічних хвороб, то, можливо, зараз відчуваєте тривогу. Ось, що радять експерти.
+Коронавірус: коли закінчиться епідемія
+Чи допомагає алкоголь? Топ-5 міфів про коронавірус
+"Ховати знайомих гірше". Як живе Європа на карантині
+Хто належить до групи ризику?
+Якщо ви хронічно хворі, шанси підхопити коронавірус у вас такі ж, як у решти людей.
+Але серед людей старшого віку, або з ослабленою імунною системою, або з наявними хронічними хворобами, такими як хвороби серця, діабет чи астма, більший відсоток страждає від серйозних симптомів, якщо таки заражається.
+Більшість хворих на коронавірус швидко одужують після кількох днів відпочинку. Але у деяких ця хвороба протікає важче і часом загрожує життю. Її симптоми подібні до інших знайомих нам захворювань, таких як застуда чи грип:
+кашель,
+висока температура,
+ускладнене дихання.
+До групи ризику входять люди віком від 70 років, незалежно від того, чи є у них хронічні хвороби, а також молодші люди, що мають одну чи кілька з наступних проблем зі здоров'ям:
+хронічні (довготривалі) респіраторні захворювання, такі як астма, хронічне обструктивне захворювання легенів, емфізема чи бронхіт,
+хронічні хвороби серця, наприклад, серцева недостатність,
+хронічні захворювання нирок,
+хронічні захворювання печінки, наприклад, гепатит,
+хронічні неврологічні захворювання, такі як хвороба Паркінсона, бічний аміотрофічний склероз, розсіяний склероз, розлади навчання чи церебральний параліч,
+діабет,
+проблеми з селезінкою - наприклад, серповидноклітинна анемія або видалення селезінки в анамнезі,
+ослаблена імунна система внаслідок хвороби (наприклад, ВІЛ чи СНІДу), медикаментозної терапії (наприклад, стероїдами) чи хіміотерапії,
+значна надмірна вага (ІМТ 40 і вище),
+вагітність.
+Усім людям наразі радять ізолюватися та зберігати дистанцію, щоб зменшити ймовірність зараження та поширення коронавірусу. Людям з групи ризику вкрай необхідно дотримуватись цих порад.
+Починаючи з минулого понеділка, британська Національна служба охорони здоров'я просить близько 1,5 млн британців з високим ризиком ускладнень - наприклад, тих, хто зараз лікується від раку або проходить імунодепресивну терапію, - на 12 тижнів ізолюватися у себе вдома заради власного захисту. Ці люди отримують спеціальні рекомендації від медиків.
+Тих, хто входить до перелічених категорій, але не отримав листа від Національної служби охорони здоров'я, просять негайно зв'язатися зі своїм сімейним лікарем.
+У мене астма, що робити?
+Фахівці з організації Asthma UK радять і далі користуватися профілактичним інгалятором (зазвичай вони коричневого кольору) згідно з приписом лікаря. Це зменшить ризик раптового нападу астми, якщо у дихальні шляхи потрапить будь-який респіраторний вірус, включно з коронавірусом.
+Копирайт изображения
+GETTY IMAGES
+Також постійно носіть з собою інший інгалятор (зазвичай синього кольору) - для полегшення симптомів, якщо ті виникнуть.
+Щодня заміряйте і фіксуйте у щоденнику свою пікову швидкість видиху, якщо маєте спеціальний вимірювальний пристрій (пікфлоуметр). Так ви точно знатимете, чи не погіршуються астматичні симптоми, і зможете відрізнити їх від симптомів коронавірусу.
+Я - літня людина. Чи мушу я самоізолюватися?
+За останніми рекомендаціями головного радника британського уряду з медичних питань, усі - незалежно від віку - наразі мають утримуватися від будь-яких соціальних контактів, окрім неуникних, щоби зупинити поширення вірусу та захистити найбільш вразливих членів суспільства. Відповідно, слід уникати зустрічей навіть з рідними та друзями, як і місць скупчення людей.
+Це особливо важливо для людей віком понад 70 років і тих, хто має хронічні захворювання; адже у разі зараження їм загрожує тяжчий перебіг хвороби.
+Як уже згадувалося, британців з групи ризику офіційно попросили самоізолюватися на 12 тижнів та забезпечили медичними рекомендаціями.
+Керолайн Ейбрагемс, директор доброчинної організації Age UK, рекомендує тим, хто має літніх родичів і друзів, регулярно довідуватися про їхні справи.
+Як коронавірус шириться планетою. Мапа
+Коронавірус: що він робить з організмом
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Чи захищають медичні маски від вірусу?
+Чи можна займатися сексом під час коронавірусу?
+Коронавірус: що треба знати
+Коронавірус: як правильно ізолюватися
+Що як у мене є хронічні проблеми зі здоров'ям?
+Будь-хто, для кого небезпечні вірусні хвороби, такі як ГРЗ чи грип, мусить робити все необхідне, щоби мінімізувати ризик зараження.
+При появі нових симптомів - сильного кашлю та високої температури - слід обов'язково залишатися вдома. Якщо через сім днів симптоми погіршаться чи принаймні не зменшаться, слід зателефонувати своєму сімейному лікарю або на гарячу лінію з питань коронавірусу.
+У мене діабет, що мені робити?
+Хворі на діабет 1 і 2 типу також мають ризик важкого перебігу коронавірусної інфекції.
+"Коронавірус Covid-19 може призводити до ускладнень у пацієнтів з діабетом", - каже Ден Говарт, голова програми медичного обслуговування доброчинної організації Diabetes UK.
+Копирайт изображения
+GETTY IMAGES
+"Якщо на тлі діабету у вас з'являються нові симптоми, такі як кашель, висока температура та ускладнене дихання, вам слід особливо пильнувати рівень цукру у крові".
+За появи таких симптомів необхідно тиждень залишатися вдома, продовжуючи приймати свої звичайні ліки. Не йдіть до поліклініки, аптеки чи лікарні, навіть якщо такий візит був попередньо запланований. Телефонуйте на гарячу лінію, якщо відчуваєте, що не даєте собі ради з симптомами, що ваш стан за сім днів погіршився або принаймні не покращився.
+Карантин: як пристосовується український бізнес
+Карантин в Україні: сервіси, які можуть стати вам у пригоді
+Як перевести на віддалену роботу всю країну
+Якщо ви регулярно заміряєте рівень глюкози у крові за рекомендацією свого лікаря - робіть це ще частіше. Якщо ви не робите цього в домашніх умовах, стежте за ознаками гіперглікемії, такими як надмірна спрага, рясне сечовиділення (особливо вночі), головний біль, втома та млявість. Зателефонуйте своєму лікареві, якщо відчуєте щось подібне.
+Якщо, за відсутності симптомів коронавірусу, вам потрібна планова консультація лікаря з питань діабету, пошукайте можливість отримати її телефоном або через інтернет, уникаючи особистого візиту.
+Чи варто тривожитись вагітним жінкам?
+Наразі немає підстав стверджувати, що вагітні жінки (та їхні малюки) належать до групи ризику, але медики все ж радять майбутнім матерям особливо берегтися. Як і решта людей, вони повинні робити все можливе, щоб уникнути зараження. Їм також слід "особливо суворо" утримуватися від соціальних контактів, йдеться в офіційних рекомендаціях.
+Вагітним, які працюють у сфері охорони здоров'я, радять наступне:
+Якщо ваш термін вагітності - менш ніж 28 тижнів і ви не маєте хронічних захворювань, слід зберігати соціальну дистанцію, але можна продовжувати працювати. Якщо це можливо, не доглядайте за пацієнтами, у яких підозрюють коронавірус. Ретельно зважуйте ризик і користуйтесь захисними засобами.
+Якщо ваш термін вагітності - понад 28 тижнів або, незалежно від терміну, ви маєте хронічні захворювання (наприклад, хвороби серця, легенів тощо), уникайте прямого контакту з пацієнтами.
+Я курю, чи належу я до групи ризику?
+Дебора Арнотт, голова доброчинної медичної організації Ash, радить тим, хто багато курить, позбутися цієї звички або принаймні зменшити споживання тютюнової продукції. Це знизить ризик важкого перебігу коронавірусу.
+"Курці частіше заражаються респіраторними інфекціями та вдвічі частіше, ніж некурці, хворіють на пневмонію", - пояснює вона.
+Копирайт изображения
+GETTY IMAGES
+"З якого боку не дивись, куріння шкідливе для здоров'я; тож нехай курці побачать у коронавірусі додаткову причину кинути цю звичку - і посилити захисні можливості організму зараз, коли цей вірус активно поширюється".
+Як бути з ліками, які я приймаю на постійній основі?
+Важливо, щоби ви приймали свої звичні ліки, навіть якщо маєте симптоми респіраторної інфекції. Якщо у цей час у вас вичерпуються запаси й треба принести ліки з аптеки, попросіть, щоби це зробив хтось із рідних чи знайомих.
+Чи треба мені робити щеплення від грипу?
+Коронавірус - це не вірус грипу, тож щеплення від нього не захистить вас від коронавірусної інфекції. Водночас грип - це теж серйозна хвороба, яка часто викликає ускладнення.
+Якщо ви досі не щеплені від грипу, знайдіть можливість зробити це зараз. У Британії це щеплення безкоштовне для людей віком понад 65 років, дітей, вагітних жінок, пацієнтів з хронічними хворобами чи ослабленою імунною системою.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Поширення коронавірусу у світі станом на 27 березня
+То як мені берегтися від вірусу?
+Наскільки відомо, вірус поширюється через кашель і заражені поверхні, такі як поручні та дверні ручки у громадських місцях.
+Головний спосіб зупинити вірус - це гігієна:
+Кашляючи або чхаючи, прикривайте ніс і рот серветкою або рукавом (не долонею!).
+Негайно викидайте використані одноразові серветки у смітник.
+Часто мийте руки водою з милом; коли це неможливо, користуйтеся дезінфекційним спреєм.
+Намагайтеся не контактувати з хворими.
+Не торкайтесь очей, носа або рота, якщо не впевнені у чистоті своїх рук.
+Підтримуйте рівень фізичної активності - робіть вправи вдома або на власному подвір'ї, якщо живете у приватному будинку.
+Чи треба користуватися маскою?
+Доброчинна організація з підтримки хворих на хвороби легенів British Lung Foundation не рекомендує носити маски, "оскільки вони не мають доведеної ефективності. До того ж, у разі хронічної хвороби легенів маска ускладнює людині й без того важкий процес дихання".
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>5/04/2020</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Зарія Горветт</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>Здоров'я</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>Коронавірус: чи треба пити більше води, щоб не заразитися</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+UNSPLASH
+З початком пандемії інтернетом почали ширитися поради регулярно пити воду та підтримувати вологість у роті. Але чи допоможе це вберегтися від зараження?
+Пандемія коронавірусу породила десятки порад, від просто дивних, як-от лікування кокаїном, до геть небезпечних, наприклад, пити хлорку.
+Однією з багатьох рекомендацій була і порада пити більше води, щоби уникнути зараження.
+Розберемося чому, це також хибна ідея.
+Соцмережами гуляв пост, автори якого стверджували, що рот і горло треба постійно зволожувати і пити воду кожні 15 хвилин.
+Пояснювали це тим, що вода начебто змиє вірус у стравохід, де його знищить шлункова кислота.
+Міфи про коронавірус. Розвінчуємо
+Чи допомагає публічний осуд дотримуватись карантину
+Все про коронавірус. Стислі факти
+"Не можу зрозуміти, як люди взагалі ведуться на таке, це ж спрощення", - каже Калпана Сабапаті, клінічний епідеміолог із Лондонської школи гігієни та тропічної медицини.
+Фахівець пояснює, що захворювання розвивається тоді, коли в наш організм потрапили тисячі, а то й мільйони заражених вірусом частинок. А тому змивання декількох з них у шлунок навряд чи допоможе.
+"Прокол цієї гіпотези у тому, що змити всі віруси у стравохід просто неможливо, - додає вчена, - адже на цей момент вони напевно вже будуть на слизовій носу та в інших місцях".
+Утім, навіть якщо уявити, що вірус не встиг потрапити до клітин дихального тракту, він може проникнути в організм й іншими шляхами.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Останні дані свідчать, що коронавірус може вижити навіть після того, як він пройде через шлунок
+Зараження може відбутися, коли людина торкається забрудненими пальцями рота, а також через ніс або очі.
+Утім, основний ризик полягає у вдиханні крихітних крапель, які містять частинки з вірусом. Вони потрапляють у повітря з кашлем та чханням хворого і можуть залишатися в ньому протягом години.
+Є й ще одна причина, чому пиття води може не допомогти. Теорія припускає, що коли вірус потрапляє до шлунку, шлункова кислота негайно його знищить.
+Зрештою, шлункова кислота має рівень pH від одного до трьох, а це приблизно стільки ж, скільки й у акумулятора, який здатний розчиняти сталь.
+Кілька років тому вчені навіть винайшли спосіб, як застосувати шлункову кислоту як джерело живлення.
+Втім, вірус може бути набагато міцнішим. Дослідження іншого коронавірусу, збудника хвороби Mers 2012 року, показало, що вірус є дуже стійкими до кислоти такого ж рівня, як і у шлунку людини, яка нещодавно поїла.
+Коронавірус в Україні. Інтерактивна мапа
+Як подорожувати під час епідемії
+Як перевіритися на коронавірус?
+Коронавірус: як правильно ізолюватися
+Коронавірус: що він робить з організмом
+Вчені виявили, що вірусу вдалося колонізувати кишківник одного пацієнта, а також, що він легко проникає у клітини шлунково-кишкового тракту.
+Отже, заразитися таким чином цілком можливо.
+Чи має такі самі властивості й новий коронавірус, поки що невідомо. Але серед симптомів Covid-19 деякі пацієнти називають нудоту і діарею. Фахівці з Китаю попереджають, що є ознаки того, що вірус може інфікувати кишковий тракт.
+За даними ще одного дослідження, у понад половини хворих на Covid-19 вірус є у фекаліях. І він зберігається в калі досить довгий час після того, коли у легенях його більше не виявляють.
+Варто зазначити, що жодного наукового дослідження того, чи допомагає пиття води вберегтися від коронавірусу, не було.
+Але 15 років тому вчені спробували перевірити, чи може полоскання горла, популярне в Японії, запобігти респіраторним захворюванням.
+Як вони з'ясували, учасники, які протягом двох місяців тричі на день полоскали горло водою, дійсно, мали менший ризик респіраторних симптомів, ніж ті, хто полоскали горло антисептичним розчином або не робили нічого.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+Вірус може потрапити в організм багатьма способами, а тому пиття води навряд чи істотно знизить ризик зараження
+Втім, чи ефективна ця процедура проти Covid-19, невідомо, а тому робити такі припущення - небезпечно.
+По-перше, дослідження стосувалося інфекцій верхніх дихальних шляхів, тоді як Covid-19 інфікує й нижні дихальні шляхи, проникаючи у грудну клітку та легені.
+По-друге, під час експерименту учасники самостійно повідомляли про свої симптоми (їх не оцінювали об'єктивно). Крім того, вони знали, до якої досліджуваної групи вони належать.
+Такі дослідження є менш точними, оскільки вони не виключають ефект плацебо.
+Як наголошує Калпана Сабапаті, хоча пиття води виглядає нешкідливою порадою, важливо донести до людей, що вона не є ефективною.
+Ризик полягає в тому, що такі поради створюють хибне почуття безпеки.
+"Люди вважають, що якщо вони виконують ці правила, з ними все буде в порядку. І це відволікає їхню увагу від справді важливих речей", - додає фахівець.
+Зараз єдиним доведеним способом захистити себе і близьких є уникати зайвих соціальних контактів та мити руки.
+Тож, воду краще не пити, а мити нею руки і обов'язково - з милом, додає дослідниця.
+Прочитати оригінал цієї статті англійською мовою ви можете на сайті BBC Future.
+Хочете поділитися з нами своїми життєвими історіями? Напишіть про себе на адресу questions.ukrainian@bbc.co.uk, і наші журналісти з вами зв'яжуться.
+Хочете отримувати головне в месенджер? Підписуйтеся на наш Telegram або Viber!
+--
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>7/04/2020</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr"/>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>Спорт</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>Екскерівників ФІФА звинувачують в мільйонних хабарях за підтримку Росії</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Копирайт изображения
+GETTY IMAGES
+У США висунули звинувачення проти колишніх функціонерів ФІФА. Їх підозрюють в отриманні хабарів за підтримку заявок Росії та Катару на проведення Чемпіонатів світу.
+Колишнього віцепрезидента федерації Джека Ворнера звинувачують в отриманні 5 мільйонів доларів за підтримку російської заявки на ЧС-2018.
+Це - результат розслідування ФБР щодо корупції в міжнародній федерації футболу.
+У документах, які слідчі подали до суду Нью-Йорка, одразу сімох футбольних функціонерів звинувачують в тому, що їм були обіцяні або виплачені хабарі за вибір країни для проведення Чемпіонатів світу 2018 і 2020 років.
+Євро-2020 з футболу скасували через пандемію коронавірусу. Коли відбудеться
+Коронавірус: для Олімпійських ігор в Токіо затвердили нову дату
+5 мільйонів, 10 офшорних фірм, 30 рахунків
+Як твердять прокурори, 1 листопада 2010 року на адресу асистента колишнього віцепрезидента ФІФА Джека Ворнера прийшов електронний лист, який починався зі слів: "Будь ласка, дайте йому знати, що те, про що ми домовились, буде зроблено наступного тижня".
+Упродовж кількох наступних місяців Ворнер отримав близько 5 мільйонів доларів на рахунок в Трінідадад і Тобаго, вважають прокурори. Перекази коштів йшли через 10 підставних офшорних компаній - від Кіпру до Британських Віргінських островів - і згодом розподілялися між 30 банківськими рахунками в США.
+З деяких потім відправляли гроші на рахунки американських компаній, які отримали контракти на підтримку російської заявки на Чемпіонат світу 2018 року.
+Ворнеру, який є громадянином Тринідаду і Тобаго, поки що вдалося уникнути екстрадиції до США.
+Копирайт изображения
+GETTY IMAGES
+Image caption
+У 2015 корупційні звинувачення призвели до відставки президента ФІФА Йозефа Блаттера
+У звинуваченні також йдеться, що іншому колишньому члену виконкому ФІФА, Рафаелю Сальгеро з Гватемали, був обіцяний хабар у розмірі 1 мільйон доларів за голос на користь Росії. Сальгеро раніше вже визнавав себе винним у корупції і був відсторонений від футболу пожиттєво.
+Окрім того, кажуть прокурори, хабарі за голосування на користь Катару отримали колишній президент КОНМЕБОЛ (Південноамериканська футбольна конфедерація) Ніколас Леос і ексголова бразильської федерації футболу Рікардо Тешейра.
+Леос помер минулого року, під час домашнього арешту в Парагваї, очікуючи на екстрадицію до США. Тейшейру відсторонили від футболу пожиттєво.
+Звинувачення висунені й колишнім керівникам американської телекорпорації 21st Century Fox. За даними слідчих, вони давали хабарі футбольним керівникам за права на трансляції.
+"ФБР розслідує нелегальні угоди і таємні переговори", - заявив заступник директора ФБР Вільям Суіні.
+Чого тепер чекати?
+Російська влада заперечує будь-які звинувачення в корупції, пов'язаній із проведенням Чемпіонату світу з футболу.
+"Ми читали повідомлення у ЗМІ, ми не розуміємо, про що може йтися. Росія абсолютно законно отримала право на проведення ЧС, це жодним чином не пов'язано з якимись хабарами, ми це категорично заперечуємо", - сказав прессекретар президента Росії Дмитро Пєсков.
+Чемпіонат світу в Росії вже минув, а от Катар прийматиме турнір лише у 2022 році. Це вже далеко не перше звинувачення проти арабської монархії - у 2017 році колишній топменеджер аргентинської телекомпанії заявив у американському суді, що боси ФІФА отримували хабарі від Катару.
+У червні 2019 року колишнього президента УЄФА Мішеля Платіні арештували і допитали за справою про корупцію під час вибору заявки Катару.
+Нові звинувачення можуть призвести до вимоги про внутрішнє розслідування ФІФА щодо виборів 2010 років, коли перемогу присудили заявкам Росії і Катару.
+BBC відправила запити на коментар оргкомітету Чемпіонату світу-2022 і ФІФА.
+Що це за розслідування?
+У 2010 році ФІФА проголосувала за проведення ЧС-2018 в Росії, а мундіалю 2022 року - в Катарі. Ці рішення спричинили до обвинувачень про корупцію у верхівці футбольної бюрократії.
+У 2015 році, після обшуку в швейцарському готелі, стало відомо, що міністерство юстиції США проводить розслідування щодо керівника ФІФА і менеджерів телекомпаній.
+Скандал вже призвів до відставки президента ФІФА Зеппа Блаттера і президента УЄФА Мішеля Платіні.
+Загалом звинувачення були висунуті проти 62 людей, 26 із них визнали свою провину.
+Хочете отримувати найважливіші новини в месенджер? Підписуйтеся на наш Telegram або Viber!
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
